--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R624"/>
+  <dimension ref="A1:R626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E612" t="n">
         <v>5</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="K612" t="n">
-        <v>10000</v>
+        <v>18500</v>
       </c>
       <c r="L612" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="M612" t="n">
-        <v>10455</v>
+        <v>18780</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44439,11 +44439,11 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>581</v>
+        <v>1043</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -44489,36 +44489,36 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="K613" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L613" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="M613" t="n">
-        <v>5000</v>
+        <v>15556</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>417</v>
+        <v>864</v>
       </c>
       <c r="Q613" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R613" t="inlineStr">
         <is>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="K614" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L614" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M614" t="n">
-        <v>8000</v>
+        <v>10455</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>444</v>
+        <v>581</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E615" t="n">
         <v>5</v>
@@ -44633,24 +44633,24 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="K615" t="n">
-        <v>11500</v>
+        <v>5000</v>
       </c>
       <c r="L615" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M615" t="n">
-        <v>11708</v>
+        <v>5000</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
@@ -44659,10 +44659,10 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>650</v>
+        <v>417</v>
       </c>
       <c r="Q615" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R615" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44705,20 +44705,20 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="K616" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L616" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M616" t="n">
-        <v>9734</v>
+        <v>8000</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>541</v>
+        <v>444</v>
       </c>
       <c r="Q616" t="n">
         <v>18</v>
@@ -44777,24 +44777,24 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="K617" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="L617" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M617" t="n">
-        <v>6000</v>
+        <v>11708</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
@@ -44803,10 +44803,10 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q617" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
@@ -44849,20 +44849,20 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>210</v>
+        <v>470</v>
       </c>
       <c r="K618" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L618" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M618" t="n">
-        <v>8000</v>
+        <v>9734</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>444</v>
+        <v>541</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44916,7 +44916,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -44928,13 +44928,13 @@
         <v>350</v>
       </c>
       <c r="K619" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L619" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M619" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q619" t="n">
         <v>12</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -44993,20 +44993,20 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K620" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L620" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M620" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45015,11 +45015,11 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E621" t="n">
         <v>5</v>
@@ -45060,7 +45060,7 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
@@ -45069,32 +45069,32 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K621" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L621" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M621" t="n">
-        <v>14471</v>
+        <v>4500</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>804</v>
+        <v>375</v>
       </c>
       <c r="Q621" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K622" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L622" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M622" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q622" t="n">
         <v>18</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45216,13 +45216,13 @@
         <v>340</v>
       </c>
       <c r="K623" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L623" t="n">
         <v>15000</v>
       </c>
-      <c r="L623" t="n">
-        <v>16000</v>
-      </c>
       <c r="M623" t="n">
-        <v>15529</v>
+        <v>14471</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>863</v>
+        <v>804</v>
       </c>
       <c r="Q623" t="n">
         <v>18</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -45285,7 +45285,7 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K624" t="n">
         <v>12000</v>
@@ -45313,6 +45313,150 @@
         <v>18</v>
       </c>
       <c r="R624" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>3</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D625" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E625" t="n">
+        <v>5</v>
+      </c>
+      <c r="F625" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J625" t="n">
+        <v>340</v>
+      </c>
+      <c r="K625" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L625" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M625" t="n">
+        <v>15529</v>
+      </c>
+      <c r="N625" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O625" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P625" t="n">
+        <v>863</v>
+      </c>
+      <c r="Q625" t="n">
+        <v>18</v>
+      </c>
+      <c r="R625" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>3</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D626" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E626" t="n">
+        <v>5</v>
+      </c>
+      <c r="F626" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J626" t="n">
+        <v>310</v>
+      </c>
+      <c r="K626" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L626" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M626" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N626" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O626" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P626" t="n">
+        <v>667</v>
+      </c>
+      <c r="Q626" t="n">
+        <v>18</v>
+      </c>
+      <c r="R626" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R626"/>
+  <dimension ref="A1:R628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E569" t="n">
         <v>5</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>530</v>
+        <v>180</v>
       </c>
       <c r="K569" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="L569" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M569" t="n">
-        <v>9764</v>
+        <v>17000</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>542</v>
+        <v>944</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E570" t="n">
         <v>5</v>
@@ -41393,36 +41393,36 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="K570" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="L570" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="M570" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>458</v>
+        <v>778</v>
       </c>
       <c r="Q570" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R570" t="inlineStr">
         <is>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J571" t="n">
         <v>530</v>
       </c>
       <c r="K571" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L571" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M571" t="n">
-        <v>8264</v>
+        <v>9764</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>459</v>
+        <v>542</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E572" t="n">
         <v>5</v>
@@ -41541,32 +41541,32 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="K572" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="L572" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="M572" t="n">
-        <v>14245</v>
+        <v>5500</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>791</v>
+        <v>458</v>
       </c>
       <c r="Q572" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R572" t="inlineStr">
         <is>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E573" t="n">
         <v>5</v>
@@ -41613,16 +41613,16 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>320</v>
+        <v>530</v>
       </c>
       <c r="K573" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L573" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="M573" t="n">
-        <v>11250</v>
+        <v>8264</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>625</v>
+        <v>459</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E574" t="n">
         <v>5</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>150</v>
+        <v>510</v>
       </c>
       <c r="K574" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L574" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="M574" t="n">
-        <v>12000</v>
+        <v>14245</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41703,11 +41703,11 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>667</v>
+        <v>791</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E575" t="n">
         <v>5</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K575" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L575" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="M575" t="n">
-        <v>9000</v>
+        <v>11250</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K576" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L576" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M576" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41892,7 +41892,7 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
@@ -41901,16 +41901,16 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K577" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L577" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M577" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E578" t="n">
         <v>5</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K578" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L578" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M578" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41991,11 +41991,11 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E579" t="n">
         <v>5</v>
@@ -42036,25 +42036,25 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="K579" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L579" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M579" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K580" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L580" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M580" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E581" t="n">
         <v>5</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>590</v>
+        <v>280</v>
       </c>
       <c r="K581" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L581" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M581" t="n">
-        <v>16517</v>
+        <v>9000</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>918</v>
+        <v>500</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E582" t="n">
         <v>5</v>
@@ -42257,24 +42257,24 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>630</v>
+        <v>250</v>
       </c>
       <c r="K582" t="n">
         <v>7000</v>
       </c>
       <c r="L582" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M582" t="n">
-        <v>7222</v>
+        <v>7000</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
@@ -42283,10 +42283,10 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>602</v>
+        <v>389</v>
       </c>
       <c r="Q582" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R582" t="inlineStr">
         <is>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>280</v>
+        <v>590</v>
       </c>
       <c r="K583" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="L583" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="M583" t="n">
-        <v>12500</v>
+        <v>16517</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>694</v>
+        <v>918</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E584" t="n">
         <v>5</v>
@@ -42401,24 +42401,24 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>190</v>
+        <v>630</v>
       </c>
       <c r="K584" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L584" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="M584" t="n">
-        <v>16000</v>
+        <v>7222</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
@@ -42427,10 +42427,10 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>889</v>
+        <v>602</v>
       </c>
       <c r="Q584" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R584" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E585" t="n">
         <v>5</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>1880</v>
+        <v>280</v>
       </c>
       <c r="K585" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L585" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="M585" t="n">
-        <v>11598</v>
+        <v>12500</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>644</v>
+        <v>694</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42545,24 +42545,24 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>700</v>
+        <v>190</v>
       </c>
       <c r="K586" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="L586" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M586" t="n">
-        <v>4250</v>
+        <v>16000</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
@@ -42571,10 +42571,10 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>354</v>
+        <v>889</v>
       </c>
       <c r="Q586" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R586" t="inlineStr">
         <is>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>1200</v>
+        <v>1880</v>
       </c>
       <c r="K587" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L587" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M587" t="n">
-        <v>8925</v>
+        <v>11598</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>496</v>
+        <v>644</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42689,24 +42689,24 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>790</v>
+        <v>700</v>
       </c>
       <c r="K588" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L588" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M588" t="n">
-        <v>6899</v>
+        <v>4250</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O588" t="inlineStr">
@@ -42715,10 +42715,10 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="Q588" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R588" t="inlineStr">
         <is>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E589" t="n">
         <v>5</v>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>190</v>
+        <v>1200</v>
       </c>
       <c r="K589" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L589" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M589" t="n">
-        <v>9000</v>
+        <v>8925</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42783,11 +42783,11 @@
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E590" t="n">
         <v>5</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>370</v>
+        <v>790</v>
       </c>
       <c r="K590" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L590" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M590" t="n">
-        <v>7757</v>
+        <v>6899</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42855,11 +42855,11 @@
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K591" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L591" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M591" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42972,7 +42972,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
@@ -42981,16 +42981,16 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="K592" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L592" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M592" t="n">
-        <v>6000</v>
+        <v>7757</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>333</v>
+        <v>431</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43044,29 +43044,29 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K593" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L593" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M593" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
@@ -43075,10 +43075,10 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="Q593" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R593" t="inlineStr">
         <is>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E594" t="n">
         <v>5</v>
@@ -43116,25 +43116,25 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K594" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L594" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M594" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E595" t="n">
         <v>5</v>
@@ -43188,7 +43188,7 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
@@ -43197,20 +43197,20 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="K595" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L595" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="M595" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
@@ -43219,10 +43219,10 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>500</v>
+        <v>292</v>
       </c>
       <c r="Q595" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R595" t="inlineStr">
         <is>
@@ -43265,24 +43265,24 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K596" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L596" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M596" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
@@ -43291,10 +43291,10 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>333</v>
+        <v>611</v>
       </c>
       <c r="Q596" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R596" t="inlineStr">
         <is>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K597" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L597" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M597" t="n">
-        <v>7242</v>
+        <v>9000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>402</v>
+        <v>500</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E598" t="n">
         <v>5</v>
@@ -43413,32 +43413,32 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="K598" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L598" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M598" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="Q598" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R598" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E599" t="n">
         <v>5</v>
@@ -43481,36 +43481,36 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>730</v>
+        <v>310</v>
       </c>
       <c r="K599" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L599" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M599" t="n">
-        <v>4760</v>
+        <v>7242</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q599" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R599" t="inlineStr">
         <is>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K600" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L600" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M600" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -43625,36 +43625,36 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>180</v>
+        <v>730</v>
       </c>
       <c r="K601" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L601" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M601" t="n">
-        <v>10000</v>
+        <v>4760</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>556</v>
+        <v>397</v>
       </c>
       <c r="Q601" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R601" t="inlineStr">
         <is>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E602" t="n">
         <v>5</v>
@@ -43697,11 +43697,11 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K602" t="n">
         <v>9000</v>
@@ -43719,7 +43719,7 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P602" t="n">
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J603" t="n">
         <v>180</v>
       </c>
       <c r="K603" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L603" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M603" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -43845,16 +43845,16 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K604" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L604" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M604" t="n">
-        <v>12758</v>
+        <v>9000</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>709</v>
+        <v>500</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E605" t="n">
         <v>5</v>
@@ -43917,16 +43917,16 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="K605" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L605" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M605" t="n">
-        <v>10529</v>
+        <v>7000</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43935,11 +43935,11 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>585</v>
+        <v>389</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E606" t="n">
         <v>5</v>
@@ -43985,20 +43985,20 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K606" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L606" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M606" t="n">
-        <v>15000</v>
+        <v>12758</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44007,11 +44007,11 @@
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>833</v>
+        <v>709</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E607" t="n">
         <v>5</v>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K607" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L607" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M607" t="n">
-        <v>12000</v>
+        <v>10529</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44079,11 +44079,11 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>667</v>
+        <v>585</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K608" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L608" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M608" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E609" t="n">
         <v>5</v>
@@ -44201,20 +44201,20 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K609" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L609" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M609" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q609" t="n">
         <v>18</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E610" t="n">
         <v>5</v>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="K610" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L610" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M610" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J611" t="n">
         <v>250</v>
       </c>
       <c r="K611" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L611" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M611" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E612" t="n">
         <v>5</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="K612" t="n">
-        <v>18500</v>
+        <v>8000</v>
       </c>
       <c r="L612" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M612" t="n">
-        <v>18780</v>
+        <v>8000</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44439,11 +44439,11 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>1043</v>
+        <v>444</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K613" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L613" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M613" t="n">
-        <v>15556</v>
+        <v>7000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>864</v>
+        <v>389</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E614" t="n">
         <v>5</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="K614" t="n">
-        <v>10000</v>
+        <v>18500</v>
       </c>
       <c r="L614" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="M614" t="n">
-        <v>10455</v>
+        <v>18780</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>581</v>
+        <v>1043</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E615" t="n">
         <v>5</v>
@@ -44633,36 +44633,36 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="K615" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L615" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="M615" t="n">
-        <v>5000</v>
+        <v>15556</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>417</v>
+        <v>864</v>
       </c>
       <c r="Q615" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R615" t="inlineStr">
         <is>
@@ -44705,20 +44705,20 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="K616" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L616" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M616" t="n">
-        <v>8000</v>
+        <v>10455</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>444</v>
+        <v>581</v>
       </c>
       <c r="Q616" t="n">
         <v>18</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -44777,24 +44777,24 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="K617" t="n">
-        <v>11500</v>
+        <v>5000</v>
       </c>
       <c r="L617" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M617" t="n">
-        <v>11708</v>
+        <v>5000</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
@@ -44803,10 +44803,10 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>650</v>
+        <v>417</v>
       </c>
       <c r="Q617" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E618" t="n">
         <v>5</v>
@@ -44849,20 +44849,20 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="K618" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L618" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M618" t="n">
-        <v>9734</v>
+        <v>8000</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>541</v>
+        <v>444</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44921,24 +44921,24 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="K619" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="L619" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M619" t="n">
-        <v>6000</v>
+        <v>11708</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
@@ -44947,10 +44947,10 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q619" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R619" t="inlineStr">
         <is>
@@ -44993,20 +44993,20 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>210</v>
+        <v>470</v>
       </c>
       <c r="K620" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L620" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M620" t="n">
-        <v>8000</v>
+        <v>9734</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>444</v>
+        <v>541</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45060,7 +45060,7 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
@@ -45072,13 +45072,13 @@
         <v>350</v>
       </c>
       <c r="K621" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L621" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M621" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q621" t="n">
         <v>12</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K622" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L622" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M622" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q622" t="n">
         <v>18</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45204,7 +45204,7 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -45213,32 +45213,32 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K623" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L623" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M623" t="n">
-        <v>14471</v>
+        <v>4500</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>804</v>
+        <v>375</v>
       </c>
       <c r="Q623" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
@@ -45281,20 +45281,20 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K624" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L624" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M624" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E625" t="n">
         <v>5</v>
@@ -45360,13 +45360,13 @@
         <v>340</v>
       </c>
       <c r="K625" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L625" t="n">
         <v>15000</v>
       </c>
-      <c r="L625" t="n">
-        <v>16000</v>
-      </c>
       <c r="M625" t="n">
-        <v>15529</v>
+        <v>14471</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>863</v>
+        <v>804</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E626" t="n">
         <v>5</v>
@@ -45429,7 +45429,7 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K626" t="n">
         <v>12000</v>
@@ -45457,6 +45457,150 @@
         <v>18</v>
       </c>
       <c r="R626" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>3</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D627" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E627" t="n">
+        <v>5</v>
+      </c>
+      <c r="F627" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J627" t="n">
+        <v>340</v>
+      </c>
+      <c r="K627" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L627" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M627" t="n">
+        <v>15529</v>
+      </c>
+      <c r="N627" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O627" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P627" t="n">
+        <v>863</v>
+      </c>
+      <c r="Q627" t="n">
+        <v>18</v>
+      </c>
+      <c r="R627" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>3</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D628" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E628" t="n">
+        <v>5</v>
+      </c>
+      <c r="F628" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J628" t="n">
+        <v>310</v>
+      </c>
+      <c r="K628" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L628" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M628" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N628" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O628" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P628" t="n">
+        <v>667</v>
+      </c>
+      <c r="Q628" t="n">
+        <v>18</v>
+      </c>
+      <c r="R628" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R628"/>
+  <dimension ref="A1:R630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -31169,20 +31169,20 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>160</v>
+        <v>570</v>
       </c>
       <c r="K428" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="L428" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="M428" t="n">
-        <v>15500</v>
+        <v>18746</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>861</v>
+        <v>1041</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E429" t="n">
         <v>5</v>
@@ -31241,20 +31241,20 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="K429" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="L429" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M429" t="n">
-        <v>11742</v>
+        <v>15000</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>652</v>
+        <v>833</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31313,20 +31313,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J430" t="n">
         <v>160</v>
       </c>
       <c r="K430" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="L430" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="M430" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>556</v>
+        <v>861</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -31385,20 +31385,20 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>170</v>
+        <v>310</v>
       </c>
       <c r="K431" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L431" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M431" t="n">
-        <v>14000</v>
+        <v>11742</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31407,11 +31407,11 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>778</v>
+        <v>652</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -31457,20 +31457,20 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K432" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L432" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M432" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31479,11 +31479,11 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K433" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L433" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M433" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="K434" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L434" t="n">
         <v>12000</v>
       </c>
       <c r="M434" t="n">
-        <v>11681</v>
+        <v>12000</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31623,11 +31623,11 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="Q434" t="n">
         <v>18</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K435" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L435" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M435" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31695,11 +31695,11 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="K436" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="L436" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M436" t="n">
-        <v>18000</v>
+        <v>11681</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="Q436" t="n">
         <v>18</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K437" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L437" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M437" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K438" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L438" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M438" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31911,11 +31911,11 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -31961,20 +31961,20 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="K439" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L439" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M439" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31983,11 +31983,11 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32033,20 +32033,20 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K440" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L440" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M440" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -32105,11 +32105,11 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="K441" t="n">
         <v>9000</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -32177,11 +32177,11 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K442" t="n">
         <v>7000</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -32256,13 +32256,13 @@
         <v>180</v>
       </c>
       <c r="K443" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L443" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M443" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K444" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L444" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M444" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32393,24 +32393,24 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K445" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L445" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M445" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -32419,10 +32419,10 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="Q445" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32465,20 +32465,20 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K446" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L446" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M446" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -32537,36 +32537,36 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="K447" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L447" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M447" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>611</v>
+        <v>417</v>
       </c>
       <c r="Q447" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -32609,20 +32609,20 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K448" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L448" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M448" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32631,11 +32631,11 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32681,20 +32681,20 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="K449" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L449" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M449" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>417</v>
+        <v>611</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>570</v>
+        <v>210</v>
       </c>
       <c r="K450" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L450" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="M450" t="n">
-        <v>11254</v>
+        <v>9000</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="K451" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L451" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M451" t="n">
-        <v>8809</v>
+        <v>7500</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>489</v>
+        <v>417</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -32901,7 +32901,7 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>410</v>
+        <v>570</v>
       </c>
       <c r="K452" t="n">
         <v>11000</v>
@@ -32910,7 +32910,7 @@
         <v>11500</v>
       </c>
       <c r="M452" t="n">
-        <v>11220</v>
+        <v>11254</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -32969,24 +32969,24 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="K453" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L453" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M453" t="n">
-        <v>4500</v>
+        <v>8809</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
@@ -32995,10 +32995,10 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>375</v>
+        <v>489</v>
       </c>
       <c r="Q453" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="K454" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L454" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="M454" t="n">
-        <v>9000</v>
+        <v>11220</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>500</v>
+        <v>623</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -33117,20 +33117,20 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="K455" t="n">
-        <v>11500</v>
+        <v>4500</v>
       </c>
       <c r="L455" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M455" t="n">
-        <v>11780</v>
+        <v>4500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
@@ -33139,10 +33139,10 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>654</v>
+        <v>375</v>
       </c>
       <c r="Q455" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -33185,24 +33185,24 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K456" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L456" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M456" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -33211,10 +33211,10 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q456" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33257,20 +33257,20 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="K457" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L457" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M457" t="n">
-        <v>9000</v>
+        <v>11780</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>500</v>
+        <v>654</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33329,24 +33329,24 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="K458" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L458" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M458" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
@@ -33355,10 +33355,10 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="Q458" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K459" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L459" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M459" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33423,11 +33423,11 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="K460" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L460" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M460" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33495,11 +33495,11 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J461" t="n">
         <v>180</v>
       </c>
       <c r="K461" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L461" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M461" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K462" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L462" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M462" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K463" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L463" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M463" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33761,24 +33761,24 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>540</v>
+        <v>180</v>
       </c>
       <c r="K464" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="L464" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M464" t="n">
-        <v>9741</v>
+        <v>17000</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -33787,10 +33787,10 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>812</v>
+        <v>944</v>
       </c>
       <c r="Q464" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R464" t="inlineStr">
         <is>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K465" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L465" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M465" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -33905,24 +33905,24 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>150</v>
+        <v>540</v>
       </c>
       <c r="K466" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L466" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M466" t="n">
-        <v>15000</v>
+        <v>9741</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -33931,10 +33931,10 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="Q466" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="K467" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L467" t="n">
         <v>13000</v>
       </c>
       <c r="M467" t="n">
-        <v>12444</v>
+        <v>13000</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>691</v>
+        <v>722</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34049,20 +34049,20 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="K468" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L468" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M468" t="n">
-        <v>9531</v>
+        <v>15000</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>530</v>
+        <v>833</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>410</v>
+        <v>270</v>
       </c>
       <c r="K469" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L469" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M469" t="n">
-        <v>16610</v>
+        <v>12444</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34143,11 +34143,11 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>923</v>
+        <v>691</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="K470" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L470" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M470" t="n">
-        <v>13605</v>
+        <v>9531</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34215,11 +34215,11 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>756</v>
+        <v>530</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="K471" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L471" t="n">
-        <v>11500</v>
+        <v>17000</v>
       </c>
       <c r="M471" t="n">
-        <v>11243</v>
+        <v>16610</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>625</v>
+        <v>923</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="K472" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L472" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="M472" t="n">
-        <v>9250</v>
+        <v>13605</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>514</v>
+        <v>756</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>150</v>
+        <v>370</v>
       </c>
       <c r="K473" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L473" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="M473" t="n">
-        <v>13000</v>
+        <v>11243</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34431,11 +34431,11 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>722</v>
+        <v>625</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="K474" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L474" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="M474" t="n">
-        <v>10000</v>
+        <v>9250</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34503,11 +34503,11 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K475" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L475" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M475" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K476" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L476" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M476" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34647,11 +34647,11 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K477" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L477" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M477" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34719,11 +34719,11 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="K478" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L478" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M478" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>583</v>
+        <v>833</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K479" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L479" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M479" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="K480" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L480" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M480" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34935,11 +34935,11 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P480" t="n">
-        <v>722</v>
+        <v>583</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K481" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L481" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M481" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35007,11 +35007,11 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P481" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K482" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L482" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M482" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K483" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L483" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="M483" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>1110</v>
+        <v>260</v>
       </c>
       <c r="K484" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L484" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M484" t="n">
-        <v>6739</v>
+        <v>8000</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>374</v>
+        <v>444</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35273,24 +35273,24 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K485" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L485" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="M485" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -35299,10 +35299,10 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="Q485" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>150</v>
+        <v>1110</v>
       </c>
       <c r="K486" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L486" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M486" t="n">
-        <v>15000</v>
+        <v>6739</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35367,11 +35367,11 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>833</v>
+        <v>374</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -35421,32 +35421,32 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="K487" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L487" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M487" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P487" t="n">
-        <v>722</v>
+        <v>333</v>
       </c>
       <c r="Q487" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K488" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L488" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M488" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,20 +35565,20 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K489" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L489" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M489" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
@@ -35587,10 +35587,10 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>417</v>
+        <v>722</v>
       </c>
       <c r="Q489" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R489" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E490" t="n">
         <v>5</v>
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K490" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L490" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M490" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35655,11 +35655,11 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,32 +35709,32 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>530</v>
+        <v>350</v>
       </c>
       <c r="K491" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L491" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M491" t="n">
-        <v>7425</v>
+        <v>5000</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q491" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R491" t="inlineStr">
         <is>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J492" t="n">
         <v>180</v>
       </c>
       <c r="K492" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L492" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M492" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>620</v>
+        <v>530</v>
       </c>
       <c r="K493" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L493" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M493" t="n">
-        <v>11516</v>
+        <v>7425</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35871,11 +35871,11 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>640</v>
+        <v>412</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="K494" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L494" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M494" t="n">
-        <v>8804</v>
+        <v>7000</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35943,11 +35943,11 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>489</v>
+        <v>389</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>280</v>
+        <v>620</v>
       </c>
       <c r="K495" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L495" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M495" t="n">
-        <v>7000</v>
+        <v>11516</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>389</v>
+        <v>640</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>190</v>
+        <v>460</v>
       </c>
       <c r="K496" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="L496" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M496" t="n">
-        <v>15000</v>
+        <v>8804</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>833</v>
+        <v>489</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="K497" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L497" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M497" t="n">
-        <v>11529</v>
+        <v>7000</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>640</v>
+        <v>389</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K498" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L498" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M498" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="K499" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L499" t="n">
         <v>12000</v>
       </c>
-      <c r="L499" t="n">
-        <v>12500</v>
-      </c>
       <c r="M499" t="n">
-        <v>12269</v>
+        <v>11529</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>682</v>
+        <v>640</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K500" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L500" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M500" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E501" t="n">
         <v>5</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>240</v>
+        <v>540</v>
       </c>
       <c r="K501" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L501" t="n">
         <v>12500</v>
       </c>
-      <c r="L501" t="n">
-        <v>13000</v>
-      </c>
       <c r="M501" t="n">
-        <v>12833</v>
+        <v>12269</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36447,11 +36447,11 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>713</v>
+        <v>682</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="K502" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L502" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M502" t="n">
-        <v>10523</v>
+        <v>10000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36519,11 +36519,11 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36569,36 +36569,36 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="K503" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="L503" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M503" t="n">
-        <v>5000</v>
+        <v>12833</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>417</v>
+        <v>713</v>
       </c>
       <c r="Q503" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R503" t="inlineStr">
         <is>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K504" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L504" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M504" t="n">
-        <v>8833</v>
+        <v>10523</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>491</v>
+        <v>585</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -36713,36 +36713,36 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>130</v>
+        <v>380</v>
       </c>
       <c r="K505" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L505" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M505" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>611</v>
+        <v>417</v>
       </c>
       <c r="Q505" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R505" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -36785,20 +36785,20 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K506" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L506" t="n">
         <v>9000</v>
       </c>
       <c r="M506" t="n">
-        <v>9000</v>
+        <v>8833</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K507" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L507" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M507" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K508" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L508" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M508" t="n">
-        <v>7360</v>
+        <v>9000</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>409</v>
+        <v>500</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36996,29 +36996,29 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K509" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L509" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M509" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
@@ -37027,10 +37027,10 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="Q509" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R509" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -37068,25 +37068,25 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K510" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L510" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M510" t="n">
-        <v>11000</v>
+        <v>7360</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>611</v>
+        <v>409</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -37140,7 +37140,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -37149,20 +37149,20 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="K511" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L511" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M511" t="n">
-        <v>9243</v>
+        <v>4500</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
@@ -37171,10 +37171,10 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>514</v>
+        <v>375</v>
       </c>
       <c r="Q511" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R511" t="inlineStr">
         <is>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K512" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L512" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M512" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>472</v>
+        <v>611</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>530</v>
+        <v>370</v>
       </c>
       <c r="K513" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L513" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M513" t="n">
-        <v>11736</v>
+        <v>9243</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37311,11 +37311,11 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>652</v>
+        <v>514</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K514" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L514" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M514" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37383,11 +37383,11 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>340</v>
+        <v>530</v>
       </c>
       <c r="K515" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="L515" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M515" t="n">
-        <v>16529</v>
+        <v>11736</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>918</v>
+        <v>652</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E516" t="n">
         <v>5</v>
@@ -37505,24 +37505,24 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>670</v>
+        <v>180</v>
       </c>
       <c r="K516" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L516" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M516" t="n">
-        <v>7261</v>
+        <v>10000</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
@@ -37531,10 +37531,10 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>605</v>
+        <v>556</v>
       </c>
       <c r="Q516" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R516" t="inlineStr">
         <is>
@@ -37577,20 +37577,20 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="K517" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L517" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M517" t="n">
-        <v>14000</v>
+        <v>16529</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>778</v>
+        <v>918</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -37649,36 +37649,36 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>160</v>
+        <v>670</v>
       </c>
       <c r="K518" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L518" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M518" t="n">
-        <v>12000</v>
+        <v>7261</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>667</v>
+        <v>605</v>
       </c>
       <c r="Q518" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R518" t="inlineStr">
         <is>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E519" t="n">
         <v>5</v>
@@ -37721,20 +37721,20 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J519" t="n">
         <v>150</v>
       </c>
       <c r="K519" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L519" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M519" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37743,11 +37743,11 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J520" t="n">
         <v>160</v>
       </c>
       <c r="K520" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L520" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M520" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37860,7 +37860,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K521" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L521" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M521" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E522" t="n">
         <v>5</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K522" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L522" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M522" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37959,11 +37959,11 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -38004,25 +38004,25 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K523" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L523" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M523" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K524" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L524" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M524" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>361</v>
+        <v>611</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J525" t="n">
         <v>180</v>
       </c>
       <c r="K525" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L525" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M525" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>833</v>
+        <v>444</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E526" t="n">
         <v>5</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J526" t="n">
         <v>160</v>
       </c>
       <c r="K526" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L526" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M526" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38247,11 +38247,11 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>556</v>
+        <v>361</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K527" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L527" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M527" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38373,32 +38373,32 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K528" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L528" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M528" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>458</v>
+        <v>556</v>
       </c>
       <c r="Q528" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R528" t="inlineStr">
         <is>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
         <v>160</v>
       </c>
       <c r="K529" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L529" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M529" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -38513,24 +38513,24 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K530" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="L530" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="M530" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
@@ -38539,10 +38539,10 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>833</v>
+        <v>458</v>
       </c>
       <c r="Q530" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R530" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K531" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L531" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="M531" t="n">
-        <v>11235</v>
+        <v>9000</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>624</v>
+        <v>500</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38657,24 +38657,24 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K532" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L532" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M532" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
@@ -38683,10 +38683,10 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>458</v>
+        <v>833</v>
       </c>
       <c r="Q532" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="K533" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L533" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="M533" t="n">
-        <v>9000</v>
+        <v>11235</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>500</v>
+        <v>624</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -38801,36 +38801,36 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K534" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L534" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="M534" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>611</v>
+        <v>458</v>
       </c>
       <c r="Q534" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R534" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -38873,11 +38873,11 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="K535" t="n">
         <v>9000</v>
@@ -38895,7 +38895,7 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P535" t="n">
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K536" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L536" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M536" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E537" t="n">
         <v>5</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="K537" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L537" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="M537" t="n">
-        <v>11243</v>
+        <v>9000</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="K538" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L538" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M538" t="n">
-        <v>9243</v>
+        <v>7000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>514</v>
+        <v>389</v>
       </c>
       <c r="Q538" t="n">
         <v>18</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="K539" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L539" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="M539" t="n">
-        <v>7235</v>
+        <v>11243</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>402</v>
+        <v>625</v>
       </c>
       <c r="Q539" t="n">
         <v>18</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E540" t="n">
         <v>5</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="K540" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L540" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="M540" t="n">
-        <v>14000</v>
+        <v>9243</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39255,11 +39255,11 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>778</v>
+        <v>514</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E541" t="n">
         <v>5</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K541" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L541" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M541" t="n">
-        <v>11000</v>
+        <v>7235</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39327,11 +39327,11 @@
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>611</v>
+        <v>402</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K542" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L542" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M542" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E543" t="n">
         <v>5</v>
@@ -39449,20 +39449,20 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="K543" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L543" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="M543" t="n">
-        <v>15265</v>
+        <v>11000</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39471,11 +39471,11 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>848</v>
+        <v>611</v>
       </c>
       <c r="Q543" t="n">
         <v>18</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E544" t="n">
         <v>5</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K544" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L544" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M544" t="n">
-        <v>13250</v>
+        <v>9000</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>736</v>
+        <v>500</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39593,24 +39593,24 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K545" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L545" t="n">
-        <v>6000</v>
+        <v>15500</v>
       </c>
       <c r="M545" t="n">
-        <v>6000</v>
+        <v>15265</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
@@ -39619,10 +39619,10 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>500</v>
+        <v>848</v>
       </c>
       <c r="Q545" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R545" t="inlineStr">
         <is>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K546" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L546" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="M546" t="n">
-        <v>9776</v>
+        <v>13250</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>543</v>
+        <v>736</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E547" t="n">
         <v>5</v>
@@ -39741,32 +39741,32 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="K547" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L547" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M547" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q547" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R547" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E548" t="n">
         <v>5</v>
@@ -39809,36 +39809,36 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J548" t="n">
         <v>290</v>
       </c>
       <c r="K548" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L548" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M548" t="n">
-        <v>4500</v>
+        <v>9776</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>375</v>
+        <v>543</v>
       </c>
       <c r="Q548" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R548" t="inlineStr">
         <is>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K549" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L549" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M549" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E550" t="n">
         <v>5</v>
@@ -39953,36 +39953,36 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="K550" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L550" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="M550" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>778</v>
+        <v>375</v>
       </c>
       <c r="Q550" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R550" t="inlineStr">
         <is>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E551" t="n">
         <v>5</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>650</v>
+        <v>180</v>
       </c>
       <c r="K551" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L551" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M551" t="n">
-        <v>11015</v>
+        <v>9000</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40047,11 +40047,11 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>612</v>
+        <v>500</v>
       </c>
       <c r="Q551" t="n">
         <v>18</v>
@@ -40097,36 +40097,36 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="K552" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L552" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M552" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>417</v>
+        <v>778</v>
       </c>
       <c r="Q552" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R552" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E553" t="n">
         <v>5</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>270</v>
+        <v>650</v>
       </c>
       <c r="K553" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L553" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M553" t="n">
-        <v>9000</v>
+        <v>11015</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>500</v>
+        <v>612</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E554" t="n">
         <v>5</v>
@@ -40245,32 +40245,32 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="K554" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L554" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M554" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="Q554" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R554" t="inlineStr">
         <is>
@@ -40313,24 +40313,24 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="K555" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L555" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M555" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
@@ -40339,10 +40339,10 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q555" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R555" t="inlineStr">
         <is>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="K556" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L556" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M556" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E557" t="n">
         <v>5</v>
@@ -40457,36 +40457,36 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="K557" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L557" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="M557" t="n">
-        <v>15543</v>
+        <v>4000</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>864</v>
+        <v>333</v>
       </c>
       <c r="Q557" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R557" t="inlineStr">
         <is>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E558" t="n">
         <v>5</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="K558" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L558" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M558" t="n">
-        <v>13500</v>
+        <v>5000</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40551,11 +40551,11 @@
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>750</v>
+        <v>278</v>
       </c>
       <c r="Q558" t="n">
         <v>18</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="K559" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L559" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M559" t="n">
-        <v>12000</v>
+        <v>15543</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>667</v>
+        <v>864</v>
       </c>
       <c r="Q559" t="n">
         <v>18</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E560" t="n">
         <v>5</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="K560" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L560" t="n">
-        <v>18500</v>
+        <v>14000</v>
       </c>
       <c r="M560" t="n">
-        <v>18229</v>
+        <v>13500</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>1013</v>
+        <v>750</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44411</v>
+        <v>44391</v>
       </c>
       <c r="E561" t="n">
         <v>5</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>530</v>
+        <v>190</v>
       </c>
       <c r="K561" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L561" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M561" t="n">
-        <v>13528</v>
+        <v>12000</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>752</v>
+        <v>667</v>
       </c>
       <c r="Q561" t="n">
         <v>18</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E562" t="n">
         <v>5</v>
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K562" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L562" t="n">
-        <v>11000</v>
+        <v>18500</v>
       </c>
       <c r="M562" t="n">
-        <v>11000</v>
+        <v>18229</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>611</v>
+        <v>1013</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E563" t="n">
         <v>5</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>190</v>
+        <v>530</v>
       </c>
       <c r="K563" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L563" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M563" t="n">
-        <v>10000</v>
+        <v>13528</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40911,11 +40911,11 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>556</v>
+        <v>752</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E564" t="n">
         <v>5</v>
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K564" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L564" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M564" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40983,11 +40983,11 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K565" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L565" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M565" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E566" t="n">
         <v>5</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="K566" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L566" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M566" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>625</v>
+        <v>444</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E567" t="n">
         <v>5</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="K567" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L567" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M567" t="n">
-        <v>9257</v>
+        <v>7000</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>514</v>
+        <v>389</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="K568" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L568" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="M568" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>444</v>
+        <v>625</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E569" t="n">
         <v>5</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="K569" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L569" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="M569" t="n">
-        <v>17000</v>
+        <v>9257</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>944</v>
+        <v>514</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E570" t="n">
         <v>5</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J570" t="n">
         <v>190</v>
       </c>
       <c r="K570" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L570" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M570" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E571" t="n">
         <v>5</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>530</v>
+        <v>180</v>
       </c>
       <c r="K571" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="L571" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M571" t="n">
-        <v>9764</v>
+        <v>17000</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41487,11 +41487,11 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>542</v>
+        <v>944</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E572" t="n">
         <v>5</v>
@@ -41537,36 +41537,36 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="K572" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="L572" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="M572" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>458</v>
+        <v>778</v>
       </c>
       <c r="Q572" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R572" t="inlineStr">
         <is>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J573" t="n">
         <v>530</v>
       </c>
       <c r="K573" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L573" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M573" t="n">
-        <v>8264</v>
+        <v>9764</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>459</v>
+        <v>542</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E574" t="n">
         <v>5</v>
@@ -41685,32 +41685,32 @@
         </is>
       </c>
       <c r="J574" t="n">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="K574" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="L574" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="M574" t="n">
-        <v>14245</v>
+        <v>5500</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>791</v>
+        <v>458</v>
       </c>
       <c r="Q574" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R574" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E575" t="n">
         <v>5</v>
@@ -41757,16 +41757,16 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>320</v>
+        <v>530</v>
       </c>
       <c r="K575" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L575" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="M575" t="n">
-        <v>11250</v>
+        <v>8264</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>625</v>
+        <v>459</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E576" t="n">
         <v>5</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>150</v>
+        <v>510</v>
       </c>
       <c r="K576" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L576" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="M576" t="n">
-        <v>12000</v>
+        <v>14245</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41847,11 +41847,11 @@
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>667</v>
+        <v>791</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E577" t="n">
         <v>5</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K577" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L577" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="M577" t="n">
-        <v>9000</v>
+        <v>11250</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41919,11 +41919,11 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K578" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L578" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M578" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42036,7 +42036,7 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
@@ -42045,16 +42045,16 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K579" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L579" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M579" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E580" t="n">
         <v>5</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K580" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L580" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M580" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E581" t="n">
         <v>5</v>
@@ -42180,25 +42180,25 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="K581" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L581" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M581" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K582" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L582" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M582" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q582" t="n">
         <v>18</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E583" t="n">
         <v>5</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>590</v>
+        <v>280</v>
       </c>
       <c r="K583" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L583" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M583" t="n">
-        <v>16517</v>
+        <v>9000</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>918</v>
+        <v>500</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E584" t="n">
         <v>5</v>
@@ -42401,24 +42401,24 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>630</v>
+        <v>250</v>
       </c>
       <c r="K584" t="n">
         <v>7000</v>
       </c>
       <c r="L584" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M584" t="n">
-        <v>7222</v>
+        <v>7000</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
@@ -42427,10 +42427,10 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>602</v>
+        <v>389</v>
       </c>
       <c r="Q584" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R584" t="inlineStr">
         <is>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>280</v>
+        <v>590</v>
       </c>
       <c r="K585" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="L585" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="M585" t="n">
-        <v>12500</v>
+        <v>16517</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>694</v>
+        <v>918</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E586" t="n">
         <v>5</v>
@@ -42545,24 +42545,24 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>190</v>
+        <v>630</v>
       </c>
       <c r="K586" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L586" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="M586" t="n">
-        <v>16000</v>
+        <v>7222</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
@@ -42571,10 +42571,10 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>889</v>
+        <v>602</v>
       </c>
       <c r="Q586" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R586" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E587" t="n">
         <v>5</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>1880</v>
+        <v>280</v>
       </c>
       <c r="K587" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L587" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="M587" t="n">
-        <v>11598</v>
+        <v>12500</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>644</v>
+        <v>694</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42689,24 +42689,24 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>700</v>
+        <v>190</v>
       </c>
       <c r="K588" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="L588" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M588" t="n">
-        <v>4250</v>
+        <v>16000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O588" t="inlineStr">
@@ -42715,10 +42715,10 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>354</v>
+        <v>889</v>
       </c>
       <c r="Q588" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R588" t="inlineStr">
         <is>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>1200</v>
+        <v>1880</v>
       </c>
       <c r="K589" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L589" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M589" t="n">
-        <v>8925</v>
+        <v>11598</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>496</v>
+        <v>644</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42833,24 +42833,24 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>790</v>
+        <v>700</v>
       </c>
       <c r="K590" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L590" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M590" t="n">
-        <v>6899</v>
+        <v>4250</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
@@ -42859,10 +42859,10 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="Q590" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R590" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E591" t="n">
         <v>5</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>190</v>
+        <v>1200</v>
       </c>
       <c r="K591" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L591" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M591" t="n">
-        <v>9000</v>
+        <v>8925</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42927,11 +42927,11 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E592" t="n">
         <v>5</v>
@@ -42977,20 +42977,20 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>370</v>
+        <v>790</v>
       </c>
       <c r="K592" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L592" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M592" t="n">
-        <v>7757</v>
+        <v>6899</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K593" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L593" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M593" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43116,7 +43116,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -43125,16 +43125,16 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="K594" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L594" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M594" t="n">
-        <v>6000</v>
+        <v>7757</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>333</v>
+        <v>431</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43188,29 +43188,29 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K595" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L595" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M595" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
@@ -43219,10 +43219,10 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="Q595" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R595" t="inlineStr">
         <is>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E596" t="n">
         <v>5</v>
@@ -43260,25 +43260,25 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K596" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L596" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M596" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E597" t="n">
         <v>5</v>
@@ -43332,7 +43332,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
@@ -43341,20 +43341,20 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="K597" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L597" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="M597" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
@@ -43363,10 +43363,10 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>500</v>
+        <v>292</v>
       </c>
       <c r="Q597" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R597" t="inlineStr">
         <is>
@@ -43409,24 +43409,24 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K598" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L598" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M598" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
@@ -43435,10 +43435,10 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>333</v>
+        <v>611</v>
       </c>
       <c r="Q598" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R598" t="inlineStr">
         <is>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K599" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L599" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M599" t="n">
-        <v>7242</v>
+        <v>9000</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>402</v>
+        <v>500</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E600" t="n">
         <v>5</v>
@@ -43557,32 +43557,32 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="K600" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L600" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M600" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="Q600" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R600" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -43625,36 +43625,36 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>730</v>
+        <v>310</v>
       </c>
       <c r="K601" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L601" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M601" t="n">
-        <v>4760</v>
+        <v>7242</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q601" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R601" t="inlineStr">
         <is>
@@ -43697,20 +43697,20 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K602" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L602" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M602" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E603" t="n">
         <v>5</v>
@@ -43769,36 +43769,36 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>180</v>
+        <v>730</v>
       </c>
       <c r="K603" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L603" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M603" t="n">
-        <v>10000</v>
+        <v>4760</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>556</v>
+        <v>397</v>
       </c>
       <c r="Q603" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R603" t="inlineStr">
         <is>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -43841,11 +43841,11 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K604" t="n">
         <v>9000</v>
@@ -43863,7 +43863,7 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P604" t="n">
@@ -43913,20 +43913,20 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J605" t="n">
         <v>180</v>
       </c>
       <c r="K605" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L605" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M605" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E606" t="n">
         <v>5</v>
@@ -43989,16 +43989,16 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K606" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L606" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M606" t="n">
-        <v>12758</v>
+        <v>9000</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44007,11 +44007,11 @@
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>709</v>
+        <v>500</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E607" t="n">
         <v>5</v>
@@ -44061,16 +44061,16 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="K607" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L607" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M607" t="n">
-        <v>10529</v>
+        <v>7000</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44079,11 +44079,11 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>585</v>
+        <v>389</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E608" t="n">
         <v>5</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K608" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L608" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M608" t="n">
-        <v>15000</v>
+        <v>12758</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>833</v>
+        <v>709</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E609" t="n">
         <v>5</v>
@@ -44201,20 +44201,20 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K609" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L609" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M609" t="n">
-        <v>12000</v>
+        <v>10529</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44223,11 +44223,11 @@
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>667</v>
+        <v>585</v>
       </c>
       <c r="Q609" t="n">
         <v>18</v>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K610" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L610" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M610" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E611" t="n">
         <v>5</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K611" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L611" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M611" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E612" t="n">
         <v>5</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="K612" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L612" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M612" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J613" t="n">
         <v>250</v>
       </c>
       <c r="K613" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L613" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M613" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E614" t="n">
         <v>5</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="K614" t="n">
-        <v>18500</v>
+        <v>8000</v>
       </c>
       <c r="L614" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M614" t="n">
-        <v>18780</v>
+        <v>8000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>1043</v>
+        <v>444</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E615" t="n">
         <v>5</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K615" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L615" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M615" t="n">
-        <v>15556</v>
+        <v>7000</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>864</v>
+        <v>389</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44705,20 +44705,20 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="K616" t="n">
-        <v>10000</v>
+        <v>18500</v>
       </c>
       <c r="L616" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="M616" t="n">
-        <v>10455</v>
+        <v>18780</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44727,11 +44727,11 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>581</v>
+        <v>1043</v>
       </c>
       <c r="Q616" t="n">
         <v>18</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -44777,36 +44777,36 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="K617" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L617" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="M617" t="n">
-        <v>5000</v>
+        <v>15556</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>417</v>
+        <v>864</v>
       </c>
       <c r="Q617" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
@@ -44849,20 +44849,20 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="K618" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L618" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M618" t="n">
-        <v>8000</v>
+        <v>10455</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>444</v>
+        <v>581</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E619" t="n">
         <v>5</v>
@@ -44921,24 +44921,24 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="K619" t="n">
-        <v>11500</v>
+        <v>5000</v>
       </c>
       <c r="L619" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M619" t="n">
-        <v>11708</v>
+        <v>5000</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
@@ -44947,10 +44947,10 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>650</v>
+        <v>417</v>
       </c>
       <c r="Q619" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R619" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -44993,20 +44993,20 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="K620" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L620" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M620" t="n">
-        <v>9734</v>
+        <v>8000</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>541</v>
+        <v>444</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45065,24 +45065,24 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="K621" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="L621" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M621" t="n">
-        <v>6000</v>
+        <v>11708</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
@@ -45091,10 +45091,10 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q621" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>210</v>
+        <v>470</v>
       </c>
       <c r="K622" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L622" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M622" t="n">
-        <v>8000</v>
+        <v>9734</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>444</v>
+        <v>541</v>
       </c>
       <c r="Q622" t="n">
         <v>18</v>
@@ -45204,7 +45204,7 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -45216,13 +45216,13 @@
         <v>350</v>
       </c>
       <c r="K623" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L623" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M623" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q623" t="n">
         <v>12</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -45281,20 +45281,20 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K624" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L624" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M624" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E625" t="n">
         <v>5</v>
@@ -45348,7 +45348,7 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
@@ -45357,32 +45357,32 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K625" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L625" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M625" t="n">
-        <v>14471</v>
+        <v>4500</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>804</v>
+        <v>375</v>
       </c>
       <c r="Q625" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R625" t="inlineStr">
         <is>
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K626" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L626" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M626" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -45504,13 +45504,13 @@
         <v>340</v>
       </c>
       <c r="K627" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L627" t="n">
         <v>15000</v>
       </c>
-      <c r="L627" t="n">
-        <v>16000</v>
-      </c>
       <c r="M627" t="n">
-        <v>15529</v>
+        <v>14471</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>863</v>
+        <v>804</v>
       </c>
       <c r="Q627" t="n">
         <v>18</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -45573,7 +45573,7 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K628" t="n">
         <v>12000</v>
@@ -45601,6 +45601,150 @@
         <v>18</v>
       </c>
       <c r="R628" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>3</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D629" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E629" t="n">
+        <v>5</v>
+      </c>
+      <c r="F629" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J629" t="n">
+        <v>340</v>
+      </c>
+      <c r="K629" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L629" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M629" t="n">
+        <v>15529</v>
+      </c>
+      <c r="N629" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O629" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P629" t="n">
+        <v>863</v>
+      </c>
+      <c r="Q629" t="n">
+        <v>18</v>
+      </c>
+      <c r="R629" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>3</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D630" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E630" t="n">
+        <v>5</v>
+      </c>
+      <c r="F630" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J630" t="n">
+        <v>310</v>
+      </c>
+      <c r="K630" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L630" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M630" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N630" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O630" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P630" t="n">
+        <v>667</v>
+      </c>
+      <c r="Q630" t="n">
+        <v>18</v>
+      </c>
+      <c r="R630" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R640"/>
+  <dimension ref="A1:R642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="K421" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L421" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="M421" t="n">
-        <v>12269</v>
+        <v>15462</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>682</v>
+        <v>859</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="K422" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L422" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M422" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q422" t="n">
         <v>18</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="K423" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L423" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="M423" t="n">
-        <v>11579</v>
+        <v>12269</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30831,11 +30831,11 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>643</v>
+        <v>682</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -30888,13 +30888,13 @@
         <v>280</v>
       </c>
       <c r="K424" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L424" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M424" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30903,11 +30903,11 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -30957,7 +30957,7 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>620</v>
+        <v>380</v>
       </c>
       <c r="K425" t="n">
         <v>11000</v>
@@ -30966,7 +30966,7 @@
         <v>12000</v>
       </c>
       <c r="M425" t="n">
-        <v>11516</v>
+        <v>11579</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30975,11 +30975,11 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P425" t="n">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="K426" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L426" t="n">
         <v>9000</v>
       </c>
       <c r="M426" t="n">
-        <v>8804</v>
+        <v>9000</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31047,11 +31047,11 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31097,20 +31097,20 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>280</v>
+        <v>620</v>
       </c>
       <c r="K427" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L427" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M427" t="n">
-        <v>7000</v>
+        <v>11516</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>389</v>
+        <v>640</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -31169,20 +31169,20 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="K428" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L428" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M428" t="n">
-        <v>10514</v>
+        <v>8804</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31191,11 +31191,11 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P428" t="n">
-        <v>584</v>
+        <v>489</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E429" t="n">
         <v>5</v>
@@ -31241,20 +31241,20 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K429" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L429" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M429" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31263,11 +31263,11 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -31317,29 +31317,29 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="K430" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L430" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M430" t="n">
-        <v>15478</v>
+        <v>10514</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P430" t="n">
-        <v>860</v>
+        <v>584</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -31389,29 +31389,29 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="K431" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L431" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M431" t="n">
-        <v>12535</v>
+        <v>8000</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>696</v>
+        <v>444</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31457,20 +31457,20 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="K432" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L432" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M432" t="n">
-        <v>10000</v>
+        <v>15478</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>556</v>
+        <v>860</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -31529,33 +31529,33 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="K433" t="n">
         <v>12000</v>
       </c>
       <c r="L433" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M433" t="n">
-        <v>12000</v>
+        <v>12535</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P433" t="n">
-        <v>667</v>
+        <v>696</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -31601,33 +31601,33 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="K434" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L434" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M434" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q434" t="n">
         <v>18</v>
@@ -31673,24 +31673,24 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="K435" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L435" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M435" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -31699,10 +31699,10 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>458</v>
+        <v>667</v>
       </c>
       <c r="Q435" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
         <v>180</v>
       </c>
       <c r="K436" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L436" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M436" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q436" t="n">
         <v>18</v>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="K437" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L437" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M437" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>333</v>
+        <v>458</v>
       </c>
       <c r="Q437" t="n">
         <v>12</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="K438" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L438" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M438" t="n">
-        <v>13483</v>
+        <v>7000</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>749</v>
+        <v>389</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,20 +31965,20 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K439" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L439" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M439" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -31987,10 +31987,10 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="Q439" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32033,20 +32033,20 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="K440" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L440" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M440" t="n">
-        <v>9000</v>
+        <v>13483</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>500</v>
+        <v>749</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="K441" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="L441" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M441" t="n">
-        <v>14867</v>
+        <v>11000</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32127,11 +32127,11 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>826</v>
+        <v>611</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -32177,20 +32177,20 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K442" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L442" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M442" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32199,11 +32199,11 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32249,20 +32249,20 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K443" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="L443" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M443" t="n">
-        <v>10000</v>
+        <v>14867</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>556</v>
+        <v>826</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="K444" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L444" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M444" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32343,11 +32343,11 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="K445" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L445" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M445" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32415,11 +32415,11 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32465,20 +32465,20 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J446" t="n">
         <v>180</v>
       </c>
       <c r="K446" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L446" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M446" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="K447" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L447" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M447" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -32609,20 +32609,20 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K448" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L448" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M448" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32681,24 +32681,24 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="K449" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L449" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M449" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -32707,10 +32707,10 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>417</v>
+        <v>611</v>
       </c>
       <c r="Q449" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32753,20 +32753,20 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="K450" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L450" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M450" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -32825,36 +32825,36 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="K451" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="L451" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="M451" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>1056</v>
+        <v>417</v>
       </c>
       <c r="Q451" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="K452" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L452" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M452" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -32969,20 +32969,20 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="K453" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L453" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="M453" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32991,11 +32991,11 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>500</v>
+        <v>1056</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33041,24 +33041,24 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="K454" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L454" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M454" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
@@ -33067,10 +33067,10 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q454" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="K455" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L455" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M455" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -33185,24 +33185,24 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="K456" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L456" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M456" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -33211,10 +33211,10 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q456" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -33257,20 +33257,20 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K457" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L457" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M457" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K458" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L458" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M458" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K459" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L459" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M459" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33423,11 +33423,11 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="K460" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L460" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M460" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33495,11 +33495,11 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -33540,25 +33540,25 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K461" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L461" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M461" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33567,11 +33567,11 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -33612,25 +33612,25 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="K462" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L462" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M462" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33639,11 +33639,11 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P462" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="K463" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L463" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M463" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>417</v>
+        <v>611</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="K464" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L464" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M464" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="K465" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L465" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M465" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33905,36 +33905,36 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="K466" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L466" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M466" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q466" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K467" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L467" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M467" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -34049,36 +34049,36 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K468" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L468" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="M468" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>833</v>
+        <v>333</v>
       </c>
       <c r="Q468" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J469" t="n">
         <v>180</v>
       </c>
       <c r="K469" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L469" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M469" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K470" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L470" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M470" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K471" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L471" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M471" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="K472" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L472" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M472" t="n">
-        <v>15474</v>
+        <v>11000</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34359,11 +34359,11 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>860</v>
+        <v>611</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K473" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L473" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M473" t="n">
-        <v>12514</v>
+        <v>9000</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34431,11 +34431,11 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>695</v>
+        <v>500</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>174</v>
+        <v>380</v>
       </c>
       <c r="K474" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L474" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M474" t="n">
-        <v>10511</v>
+        <v>15474</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>584</v>
+        <v>860</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="K475" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L475" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M475" t="n">
-        <v>14000</v>
+        <v>12514</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>778</v>
+        <v>695</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="K476" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L476" t="n">
         <v>11000</v>
       </c>
       <c r="M476" t="n">
-        <v>11000</v>
+        <v>10511</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="K477" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L477" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M477" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -34769,11 +34769,11 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K478" t="n">
         <v>11000</v>
@@ -34791,7 +34791,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P478" t="n">
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="K479" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L479" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M479" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K480" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L480" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M480" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K481" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L481" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M481" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35061,32 +35061,32 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="K482" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L482" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M482" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P482" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q482" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R482" t="inlineStr">
         <is>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="K483" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L483" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M483" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35151,11 +35151,11 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P483" t="n">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -35201,36 +35201,36 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="K484" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L484" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M484" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P484" t="n">
-        <v>722</v>
+        <v>333</v>
       </c>
       <c r="Q484" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="K485" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L485" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M485" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>556</v>
+        <v>417</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K486" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L486" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M486" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K487" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L487" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M487" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K488" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L488" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M488" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>944</v>
+        <v>444</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="K489" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L489" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M489" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K490" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L490" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M490" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35705,20 +35705,20 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="K491" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L491" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M491" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K492" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L492" t="n">
         <v>13000</v>
       </c>
       <c r="M492" t="n">
-        <v>12833</v>
+        <v>13000</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="K493" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L493" t="n">
         <v>11000</v>
       </c>
       <c r="M493" t="n">
-        <v>10523</v>
+        <v>11000</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35921,36 +35921,36 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="K494" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="L494" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M494" t="n">
-        <v>5000</v>
+        <v>12833</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>417</v>
+        <v>713</v>
       </c>
       <c r="Q494" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R494" t="inlineStr">
         <is>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K495" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L495" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M495" t="n">
-        <v>8833</v>
+        <v>10523</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>491</v>
+        <v>585</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -36065,36 +36065,36 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="K496" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L496" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M496" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>667</v>
+        <v>417</v>
       </c>
       <c r="Q496" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R496" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="K497" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L497" t="n">
         <v>9000</v>
       </c>
       <c r="M497" t="n">
-        <v>9000</v>
+        <v>8833</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K498" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L498" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M498" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K499" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L499" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M499" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K500" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L500" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M500" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E501" t="n">
         <v>5</v>
@@ -36420,7 +36420,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="K501" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L501" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M501" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K502" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L502" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M502" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="K503" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L503" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M503" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36636,7 +36636,7 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K504" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L504" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M504" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -36708,25 +36708,25 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="K505" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L505" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M505" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -36780,25 +36780,25 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K506" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L506" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M506" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J507" t="n">
         <v>180</v>
       </c>
       <c r="K507" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L507" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M507" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="K508" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L508" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M508" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -37001,20 +37001,20 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="K509" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L509" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M509" t="n">
-        <v>11444</v>
+        <v>7000</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>636</v>
+        <v>389</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -37068,25 +37068,25 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="K510" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L510" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M510" t="n">
-        <v>8750</v>
+        <v>7000</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>486</v>
+        <v>389</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="K511" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L511" t="n">
         <v>12000</v>
       </c>
-      <c r="L511" t="n">
-        <v>12500</v>
-      </c>
       <c r="M511" t="n">
-        <v>12257</v>
+        <v>11444</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>681</v>
+        <v>636</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="K512" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L512" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="M512" t="n">
-        <v>11243</v>
+        <v>8750</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>625</v>
+        <v>486</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="K513" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L513" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="M513" t="n">
-        <v>9000</v>
+        <v>12257</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>500</v>
+        <v>681</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="K514" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L514" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="M514" t="n">
-        <v>15000</v>
+        <v>11243</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37383,11 +37383,11 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>833</v>
+        <v>625</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K515" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L515" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="M515" t="n">
-        <v>11235</v>
+        <v>9000</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37455,11 +37455,11 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>624</v>
+        <v>500</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37505,24 +37505,24 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K516" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L516" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M516" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
@@ -37531,10 +37531,10 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>458</v>
+        <v>833</v>
       </c>
       <c r="Q516" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R516" t="inlineStr">
         <is>
@@ -37577,20 +37577,20 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="K517" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L517" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="M517" t="n">
-        <v>9000</v>
+        <v>11235</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>500</v>
+        <v>624</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -37653,20 +37653,20 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K518" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="L518" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="M518" t="n">
-        <v>11681</v>
+        <v>5500</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
@@ -37675,10 +37675,10 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>649</v>
+        <v>458</v>
       </c>
       <c r="Q518" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R518" t="inlineStr">
         <is>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E519" t="n">
         <v>5</v>
@@ -37725,7 +37725,7 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K519" t="n">
         <v>9000</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E520" t="n">
         <v>5</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="K520" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="L520" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M520" t="n">
-        <v>15000</v>
+        <v>11681</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37815,11 +37815,11 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>833</v>
+        <v>649</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -37865,20 +37865,20 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K521" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L521" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M521" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37887,11 +37887,11 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K522" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L522" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M522" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="K523" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L523" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M523" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>550</v>
+        <v>240</v>
       </c>
       <c r="K524" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L524" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M524" t="n">
-        <v>15455</v>
+        <v>10000</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38103,11 +38103,11 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>859</v>
+        <v>556</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="K525" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L525" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M525" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38175,11 +38175,11 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38225,24 +38225,24 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="K526" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L526" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="M526" t="n">
-        <v>5500</v>
+        <v>15455</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
@@ -38251,10 +38251,10 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>458</v>
+        <v>859</v>
       </c>
       <c r="Q526" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R526" t="inlineStr">
         <is>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="K527" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L527" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M527" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>528</v>
+        <v>667</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -38369,36 +38369,36 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K528" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L528" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="M528" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>528</v>
+        <v>458</v>
       </c>
       <c r="Q528" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R528" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E529" t="n">
         <v>5</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>1110</v>
+        <v>180</v>
       </c>
       <c r="K529" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L529" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M529" t="n">
-        <v>6739</v>
+        <v>9500</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38463,11 +38463,11 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>374</v>
+        <v>528</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38513,24 +38513,24 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K530" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L530" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="M530" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
@@ -38539,10 +38539,10 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="Q530" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R530" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>180</v>
+        <v>1110</v>
       </c>
       <c r="K531" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L531" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M531" t="n">
-        <v>10000</v>
+        <v>6739</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38607,11 +38607,11 @@
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>556</v>
+        <v>374</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -38661,32 +38661,32 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K532" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L532" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M532" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q532" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J533" t="n">
         <v>180</v>
       </c>
       <c r="K533" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L533" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M533" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -38805,16 +38805,16 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K534" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L534" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M534" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38823,11 +38823,11 @@
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q534" t="n">
         <v>18</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -38877,16 +38877,16 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K535" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L535" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M535" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38895,11 +38895,11 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>778</v>
+        <v>389</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="K536" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L536" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M536" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E537" t="n">
         <v>5</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K537" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L537" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M537" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>340</v>
+        <v>190</v>
       </c>
       <c r="K538" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L538" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M538" t="n">
-        <v>9735</v>
+        <v>15000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>541</v>
+        <v>833</v>
       </c>
       <c r="Q538" t="n">
         <v>18</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E539" t="n">
         <v>5</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K539" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L539" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M539" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39183,11 +39183,11 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q539" t="n">
         <v>18</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E540" t="n">
         <v>5</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="K540" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="L540" t="n">
         <v>10000</v>
       </c>
       <c r="M540" t="n">
-        <v>10000</v>
+        <v>9735</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K541" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L541" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M541" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K542" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L542" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M542" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39453,32 +39453,32 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K543" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L543" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M543" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q543" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R543" t="inlineStr">
         <is>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K544" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L544" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M544" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39593,24 +39593,24 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K545" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L545" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M545" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
@@ -39619,10 +39619,10 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="Q545" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R545" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E546" t="n">
         <v>5</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K546" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L546" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M546" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E547" t="n">
         <v>5</v>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K547" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L547" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M547" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39759,11 +39759,11 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>444</v>
+        <v>361</v>
       </c>
       <c r="Q547" t="n">
         <v>18</v>
@@ -39809,24 +39809,24 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K548" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L548" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M548" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
@@ -39835,10 +39835,10 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="Q548" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R548" t="inlineStr">
         <is>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K549" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L549" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M549" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E550" t="n">
         <v>5</v>
@@ -39953,24 +39953,24 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="K550" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L550" t="n">
-        <v>11500</v>
+        <v>5000</v>
       </c>
       <c r="M550" t="n">
-        <v>11243</v>
+        <v>5000</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
@@ -39979,10 +39979,10 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q550" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R550" t="inlineStr">
         <is>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E551" t="n">
         <v>5</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="K551" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L551" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M551" t="n">
-        <v>9243</v>
+        <v>7000</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>514</v>
+        <v>389</v>
       </c>
       <c r="Q551" t="n">
         <v>18</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="K552" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L552" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="M552" t="n">
-        <v>7235</v>
+        <v>11243</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>402</v>
+        <v>625</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E553" t="n">
         <v>5</v>
@@ -40173,16 +40173,16 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>510</v>
+        <v>370</v>
       </c>
       <c r="K553" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L553" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="M553" t="n">
-        <v>14245</v>
+        <v>9243</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40191,11 +40191,11 @@
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>791</v>
+        <v>514</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E554" t="n">
         <v>5</v>
@@ -40245,16 +40245,16 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="K554" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L554" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="M554" t="n">
-        <v>11250</v>
+        <v>7235</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40263,11 +40263,11 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>625</v>
+        <v>402</v>
       </c>
       <c r="Q554" t="n">
         <v>18</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E555" t="n">
         <v>5</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="K555" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L555" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="M555" t="n">
-        <v>15419</v>
+        <v>14245</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>857</v>
+        <v>791</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E556" t="n">
         <v>5</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="K556" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L556" t="n">
         <v>11500</v>
       </c>
-      <c r="L556" t="n">
-        <v>12000</v>
-      </c>
       <c r="M556" t="n">
-        <v>11750</v>
+        <v>11250</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40457,24 +40457,24 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="K557" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L557" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="M557" t="n">
-        <v>5500</v>
+        <v>15419</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O557" t="inlineStr">
@@ -40483,10 +40483,10 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>458</v>
+        <v>857</v>
       </c>
       <c r="Q557" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R557" t="inlineStr">
         <is>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K558" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L558" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M558" t="n">
-        <v>9000</v>
+        <v>11750</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>500</v>
+        <v>653</v>
       </c>
       <c r="Q558" t="n">
         <v>18</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E559" t="n">
         <v>5</v>
@@ -40601,36 +40601,36 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="K559" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L559" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M559" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>556</v>
+        <v>458</v>
       </c>
       <c r="Q559" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R559" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E560" t="n">
         <v>5</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="K560" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L560" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M560" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40695,11 +40695,11 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40745,24 +40745,24 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="K561" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L561" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M561" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
@@ -40771,10 +40771,10 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="Q561" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R561" t="inlineStr">
         <is>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K562" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L562" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M562" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E563" t="n">
         <v>5</v>
@@ -40889,36 +40889,36 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="K563" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L563" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M563" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>833</v>
+        <v>417</v>
       </c>
       <c r="Q563" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R563" t="inlineStr">
         <is>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E564" t="n">
         <v>5</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K564" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L564" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M564" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40983,11 +40983,11 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K565" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L565" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M565" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E566" t="n">
         <v>5</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K566" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L566" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M566" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E567" t="n">
         <v>5</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K567" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L567" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M567" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K568" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L568" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M568" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41321,24 +41321,24 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K569" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L569" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M569" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O569" t="inlineStr">
@@ -41347,10 +41347,10 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="Q569" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R569" t="inlineStr">
         <is>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E570" t="n">
         <v>5</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="K570" t="n">
         <v>10000</v>
       </c>
       <c r="L570" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="M570" t="n">
-        <v>10258</v>
+        <v>10000</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41415,11 +41415,11 @@
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E571" t="n">
         <v>5</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="K571" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L571" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M571" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41487,11 +41487,11 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="Q571" t="n">
         <v>12</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="K572" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L572" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="M572" t="n">
-        <v>8500</v>
+        <v>10258</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>472</v>
+        <v>570</v>
       </c>
       <c r="Q572" t="n">
         <v>18</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E573" t="n">
         <v>5</v>
@@ -41609,36 +41609,36 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K573" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L573" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M573" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>833</v>
+        <v>417</v>
       </c>
       <c r="Q573" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R573" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E574" t="n">
         <v>5</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J574" t="n">
         <v>160</v>
       </c>
       <c r="K574" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L574" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M574" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K575" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L575" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M575" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41829,32 +41829,32 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K576" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L576" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M576" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>458</v>
+        <v>556</v>
       </c>
       <c r="Q576" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R576" t="inlineStr">
         <is>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J577" t="n">
         <v>160</v>
       </c>
       <c r="K577" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L577" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M577" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E578" t="n">
         <v>5</v>
@@ -41969,24 +41969,24 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="K578" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="L578" t="n">
-        <v>16500</v>
+        <v>5500</v>
       </c>
       <c r="M578" t="n">
-        <v>15698</v>
+        <v>5500</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O578" t="inlineStr">
@@ -41995,10 +41995,10 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>872</v>
+        <v>458</v>
       </c>
       <c r="Q578" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R578" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E579" t="n">
         <v>5</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K579" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L579" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M579" t="n">
-        <v>11775</v>
+        <v>9000</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>654</v>
+        <v>500</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="K580" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L580" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="M580" t="n">
-        <v>10000</v>
+        <v>15698</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>556</v>
+        <v>872</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E581" t="n">
         <v>5</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="K581" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L581" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M581" t="n">
-        <v>11000</v>
+        <v>11775</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>611</v>
+        <v>654</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E582" t="n">
         <v>5</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K582" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L582" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M582" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42279,11 +42279,11 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q582" t="n">
         <v>18</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K583" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L583" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M583" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E584" t="n">
         <v>5</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K584" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L584" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M584" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="Q584" t="n">
         <v>18</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E585" t="n">
         <v>5</v>
@@ -42477,16 +42477,16 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K585" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L585" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M585" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J586" t="n">
         <v>180</v>
       </c>
       <c r="K586" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L586" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M586" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E587" t="n">
         <v>5</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K587" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L587" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M587" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E588" t="n">
         <v>5</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J588" t="n">
         <v>180</v>
       </c>
       <c r="K588" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L588" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M588" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42761,24 +42761,24 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K589" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L589" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M589" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
@@ -42787,10 +42787,10 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>333</v>
+        <v>611</v>
       </c>
       <c r="Q589" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R589" t="inlineStr">
         <is>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K590" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L590" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M590" t="n">
-        <v>7242</v>
+        <v>9000</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>402</v>
+        <v>500</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E591" t="n">
         <v>5</v>
@@ -42905,36 +42905,36 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="K591" t="n">
-        <v>15500</v>
+        <v>4000</v>
       </c>
       <c r="L591" t="n">
-        <v>15500</v>
+        <v>4000</v>
       </c>
       <c r="M591" t="n">
-        <v>15500</v>
+        <v>4000</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>861</v>
+        <v>333</v>
       </c>
       <c r="Q591" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R591" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E592" t="n">
         <v>5</v>
@@ -42977,20 +42977,20 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="K592" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L592" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="M592" t="n">
-        <v>12235</v>
+        <v>7242</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>680</v>
+        <v>402</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J593" t="n">
         <v>180</v>
       </c>
       <c r="K593" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="L593" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="M593" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>556</v>
+        <v>861</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E594" t="n">
         <v>5</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K594" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L594" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M594" t="n">
-        <v>14000</v>
+        <v>12235</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>778</v>
+        <v>680</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E595" t="n">
         <v>5</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K595" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L595" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M595" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43215,11 +43215,11 @@
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43265,24 +43265,24 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K596" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L596" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M596" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
@@ -43291,10 +43291,10 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q596" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R596" t="inlineStr">
         <is>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K597" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L597" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M597" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E598" t="n">
         <v>5</v>
@@ -43413,20 +43413,20 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K598" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L598" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M598" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
@@ -43435,10 +43435,10 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="Q598" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R598" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E599" t="n">
         <v>5</v>
@@ -43481,24 +43481,24 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="K599" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L599" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M599" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
@@ -43507,10 +43507,10 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>458</v>
+        <v>556</v>
       </c>
       <c r="Q599" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R599" t="inlineStr">
         <is>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="K600" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L600" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M600" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>472</v>
+        <v>583</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -43629,32 +43629,32 @@
         </is>
       </c>
       <c r="J601" t="n">
-        <v>530</v>
+        <v>380</v>
       </c>
       <c r="K601" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L601" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M601" t="n">
-        <v>12528</v>
+        <v>5500</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>696</v>
+        <v>458</v>
       </c>
       <c r="Q601" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R601" t="inlineStr">
         <is>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E602" t="n">
         <v>5</v>
@@ -43701,16 +43701,16 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="K602" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L602" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M602" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E603" t="n">
         <v>5</v>
@@ -43776,13 +43776,13 @@
         <v>530</v>
       </c>
       <c r="K603" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L603" t="n">
         <v>13000</v>
       </c>
-      <c r="L603" t="n">
-        <v>14000</v>
-      </c>
       <c r="M603" t="n">
-        <v>13528</v>
+        <v>12528</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>752</v>
+        <v>696</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -43845,16 +43845,16 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="K604" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L604" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M604" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E605" t="n">
         <v>5</v>
@@ -43913,20 +43913,20 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>280</v>
+        <v>530</v>
       </c>
       <c r="K605" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L605" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M605" t="n">
-        <v>11000</v>
+        <v>13528</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43935,11 +43935,11 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>611</v>
+        <v>752</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E606" t="n">
         <v>5</v>
@@ -43985,20 +43985,20 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K606" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L606" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M606" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44007,11 +44007,11 @@
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K607" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L607" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M607" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E608" t="n">
         <v>5</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="K608" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L608" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M608" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E609" t="n">
         <v>5</v>
@@ -44201,20 +44201,20 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K609" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L609" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M609" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q609" t="n">
         <v>18</v>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K610" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L610" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M610" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44340,7 +44340,7 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
@@ -44349,16 +44349,16 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K611" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L611" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M611" t="n">
-        <v>7360</v>
+        <v>9000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>409</v>
+        <v>500</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44412,29 +44412,29 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K612" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L612" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M612" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O612" t="inlineStr">
@@ -44443,10 +44443,10 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="Q612" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R612" t="inlineStr">
         <is>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -44484,25 +44484,25 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K613" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L613" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M613" t="n">
-        <v>11000</v>
+        <v>7360</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>611</v>
+        <v>409</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E614" t="n">
         <v>5</v>
@@ -44556,7 +44556,7 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -44565,20 +44565,20 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="K614" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L614" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M614" t="n">
-        <v>9243</v>
+        <v>4500</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
@@ -44587,10 +44587,10 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>514</v>
+        <v>375</v>
       </c>
       <c r="Q614" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R614" t="inlineStr">
         <is>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K615" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L615" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M615" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>472</v>
+        <v>611</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44705,20 +44705,20 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="K616" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L616" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M616" t="n">
-        <v>12000</v>
+        <v>9243</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>667</v>
+        <v>514</v>
       </c>
       <c r="Q616" t="n">
         <v>18</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -44777,20 +44777,20 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K617" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L617" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M617" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44849,20 +44849,20 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J618" t="n">
         <v>180</v>
       </c>
       <c r="K618" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L618" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M618" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44921,20 +44921,20 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K619" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L619" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M619" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44988,25 +44988,25 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K620" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L620" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M620" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45060,29 +45060,29 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K621" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L621" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M621" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
@@ -45094,7 +45094,7 @@
         <v>333</v>
       </c>
       <c r="Q621" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -45132,7 +45132,7 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
@@ -45141,16 +45141,16 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="K622" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L622" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M622" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q622" t="n">
         <v>18</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45204,7 +45204,7 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -45213,16 +45213,16 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>730</v>
+        <v>280</v>
       </c>
       <c r="K623" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L623" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M623" t="n">
-        <v>4760</v>
+        <v>4000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="Q623" t="n">
         <v>12</v>
@@ -45281,20 +45281,20 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K624" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L624" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M624" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E625" t="n">
         <v>5</v>
@@ -45353,36 +45353,36 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>160</v>
+        <v>730</v>
       </c>
       <c r="K625" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L625" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M625" t="n">
-        <v>10000</v>
+        <v>4760</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>556</v>
+        <v>397</v>
       </c>
       <c r="Q625" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R625" t="inlineStr">
         <is>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E626" t="n">
         <v>5</v>
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K626" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L626" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M626" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45497,20 +45497,20 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K627" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L627" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M627" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q627" t="n">
         <v>18</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -45569,20 +45569,20 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K628" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="L628" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="M628" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>861</v>
+        <v>444</v>
       </c>
       <c r="Q628" t="n">
         <v>18</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E629" t="n">
         <v>5</v>
@@ -45641,20 +45641,20 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="K629" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L629" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M629" t="n">
-        <v>11742</v>
+        <v>7000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45663,11 +45663,11 @@
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>652</v>
+        <v>389</v>
       </c>
       <c r="Q629" t="n">
         <v>18</v>
@@ -45713,20 +45713,20 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J630" t="n">
         <v>160</v>
       </c>
       <c r="K630" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="L630" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="M630" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>556</v>
+        <v>861</v>
       </c>
       <c r="Q630" t="n">
         <v>18</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E631" t="n">
         <v>5</v>
@@ -45785,20 +45785,20 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="K631" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="L631" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M631" t="n">
-        <v>15000</v>
+        <v>11742</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45807,11 +45807,11 @@
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>833</v>
+        <v>652</v>
       </c>
       <c r="Q631" t="n">
         <v>18</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K632" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L632" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M632" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45879,11 +45879,11 @@
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q632" t="n">
         <v>18</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="K633" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L633" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M633" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q633" t="n">
         <v>18</v>
@@ -45996,7 +45996,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -46005,20 +46005,20 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="K634" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L634" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M634" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
@@ -46027,10 +46027,10 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>417</v>
+        <v>722</v>
       </c>
       <c r="Q634" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R634" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E635" t="n">
         <v>5</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>530</v>
+        <v>260</v>
       </c>
       <c r="K635" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L635" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M635" t="n">
-        <v>11736</v>
+        <v>10000</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>652</v>
+        <v>556</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E636" t="n">
         <v>5</v>
@@ -46140,41 +46140,41 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="K636" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L636" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M636" t="n">
-        <v>9167</v>
+        <v>5000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>509</v>
+        <v>417</v>
       </c>
       <c r="Q636" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E637" t="n">
         <v>5</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>330</v>
+        <v>530</v>
       </c>
       <c r="K637" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L637" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M637" t="n">
-        <v>10000</v>
+        <v>11736</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>556</v>
+        <v>652</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46289,20 +46289,20 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="K638" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L638" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M638" t="n">
-        <v>7500</v>
+        <v>9167</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46311,11 +46311,11 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>417</v>
+        <v>509</v>
       </c>
       <c r="Q638" t="n">
         <v>18</v>
@@ -46361,20 +46361,20 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="K639" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L639" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M639" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>361</v>
+        <v>556</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46433,38 +46433,182 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J640" t="n">
+        <v>300</v>
+      </c>
+      <c r="K640" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L640" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M640" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N640" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O640" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P640" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q640" t="n">
+        <v>18</v>
+      </c>
+      <c r="R640" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>3</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D641" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E641" t="n">
+        <v>5</v>
+      </c>
+      <c r="F641" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J641" t="n">
+        <v>180</v>
+      </c>
+      <c r="K641" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L641" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M641" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N641" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O641" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P641" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q641" t="n">
+        <v>18</v>
+      </c>
+      <c r="R641" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>3</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D642" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E642" t="n">
+        <v>5</v>
+      </c>
+      <c r="F642" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J640" t="n">
+      <c r="J642" t="n">
         <v>320</v>
       </c>
-      <c r="K640" t="n">
+      <c r="K642" t="n">
         <v>6000</v>
       </c>
-      <c r="L640" t="n">
+      <c r="L642" t="n">
         <v>6000</v>
       </c>
-      <c r="M640" t="n">
+      <c r="M642" t="n">
         <v>6000</v>
       </c>
-      <c r="N640" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O640" t="inlineStr">
+      <c r="N642" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O642" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P640" t="n">
+      <c r="P642" t="n">
         <v>333</v>
       </c>
-      <c r="Q640" t="n">
-        <v>18</v>
-      </c>
-      <c r="R640" t="inlineStr">
+      <c r="Q642" t="n">
+        <v>18</v>
+      </c>
+      <c r="R642" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R642"/>
+  <dimension ref="A1:R644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E593" t="n">
         <v>5</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K593" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="L593" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="M593" t="n">
-        <v>15500</v>
+        <v>15484</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E594" t="n">
         <v>5</v>
@@ -43121,21 +43121,21 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K594" t="n">
         <v>12000</v>
       </c>
       <c r="L594" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M594" t="n">
         <v>12500</v>
       </c>
-      <c r="M594" t="n">
-        <v>12235</v>
-      </c>
       <c r="N594" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J595" t="n">
         <v>180</v>
       </c>
       <c r="K595" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="L595" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="M595" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>556</v>
+        <v>861</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E596" t="n">
         <v>5</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K596" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L596" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M596" t="n">
-        <v>14000</v>
+        <v>12235</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>778</v>
+        <v>680</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E597" t="n">
         <v>5</v>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K597" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L597" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M597" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43409,24 +43409,24 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K598" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L598" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M598" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
@@ -43435,10 +43435,10 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q598" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R598" t="inlineStr">
         <is>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K599" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L599" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M599" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E600" t="n">
         <v>5</v>
@@ -43557,20 +43557,20 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K600" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L600" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M600" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
@@ -43579,10 +43579,10 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="Q600" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R600" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -43625,24 +43625,24 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="K601" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L601" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M601" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
@@ -43651,10 +43651,10 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>458</v>
+        <v>556</v>
       </c>
       <c r="Q601" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R601" t="inlineStr">
         <is>
@@ -43697,20 +43697,20 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="K602" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L602" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M602" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>472</v>
+        <v>583</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E603" t="n">
         <v>5</v>
@@ -43773,32 +43773,32 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>530</v>
+        <v>380</v>
       </c>
       <c r="K603" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L603" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M603" t="n">
-        <v>12528</v>
+        <v>5500</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>696</v>
+        <v>458</v>
       </c>
       <c r="Q603" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R603" t="inlineStr">
         <is>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -43845,16 +43845,16 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="K604" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L604" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M604" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E605" t="n">
         <v>5</v>
@@ -43920,13 +43920,13 @@
         <v>530</v>
       </c>
       <c r="K605" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L605" t="n">
         <v>13000</v>
       </c>
-      <c r="L605" t="n">
-        <v>14000</v>
-      </c>
       <c r="M605" t="n">
-        <v>13528</v>
+        <v>12528</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>752</v>
+        <v>696</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E606" t="n">
         <v>5</v>
@@ -43989,16 +43989,16 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="K606" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L606" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M606" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E607" t="n">
         <v>5</v>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>280</v>
+        <v>530</v>
       </c>
       <c r="K607" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L607" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M607" t="n">
-        <v>11000</v>
+        <v>13528</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44079,11 +44079,11 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>611</v>
+        <v>752</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E608" t="n">
         <v>5</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K608" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L608" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M608" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44201,20 +44201,20 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K609" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L609" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M609" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q609" t="n">
         <v>18</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E610" t="n">
         <v>5</v>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="K610" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L610" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M610" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E611" t="n">
         <v>5</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K611" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L611" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M611" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K612" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L612" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M612" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44484,7 +44484,7 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -44493,16 +44493,16 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K613" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L613" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M613" t="n">
-        <v>7360</v>
+        <v>9000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>409</v>
+        <v>500</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44556,29 +44556,29 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K614" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L614" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M614" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
@@ -44587,10 +44587,10 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="Q614" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R614" t="inlineStr">
         <is>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E615" t="n">
         <v>5</v>
@@ -44628,25 +44628,25 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K615" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L615" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M615" t="n">
-        <v>11000</v>
+        <v>7360</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>611</v>
+        <v>409</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44700,7 +44700,7 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
@@ -44709,20 +44709,20 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="K616" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L616" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M616" t="n">
-        <v>9243</v>
+        <v>4500</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
@@ -44731,10 +44731,10 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>514</v>
+        <v>375</v>
       </c>
       <c r="Q616" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R616" t="inlineStr">
         <is>
@@ -44777,20 +44777,20 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K617" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L617" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M617" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>472</v>
+        <v>611</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E618" t="n">
         <v>5</v>
@@ -44849,20 +44849,20 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="K618" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L618" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M618" t="n">
-        <v>12000</v>
+        <v>9243</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>667</v>
+        <v>514</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E619" t="n">
         <v>5</v>
@@ -44921,20 +44921,20 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K619" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L619" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M619" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44993,20 +44993,20 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J620" t="n">
         <v>180</v>
       </c>
       <c r="K620" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L620" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M620" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K621" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L621" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M621" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q621" t="n">
         <v>18</v>
@@ -45132,25 +45132,25 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K622" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L622" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M622" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q622" t="n">
         <v>18</v>
@@ -45204,29 +45204,29 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K623" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L623" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M623" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
@@ -45238,7 +45238,7 @@
         <v>333</v>
       </c>
       <c r="Q623" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
@@ -45285,16 +45285,16 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="K624" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L624" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M624" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E625" t="n">
         <v>5</v>
@@ -45348,7 +45348,7 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
@@ -45357,16 +45357,16 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>730</v>
+        <v>280</v>
       </c>
       <c r="K625" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L625" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M625" t="n">
-        <v>4760</v>
+        <v>4000</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45375,11 +45375,11 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="Q625" t="n">
         <v>12</v>
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K626" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L626" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M626" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -45497,36 +45497,36 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>160</v>
+        <v>730</v>
       </c>
       <c r="K627" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L627" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M627" t="n">
-        <v>10000</v>
+        <v>4760</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>556</v>
+        <v>397</v>
       </c>
       <c r="Q627" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -45569,20 +45569,20 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K628" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L628" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M628" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q628" t="n">
         <v>18</v>
@@ -45641,20 +45641,20 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K629" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L629" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M629" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q629" t="n">
         <v>18</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E630" t="n">
         <v>5</v>
@@ -45713,20 +45713,20 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K630" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="L630" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="M630" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45735,11 +45735,11 @@
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>861</v>
+        <v>444</v>
       </c>
       <c r="Q630" t="n">
         <v>18</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E631" t="n">
         <v>5</v>
@@ -45785,20 +45785,20 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="K631" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L631" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M631" t="n">
-        <v>11742</v>
+        <v>7000</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45807,11 +45807,11 @@
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>652</v>
+        <v>389</v>
       </c>
       <c r="Q631" t="n">
         <v>18</v>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J632" t="n">
         <v>160</v>
       </c>
       <c r="K632" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="L632" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="M632" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>556</v>
+        <v>861</v>
       </c>
       <c r="Q632" t="n">
         <v>18</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E633" t="n">
         <v>5</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="K633" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="L633" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M633" t="n">
-        <v>15000</v>
+        <v>11742</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45951,11 +45951,11 @@
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>833</v>
+        <v>652</v>
       </c>
       <c r="Q633" t="n">
         <v>18</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E634" t="n">
         <v>5</v>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K634" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L634" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M634" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46023,11 +46023,11 @@
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q634" t="n">
         <v>18</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="K635" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L635" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M635" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46140,7 +46140,7 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
@@ -46149,20 +46149,20 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="K636" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L636" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M636" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
@@ -46171,10 +46171,10 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>417</v>
+        <v>722</v>
       </c>
       <c r="Q636" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E637" t="n">
         <v>5</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>530</v>
+        <v>260</v>
       </c>
       <c r="K637" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L637" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M637" t="n">
-        <v>11736</v>
+        <v>10000</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>652</v>
+        <v>556</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46284,41 +46284,41 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="K638" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L638" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M638" t="n">
-        <v>9167</v>
+        <v>5000</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>509</v>
+        <v>417</v>
       </c>
       <c r="Q638" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E639" t="n">
         <v>5</v>
@@ -46361,20 +46361,20 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>330</v>
+        <v>530</v>
       </c>
       <c r="K639" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L639" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M639" t="n">
-        <v>10000</v>
+        <v>11736</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>556</v>
+        <v>652</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E640" t="n">
         <v>5</v>
@@ -46433,20 +46433,20 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="K640" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L640" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M640" t="n">
-        <v>7500</v>
+        <v>9167</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46455,11 +46455,11 @@
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>417</v>
+        <v>509</v>
       </c>
       <c r="Q640" t="n">
         <v>18</v>
@@ -46505,20 +46505,20 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="K641" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L641" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M641" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46527,11 +46527,11 @@
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>361</v>
+        <v>556</v>
       </c>
       <c r="Q641" t="n">
         <v>18</v>
@@ -46577,38 +46577,182 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J642" t="n">
+        <v>300</v>
+      </c>
+      <c r="K642" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L642" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M642" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N642" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O642" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P642" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q642" t="n">
+        <v>18</v>
+      </c>
+      <c r="R642" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>3</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D643" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E643" t="n">
+        <v>5</v>
+      </c>
+      <c r="F643" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J643" t="n">
+        <v>180</v>
+      </c>
+      <c r="K643" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L643" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M643" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N643" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O643" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P643" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q643" t="n">
+        <v>18</v>
+      </c>
+      <c r="R643" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>3</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D644" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E644" t="n">
+        <v>5</v>
+      </c>
+      <c r="F644" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J642" t="n">
+      <c r="J644" t="n">
         <v>320</v>
       </c>
-      <c r="K642" t="n">
+      <c r="K644" t="n">
         <v>6000</v>
       </c>
-      <c r="L642" t="n">
+      <c r="L644" t="n">
         <v>6000</v>
       </c>
-      <c r="M642" t="n">
+      <c r="M644" t="n">
         <v>6000</v>
       </c>
-      <c r="N642" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O642" t="inlineStr">
+      <c r="N644" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O644" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P642" t="n">
+      <c r="P644" t="n">
         <v>333</v>
       </c>
-      <c r="Q642" t="n">
-        <v>18</v>
-      </c>
-      <c r="R642" t="inlineStr">
+      <c r="Q644" t="n">
+        <v>18</v>
+      </c>
+      <c r="R644" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R647"/>
+  <dimension ref="A1:R650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>70</v>
+        <v>630</v>
       </c>
       <c r="K492" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L492" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="M492" t="n">
-        <v>9000</v>
+        <v>14317</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35799,11 +35799,11 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>500</v>
+        <v>795</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="K493" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L493" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M493" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35871,11 +35871,11 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="K494" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L494" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="M494" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35943,11 +35943,11 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>833</v>
+        <v>528</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K495" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L495" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M495" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="K496" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L496" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M496" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>611</v>
+        <v>944</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="K497" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L497" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M497" t="n">
-        <v>12833</v>
+        <v>15000</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>713</v>
+        <v>833</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K498" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L498" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M498" t="n">
-        <v>10523</v>
+        <v>13000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>585</v>
+        <v>722</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
@@ -36281,36 +36281,36 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="K499" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L499" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M499" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P499" t="n">
-        <v>417</v>
+        <v>611</v>
       </c>
       <c r="Q499" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R499" t="inlineStr">
         <is>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J500" t="n">
         <v>240</v>
       </c>
       <c r="K500" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="L500" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M500" t="n">
-        <v>8833</v>
+        <v>12833</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>491</v>
+        <v>713</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E501" t="n">
         <v>5</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K501" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L501" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M501" t="n">
-        <v>12000</v>
+        <v>10523</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>667</v>
+        <v>585</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -36501,32 +36501,32 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K502" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L502" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M502" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="Q502" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R502" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E503" t="n">
         <v>5</v>
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="K503" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L503" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M503" t="n">
-        <v>7000</v>
+        <v>8833</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>389</v>
+        <v>491</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36636,25 +36636,25 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="K504" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L504" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M504" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -36713,20 +36713,20 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K505" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L505" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M505" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -36785,20 +36785,20 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K506" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L506" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M506" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E507" t="n">
         <v>5</v>
@@ -36852,25 +36852,25 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="K507" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L507" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M507" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36924,25 +36924,25 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K508" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L508" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M508" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36996,25 +36996,25 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K509" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L509" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M509" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="K510" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L510" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M510" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -37140,7 +37140,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="K511" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L511" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M511" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K512" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L512" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M512" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>389</v>
+        <v>278</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37284,25 +37284,25 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K513" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L513" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M513" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="K514" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L514" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M514" t="n">
-        <v>11444</v>
+        <v>9000</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>636</v>
+        <v>500</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K515" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L515" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M515" t="n">
-        <v>8750</v>
+        <v>7000</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>486</v>
+        <v>389</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E516" t="n">
         <v>5</v>
@@ -37500,25 +37500,25 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="K516" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L516" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="M516" t="n">
-        <v>12257</v>
+        <v>7000</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>681</v>
+        <v>389</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="K517" t="n">
         <v>11000</v>
       </c>
       <c r="L517" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="M517" t="n">
-        <v>11243</v>
+        <v>11444</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K518" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L518" t="n">
         <v>9000</v>
       </c>
       <c r="M518" t="n">
-        <v>9000</v>
+        <v>8750</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E519" t="n">
         <v>5</v>
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="K519" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L519" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M519" t="n">
-        <v>15000</v>
+        <v>12257</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37743,11 +37743,11 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>833</v>
+        <v>681</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E520" t="n">
         <v>5</v>
@@ -37797,7 +37797,7 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="K520" t="n">
         <v>11000</v>
@@ -37806,7 +37806,7 @@
         <v>11500</v>
       </c>
       <c r="M520" t="n">
-        <v>11235</v>
+        <v>11243</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37815,11 +37815,11 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -37865,36 +37865,36 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K521" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L521" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M521" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="Q521" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R521" t="inlineStr">
         <is>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K522" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L522" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M522" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="K523" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L523" t="n">
         <v>11500</v>
       </c>
-      <c r="L523" t="n">
-        <v>12000</v>
-      </c>
       <c r="M523" t="n">
-        <v>11681</v>
+        <v>11235</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -38081,24 +38081,24 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K524" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L524" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M524" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
@@ -38107,10 +38107,10 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="Q524" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R524" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K525" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L525" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M525" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38175,11 +38175,11 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E526" t="n">
         <v>5</v>
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="K526" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L526" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M526" t="n">
-        <v>13000</v>
+        <v>11681</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38247,11 +38247,11 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>722</v>
+        <v>649</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K527" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L527" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M527" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38319,11 +38319,11 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="K528" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L528" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M528" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="Q528" t="n">
         <v>18</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E529" t="n">
         <v>5</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>550</v>
+        <v>220</v>
       </c>
       <c r="K529" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L529" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M529" t="n">
-        <v>15455</v>
+        <v>13000</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38463,11 +38463,11 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>859</v>
+        <v>722</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="K530" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L530" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M530" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38535,11 +38535,11 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -38585,36 +38585,36 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="K531" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L531" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M531" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="Q531" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R531" t="inlineStr">
         <is>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="K532" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L532" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="M532" t="n">
-        <v>9500</v>
+        <v>15455</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>528</v>
+        <v>859</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K533" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L533" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M533" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38751,11 +38751,11 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>528</v>
+        <v>667</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -38805,32 +38805,32 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>1110</v>
+        <v>350</v>
       </c>
       <c r="K534" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L534" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M534" t="n">
-        <v>6739</v>
+        <v>5500</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>374</v>
+        <v>458</v>
       </c>
       <c r="Q534" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R534" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -38873,36 +38873,36 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K535" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L535" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="M535" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="Q535" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R535" t="inlineStr">
         <is>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -38949,16 +38949,16 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K536" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="L536" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="M536" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38967,11 +38967,11 @@
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E537" t="n">
         <v>5</v>
@@ -39021,16 +39021,16 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>160</v>
+        <v>1110</v>
       </c>
       <c r="K537" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L537" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M537" t="n">
-        <v>9000</v>
+        <v>6739</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39039,11 +39039,11 @@
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>500</v>
+        <v>374</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -39089,36 +39089,36 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="K538" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L538" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M538" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="Q538" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R538" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E539" t="n">
         <v>5</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K539" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L539" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M539" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39183,11 +39183,11 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="Q539" t="n">
         <v>18</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E540" t="n">
         <v>5</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K540" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L540" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M540" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39255,11 +39255,11 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E541" t="n">
         <v>5</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K541" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L541" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M541" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39327,11 +39327,11 @@
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>833</v>
+        <v>389</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -39381,16 +39381,16 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="K542" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L542" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M542" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E543" t="n">
         <v>5</v>
@@ -39453,16 +39453,16 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K543" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L543" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M543" t="n">
-        <v>9735</v>
+        <v>14000</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>541</v>
+        <v>778</v>
       </c>
       <c r="Q543" t="n">
         <v>18</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E544" t="n">
         <v>5</v>
@@ -39525,16 +39525,16 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K544" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L544" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M544" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E545" t="n">
         <v>5</v>
@@ -39593,20 +39593,20 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K545" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L545" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M545" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E546" t="n">
         <v>5</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="K546" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L546" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M546" t="n">
-        <v>9000</v>
+        <v>9735</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39687,11 +39687,11 @@
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K547" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L547" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M547" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39759,11 +39759,11 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q547" t="n">
         <v>18</v>
@@ -39809,24 +39809,24 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K548" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L548" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M548" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
@@ -39835,10 +39835,10 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>375</v>
+        <v>556</v>
       </c>
       <c r="Q548" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R548" t="inlineStr">
         <is>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="K549" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L549" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M549" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K550" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L550" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M550" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="Q550" t="n">
         <v>18</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E551" t="n">
         <v>5</v>
@@ -40025,36 +40025,36 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K551" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L551" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M551" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>556</v>
+        <v>375</v>
       </c>
       <c r="Q551" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R551" t="inlineStr">
         <is>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E552" t="n">
         <v>5</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K552" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L552" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M552" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E553" t="n">
         <v>5</v>
@@ -40169,36 +40169,36 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K553" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L553" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M553" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="Q553" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R553" t="inlineStr">
         <is>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K554" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L554" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M554" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q554" t="n">
         <v>18</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E555" t="n">
         <v>5</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="K555" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L555" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M555" t="n">
-        <v>11243</v>
+        <v>8000</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>625</v>
+        <v>444</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E556" t="n">
         <v>5</v>
@@ -40389,20 +40389,20 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="K556" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L556" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M556" t="n">
-        <v>9243</v>
+        <v>5000</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
@@ -40411,10 +40411,10 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>514</v>
+        <v>417</v>
       </c>
       <c r="Q556" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R556" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E557" t="n">
         <v>5</v>
@@ -40461,16 +40461,16 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K557" t="n">
         <v>7000</v>
       </c>
       <c r="L557" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M557" t="n">
-        <v>7235</v>
+        <v>7000</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E558" t="n">
         <v>5</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>510</v>
+        <v>370</v>
       </c>
       <c r="K558" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L558" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="M558" t="n">
-        <v>14245</v>
+        <v>11243</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40551,11 +40551,11 @@
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>791</v>
+        <v>625</v>
       </c>
       <c r="Q558" t="n">
         <v>18</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E559" t="n">
         <v>5</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="K559" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L559" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="M559" t="n">
-        <v>11250</v>
+        <v>9243</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40623,11 +40623,11 @@
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>625</v>
+        <v>514</v>
       </c>
       <c r="Q559" t="n">
         <v>18</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E560" t="n">
         <v>5</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K560" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L560" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="M560" t="n">
-        <v>15419</v>
+        <v>7235</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40695,11 +40695,11 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>857</v>
+        <v>402</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E561" t="n">
         <v>5</v>
@@ -40749,16 +40749,16 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>380</v>
+        <v>510</v>
       </c>
       <c r="K561" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L561" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="M561" t="n">
-        <v>11750</v>
+        <v>14245</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>653</v>
+        <v>791</v>
       </c>
       <c r="Q561" t="n">
         <v>18</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E562" t="n">
         <v>5</v>
@@ -40817,24 +40817,24 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="K562" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="L562" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="M562" t="n">
-        <v>5500</v>
+        <v>11250</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O562" t="inlineStr">
@@ -40843,10 +40843,10 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>458</v>
+        <v>625</v>
       </c>
       <c r="Q562" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R562" t="inlineStr">
         <is>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="K563" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L563" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M563" t="n">
-        <v>9000</v>
+        <v>15419</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>500</v>
+        <v>857</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E564" t="n">
         <v>5</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="K564" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L564" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M564" t="n">
-        <v>10000</v>
+        <v>11750</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40983,11 +40983,11 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>556</v>
+        <v>653</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E565" t="n">
         <v>5</v>
@@ -41037,32 +41037,32 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="K565" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L565" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M565" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="Q565" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R565" t="inlineStr">
         <is>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E566" t="n">
         <v>5</v>
@@ -41105,36 +41105,36 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="K566" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L566" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M566" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="Q566" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R566" t="inlineStr">
         <is>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K567" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L567" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M567" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E568" t="n">
         <v>5</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="K568" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L568" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M568" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>833</v>
+        <v>444</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E569" t="n">
         <v>5</v>
@@ -41325,32 +41325,32 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="K569" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L569" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M569" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>722</v>
+        <v>417</v>
       </c>
       <c r="Q569" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R569" t="inlineStr">
         <is>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E570" t="n">
         <v>5</v>
@@ -41397,16 +41397,16 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K570" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L570" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M570" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41415,11 +41415,11 @@
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E571" t="n">
         <v>5</v>
@@ -41469,7 +41469,7 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K571" t="n">
         <v>15000</v>
@@ -41487,7 +41487,7 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P571" t="n">
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E572" t="n">
         <v>5</v>
@@ -41541,16 +41541,16 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K572" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L572" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M572" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q572" t="n">
         <v>18</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E573" t="n">
         <v>5</v>
@@ -41613,16 +41613,16 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K573" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L573" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M573" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41681,24 +41681,24 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K574" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L574" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="M574" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
@@ -41707,10 +41707,10 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>333</v>
+        <v>833</v>
       </c>
       <c r="Q574" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R574" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E575" t="n">
         <v>5</v>
@@ -41757,16 +41757,16 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K575" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L575" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M575" t="n">
-        <v>10258</v>
+        <v>12000</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>570</v>
+        <v>667</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E576" t="n">
         <v>5</v>
@@ -41825,36 +41825,36 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="K576" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L576" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M576" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="Q576" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R576" t="inlineStr">
         <is>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E577" t="n">
         <v>5</v>
@@ -41901,32 +41901,32 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K577" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L577" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="M577" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>472</v>
+        <v>333</v>
       </c>
       <c r="Q577" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R577" t="inlineStr">
         <is>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E578" t="n">
         <v>5</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K578" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L578" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="M578" t="n">
-        <v>15000</v>
+        <v>10258</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41991,11 +41991,11 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>833</v>
+        <v>570</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E579" t="n">
         <v>5</v>
@@ -42045,20 +42045,20 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="K579" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L579" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M579" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O579" t="inlineStr">
@@ -42067,10 +42067,10 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>556</v>
+        <v>417</v>
       </c>
       <c r="Q579" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R579" t="inlineStr">
         <is>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E580" t="n">
         <v>5</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J580" t="n">
         <v>160</v>
       </c>
       <c r="K580" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L580" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M580" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>667</v>
+        <v>472</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42185,24 +42185,24 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K581" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L581" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M581" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O581" t="inlineStr">
@@ -42211,10 +42211,10 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>458</v>
+        <v>833</v>
       </c>
       <c r="Q581" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R581" t="inlineStr">
         <is>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J582" t="n">
         <v>160</v>
       </c>
       <c r="K582" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L582" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M582" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42279,11 +42279,11 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q582" t="n">
         <v>18</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E583" t="n">
         <v>5</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K583" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L583" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="M583" t="n">
-        <v>15698</v>
+        <v>12000</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>872</v>
+        <v>667</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E584" t="n">
         <v>5</v>
@@ -42405,20 +42405,20 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="K584" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="L584" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="M584" t="n">
-        <v>11775</v>
+        <v>5500</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
@@ -42427,10 +42427,10 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>654</v>
+        <v>458</v>
       </c>
       <c r="Q584" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R584" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E585" t="n">
         <v>5</v>
@@ -42477,16 +42477,16 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K585" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L585" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M585" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E586" t="n">
         <v>5</v>
@@ -42549,16 +42549,16 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="K586" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L586" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="M586" t="n">
-        <v>11000</v>
+        <v>15698</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>611</v>
+        <v>872</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E587" t="n">
         <v>5</v>
@@ -42621,16 +42621,16 @@
         </is>
       </c>
       <c r="J587" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K587" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L587" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M587" t="n">
-        <v>9000</v>
+        <v>11775</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>500</v>
+        <v>654</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E588" t="n">
         <v>5</v>
@@ -42693,16 +42693,16 @@
         </is>
       </c>
       <c r="J588" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="K588" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L588" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M588" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42711,11 +42711,11 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E589" t="n">
         <v>5</v>
@@ -42765,16 +42765,16 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K589" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L589" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M589" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E590" t="n">
         <v>5</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K590" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L590" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M590" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E591" t="n">
         <v>5</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J591" t="n">
         <v>180</v>
       </c>
       <c r="K591" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L591" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M591" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E592" t="n">
         <v>5</v>
@@ -42981,16 +42981,16 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K592" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L592" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M592" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E593" t="n">
         <v>5</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K593" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L593" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M593" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E594" t="n">
         <v>5</v>
@@ -43121,24 +43121,24 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K594" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L594" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M594" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
@@ -43147,10 +43147,10 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q594" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R594" t="inlineStr">
         <is>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K595" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L595" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M595" t="n">
-        <v>7242</v>
+        <v>11000</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>402</v>
+        <v>611</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E596" t="n">
         <v>5</v>
@@ -43269,16 +43269,16 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K596" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L596" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M596" t="n">
-        <v>15484</v>
+        <v>9000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>860</v>
+        <v>500</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E597" t="n">
         <v>5</v>
@@ -43337,36 +43337,36 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="K597" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L597" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M597" t="n">
-        <v>12500</v>
+        <v>4000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>694</v>
+        <v>333</v>
       </c>
       <c r="Q597" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R597" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E598" t="n">
         <v>5</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K598" t="n">
-        <v>15500</v>
+        <v>7000</v>
       </c>
       <c r="L598" t="n">
-        <v>15500</v>
+        <v>7500</v>
       </c>
       <c r="M598" t="n">
-        <v>15500</v>
+        <v>7242</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>861</v>
+        <v>402</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E599" t="n">
         <v>5</v>
@@ -43485,16 +43485,16 @@
         </is>
       </c>
       <c r="J599" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="K599" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L599" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="M599" t="n">
-        <v>12235</v>
+        <v>15484</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>680</v>
+        <v>860</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E600" t="n">
         <v>5</v>
@@ -43557,16 +43557,16 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K600" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L600" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M600" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>556</v>
+        <v>694</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -43632,13 +43632,13 @@
         <v>180</v>
       </c>
       <c r="K601" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="L601" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="M601" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>778</v>
+        <v>861</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E602" t="n">
         <v>5</v>
@@ -43701,16 +43701,16 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="K602" t="n">
         <v>12000</v>
       </c>
       <c r="L602" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="M602" t="n">
-        <v>12000</v>
+        <v>12235</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E603" t="n">
         <v>5</v>
@@ -43769,36 +43769,36 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K603" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L603" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M603" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q603" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R603" t="inlineStr">
         <is>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J604" t="n">
         <v>180</v>
       </c>
       <c r="K604" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L604" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M604" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E605" t="n">
         <v>5</v>
@@ -43917,16 +43917,16 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>360</v>
+        <v>190</v>
       </c>
       <c r="K605" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L605" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M605" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E606" t="n">
         <v>5</v>
@@ -43989,16 +43989,16 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="K606" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L606" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M606" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>458</v>
+        <v>667</v>
       </c>
       <c r="Q606" t="n">
         <v>12</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E607" t="n">
         <v>5</v>
@@ -44061,16 +44061,16 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K607" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L607" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M607" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E608" t="n">
         <v>5</v>
@@ -44133,16 +44133,16 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>530</v>
+        <v>360</v>
       </c>
       <c r="K608" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L608" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M608" t="n">
-        <v>12528</v>
+        <v>10500</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>696</v>
+        <v>583</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E609" t="n">
         <v>5</v>
@@ -44201,36 +44201,36 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="K609" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L609" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M609" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>556</v>
+        <v>458</v>
       </c>
       <c r="Q609" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E610" t="n">
         <v>5</v>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>530</v>
+        <v>150</v>
       </c>
       <c r="K610" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L610" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="M610" t="n">
-        <v>13528</v>
+        <v>8500</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>752</v>
+        <v>472</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E611" t="n">
         <v>5</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>160</v>
+        <v>530</v>
       </c>
       <c r="K611" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L611" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M611" t="n">
-        <v>11000</v>
+        <v>12528</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>611</v>
+        <v>696</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E612" t="n">
         <v>5</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="K612" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L612" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M612" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44439,11 +44439,11 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -44493,16 +44493,16 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>260</v>
+        <v>530</v>
       </c>
       <c r="K613" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L613" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M613" t="n">
-        <v>9000</v>
+        <v>13528</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>500</v>
+        <v>752</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E614" t="n">
         <v>5</v>
@@ -44565,16 +44565,16 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K614" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L614" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M614" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E615" t="n">
         <v>5</v>
@@ -44637,7 +44637,7 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="K615" t="n">
         <v>11000</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44709,7 +44709,7 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K616" t="n">
         <v>9000</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -44781,7 +44781,7 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K617" t="n">
         <v>7000</v>
@@ -44844,25 +44844,25 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="K618" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L618" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M618" t="n">
-        <v>7360</v>
+        <v>11000</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>409</v>
+        <v>611</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44916,7 +44916,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -44925,20 +44925,20 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K619" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L619" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M619" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
@@ -44947,10 +44947,10 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q619" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R619" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -44993,20 +44993,20 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K620" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L620" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M620" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E621" t="n">
         <v>5</v>
@@ -45060,7 +45060,7 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
@@ -45069,16 +45069,16 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="K621" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L621" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="M621" t="n">
-        <v>9243</v>
+        <v>7360</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>514</v>
+        <v>409</v>
       </c>
       <c r="Q621" t="n">
         <v>18</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -45132,29 +45132,29 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K622" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L622" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="M622" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
@@ -45163,10 +45163,10 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>472</v>
+        <v>375</v>
       </c>
       <c r="Q622" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45213,16 +45213,16 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K623" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L623" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M623" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q623" t="n">
         <v>18</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -45285,16 +45285,16 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>170</v>
+        <v>370</v>
       </c>
       <c r="K624" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L624" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="M624" t="n">
-        <v>10000</v>
+        <v>9243</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E625" t="n">
         <v>5</v>
@@ -45357,16 +45357,16 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K625" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L625" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M625" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K626" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L626" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M626" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45492,7 +45492,7 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
@@ -45501,16 +45501,16 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K627" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L627" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M627" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q627" t="n">
         <v>18</v>
@@ -45564,29 +45564,29 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K628" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L628" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M628" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
@@ -45595,10 +45595,10 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q628" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R628" t="inlineStr">
         <is>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E629" t="n">
         <v>5</v>
@@ -45641,20 +45641,20 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K629" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L629" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M629" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45663,11 +45663,11 @@
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="Q629" t="n">
         <v>18</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E630" t="n">
         <v>5</v>
@@ -45708,7 +45708,7 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -45717,32 +45717,32 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>730</v>
+        <v>190</v>
       </c>
       <c r="K630" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L630" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M630" t="n">
-        <v>4760</v>
+        <v>7000</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q630" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E631" t="n">
         <v>5</v>
@@ -45780,41 +45780,41 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J631" t="n">
         <v>280</v>
       </c>
       <c r="K631" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L631" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M631" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q631" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K632" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L632" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M632" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45879,11 +45879,11 @@
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q632" t="n">
         <v>18</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E633" t="n">
         <v>5</v>
@@ -45933,32 +45933,32 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>200</v>
+        <v>730</v>
       </c>
       <c r="K633" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L633" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M633" t="n">
-        <v>8000</v>
+        <v>4760</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="Q633" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R633" t="inlineStr">
         <is>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E634" t="n">
         <v>5</v>
@@ -46005,16 +46005,16 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K634" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L634" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M634" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46023,11 +46023,11 @@
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q634" t="n">
         <v>18</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E635" t="n">
         <v>5</v>
@@ -46080,13 +46080,13 @@
         <v>160</v>
       </c>
       <c r="K635" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="L635" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="M635" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>861</v>
+        <v>556</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E636" t="n">
         <v>5</v>
@@ -46149,16 +46149,16 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="K636" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L636" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M636" t="n">
-        <v>11742</v>
+        <v>8000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46167,11 +46167,11 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>652</v>
+        <v>444</v>
       </c>
       <c r="Q636" t="n">
         <v>18</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E637" t="n">
         <v>5</v>
@@ -46221,16 +46221,16 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K637" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L637" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M637" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46293,16 +46293,16 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K638" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="L638" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="M638" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46311,11 +46311,11 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="Q638" t="n">
         <v>18</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E639" t="n">
         <v>5</v>
@@ -46365,16 +46365,16 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="K639" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L639" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M639" t="n">
-        <v>13000</v>
+        <v>11742</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>722</v>
+        <v>652</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E640" t="n">
         <v>5</v>
@@ -46437,7 +46437,7 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K640" t="n">
         <v>10000</v>
@@ -46455,7 +46455,7 @@
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P640" t="n">
@@ -46500,29 +46500,29 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="K641" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L641" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M641" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
@@ -46531,10 +46531,10 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>417</v>
+        <v>833</v>
       </c>
       <c r="Q641" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E642" t="n">
         <v>5</v>
@@ -46581,16 +46581,16 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>530</v>
+        <v>210</v>
       </c>
       <c r="K642" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L642" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M642" t="n">
-        <v>11736</v>
+        <v>13000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46599,11 +46599,11 @@
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>652</v>
+        <v>722</v>
       </c>
       <c r="Q642" t="n">
         <v>18</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E643" t="n">
         <v>5</v>
@@ -46653,16 +46653,16 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="K643" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L643" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="M643" t="n">
-        <v>9167</v>
+        <v>10000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46671,11 +46671,11 @@
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>509</v>
+        <v>556</v>
       </c>
       <c r="Q643" t="n">
         <v>18</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E644" t="n">
         <v>5</v>
@@ -46716,41 +46716,41 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K644" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L644" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M644" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>556</v>
+        <v>417</v>
       </c>
       <c r="Q644" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E645" t="n">
         <v>5</v>
@@ -46797,16 +46797,16 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="K645" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L645" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M645" t="n">
-        <v>7500</v>
+        <v>11736</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>417</v>
+        <v>652</v>
       </c>
       <c r="Q645" t="n">
         <v>18</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E646" t="n">
         <v>5</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>180</v>
+        <v>390</v>
       </c>
       <c r="K646" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L646" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M646" t="n">
-        <v>6500</v>
+        <v>9167</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>361</v>
+        <v>509</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46937,38 +46937,254 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J647" t="n">
+        <v>330</v>
+      </c>
+      <c r="K647" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L647" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M647" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N647" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O647" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P647" t="n">
+        <v>556</v>
+      </c>
+      <c r="Q647" t="n">
+        <v>18</v>
+      </c>
+      <c r="R647" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>3</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D648" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E648" t="n">
+        <v>5</v>
+      </c>
+      <c r="F648" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J648" t="n">
+        <v>300</v>
+      </c>
+      <c r="K648" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L648" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M648" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N648" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O648" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P648" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q648" t="n">
+        <v>18</v>
+      </c>
+      <c r="R648" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>3</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D649" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E649" t="n">
+        <v>5</v>
+      </c>
+      <c r="F649" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J649" t="n">
+        <v>180</v>
+      </c>
+      <c r="K649" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L649" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M649" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N649" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O649" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P649" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q649" t="n">
+        <v>18</v>
+      </c>
+      <c r="R649" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>3</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D650" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E650" t="n">
+        <v>5</v>
+      </c>
+      <c r="F650" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J647" t="n">
+      <c r="J650" t="n">
         <v>320</v>
       </c>
-      <c r="K647" t="n">
+      <c r="K650" t="n">
         <v>6000</v>
       </c>
-      <c r="L647" t="n">
+      <c r="L650" t="n">
         <v>6000</v>
       </c>
-      <c r="M647" t="n">
+      <c r="M650" t="n">
         <v>6000</v>
       </c>
-      <c r="N647" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O647" t="inlineStr">
+      <c r="N650" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O650" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P647" t="n">
+      <c r="P650" t="n">
         <v>333</v>
       </c>
-      <c r="Q647" t="n">
-        <v>18</v>
-      </c>
-      <c r="R647" t="inlineStr">
+      <c r="Q650" t="n">
+        <v>18</v>
+      </c>
+      <c r="R650" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R650"/>
+  <dimension ref="A1:R653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -31677,20 +31677,20 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="K435" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L435" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="M435" t="n">
-        <v>15478</v>
+        <v>16286</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>860</v>
+        <v>905</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -31749,20 +31749,20 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="K436" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L436" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M436" t="n">
-        <v>12535</v>
+        <v>13200</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>696</v>
+        <v>733</v>
       </c>
       <c r="Q436" t="n">
         <v>18</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -31821,20 +31821,20 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="K437" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L437" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M437" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -31889,33 +31889,33 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>190</v>
+        <v>460</v>
       </c>
       <c r="K438" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L438" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M438" t="n">
-        <v>12000</v>
+        <v>15478</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>667</v>
+        <v>860</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -31961,33 +31961,33 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="K439" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L439" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M439" t="n">
-        <v>9000</v>
+        <v>12535</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>500</v>
+        <v>696</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E440" t="n">
         <v>5</v>
@@ -32033,36 +32033,36 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K440" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L440" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M440" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>458</v>
+        <v>556</v>
       </c>
       <c r="Q440" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K441" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L441" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M441" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,20 +32181,20 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="K442" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L442" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M442" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
@@ -32203,10 +32203,10 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q442" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R442" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -32249,24 +32249,24 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="K443" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="L443" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="M443" t="n">
-        <v>13483</v>
+        <v>5500</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -32275,10 +32275,10 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>749</v>
+        <v>458</v>
       </c>
       <c r="Q443" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K444" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L444" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M444" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -32388,29 +32388,29 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K445" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L445" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M445" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -32419,10 +32419,10 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q445" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E446" t="n">
         <v>5</v>
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="K446" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="L446" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M446" t="n">
-        <v>14867</v>
+        <v>13483</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32487,11 +32487,11 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>826</v>
+        <v>749</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K447" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L447" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M447" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32559,11 +32559,11 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K448" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L448" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M448" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32631,11 +32631,11 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E449" t="n">
         <v>5</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="K449" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="L449" t="n">
         <v>15000</v>
       </c>
       <c r="M449" t="n">
-        <v>15000</v>
+        <v>14867</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32703,11 +32703,11 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="K450" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L450" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M450" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32775,11 +32775,11 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="K451" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L451" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M451" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32847,11 +32847,11 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K452" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L452" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M452" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -32976,13 +32976,13 @@
         <v>190</v>
       </c>
       <c r="K453" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L453" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M453" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -33041,24 +33041,24 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K454" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L454" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M454" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
@@ -33067,10 +33067,10 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>417</v>
+        <v>611</v>
       </c>
       <c r="Q454" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K455" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L455" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M455" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -33185,20 +33185,20 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="K456" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L456" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="M456" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33207,11 +33207,11 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>1056</v>
+        <v>500</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -33257,24 +33257,24 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="K457" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L457" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M457" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -33283,10 +33283,10 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>611</v>
+        <v>417</v>
       </c>
       <c r="Q457" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K458" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L458" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M458" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -33401,36 +33401,36 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="K459" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="L459" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="M459" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>500</v>
+        <v>1056</v>
       </c>
       <c r="Q459" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R459" t="inlineStr">
         <is>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="K460" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L460" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M460" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="K461" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L461" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M461" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -33621,20 +33621,20 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="K462" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L462" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M462" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -33643,10 +33643,10 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q462" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K463" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L463" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M463" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33756,25 +33756,25 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K464" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L464" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M464" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33783,11 +33783,11 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P464" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33828,25 +33828,25 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K465" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L465" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M465" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33855,11 +33855,11 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P465" t="n">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -33905,20 +33905,20 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="K466" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L466" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M466" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="K467" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L467" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M467" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -33999,11 +33999,11 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K468" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L468" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M468" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34071,11 +34071,11 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>417</v>
+        <v>278</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K469" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L469" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M469" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="K470" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L470" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M470" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -34265,36 +34265,36 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="K471" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L471" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M471" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="Q471" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J472" t="n">
         <v>180</v>
       </c>
       <c r="K472" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L472" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M472" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="K473" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L473" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M473" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>833</v>
+        <v>444</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -34485,32 +34485,32 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K474" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L474" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M474" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>722</v>
+        <v>333</v>
       </c>
       <c r="Q474" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R474" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -34560,13 +34560,13 @@
         <v>180</v>
       </c>
       <c r="K475" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L475" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M475" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K476" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L476" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M476" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="K477" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L477" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M477" t="n">
-        <v>15474</v>
+        <v>13000</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34719,11 +34719,11 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>860</v>
+        <v>722</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K478" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L478" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M478" t="n">
-        <v>12514</v>
+        <v>11000</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34791,11 +34791,11 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>695</v>
+        <v>611</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="K479" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L479" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M479" t="n">
-        <v>10511</v>
+        <v>9000</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34863,11 +34863,11 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P479" t="n">
-        <v>584</v>
+        <v>500</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="K480" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L480" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M480" t="n">
-        <v>14000</v>
+        <v>15474</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>778</v>
+        <v>860</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="K481" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L481" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M481" t="n">
-        <v>11000</v>
+        <v>12514</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>611</v>
+        <v>695</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="K482" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L482" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M482" t="n">
-        <v>9000</v>
+        <v>10511</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>500</v>
+        <v>584</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="K483" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L483" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M483" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35151,11 +35151,11 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P483" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="K484" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L484" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M484" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -35273,11 +35273,11 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="K485" t="n">
         <v>9000</v>
@@ -35295,7 +35295,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P485" t="n">
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K486" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L486" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M486" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35367,11 +35367,11 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35417,24 +35417,24 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="K487" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L487" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M487" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -35443,10 +35443,10 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q487" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="K488" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L488" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M488" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K489" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L489" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M489" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35583,11 +35583,11 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P489" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E490" t="n">
         <v>5</v>
@@ -35637,32 +35637,32 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="K490" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L490" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M490" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="Q490" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="K491" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L491" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M491" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>630</v>
+        <v>150</v>
       </c>
       <c r="K492" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L492" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="M492" t="n">
-        <v>14317</v>
+        <v>13000</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35799,11 +35799,11 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>795</v>
+        <v>722</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K493" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L493" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M493" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35871,11 +35871,11 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K494" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L494" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="M494" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35943,11 +35943,11 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>528</v>
+        <v>444</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>70</v>
+        <v>630</v>
       </c>
       <c r="K495" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L495" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="M495" t="n">
-        <v>9000</v>
+        <v>14317</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36015,11 +36015,11 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>500</v>
+        <v>795</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="K496" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L496" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M496" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36087,11 +36087,11 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="K497" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L497" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="M497" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36159,11 +36159,11 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P497" t="n">
-        <v>833</v>
+        <v>528</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K498" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L498" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M498" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="K499" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L499" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M499" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>611</v>
+        <v>944</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="K500" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L500" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M500" t="n">
-        <v>12833</v>
+        <v>15000</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>713</v>
+        <v>833</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E501" t="n">
         <v>5</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K501" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L501" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M501" t="n">
-        <v>10523</v>
+        <v>13000</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>585</v>
+        <v>722</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -36497,36 +36497,36 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="K502" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L502" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M502" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>417</v>
+        <v>611</v>
       </c>
       <c r="Q502" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R502" t="inlineStr">
         <is>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J503" t="n">
         <v>240</v>
       </c>
       <c r="K503" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="L503" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M503" t="n">
-        <v>8833</v>
+        <v>12833</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>491</v>
+        <v>713</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K504" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L504" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M504" t="n">
-        <v>12000</v>
+        <v>10523</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>667</v>
+        <v>585</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -36717,32 +36717,32 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K505" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L505" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M505" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="Q505" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R505" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="K506" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L506" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M506" t="n">
-        <v>7000</v>
+        <v>8833</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>389</v>
+        <v>491</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36852,25 +36852,25 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="K507" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L507" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M507" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -36929,20 +36929,20 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K508" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L508" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M508" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -37001,20 +37001,20 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K509" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L509" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M509" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -37068,25 +37068,25 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="K510" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L510" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M510" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37140,25 +37140,25 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K511" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L511" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M511" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37212,25 +37212,25 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K512" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L512" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M512" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="K513" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L513" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M513" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="K514" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L514" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M514" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -37428,7 +37428,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K515" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L515" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M515" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>389</v>
+        <v>278</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37500,25 +37500,25 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K516" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L516" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M516" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="K517" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L517" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M517" t="n">
-        <v>11444</v>
+        <v>9000</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>636</v>
+        <v>500</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K518" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L518" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M518" t="n">
-        <v>8750</v>
+        <v>7000</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>486</v>
+        <v>389</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E519" t="n">
         <v>5</v>
@@ -37716,25 +37716,25 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="K519" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L519" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="M519" t="n">
-        <v>12257</v>
+        <v>7000</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>681</v>
+        <v>389</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E520" t="n">
         <v>5</v>
@@ -37797,16 +37797,16 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="K520" t="n">
         <v>11000</v>
       </c>
       <c r="L520" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="M520" t="n">
-        <v>11243</v>
+        <v>11444</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K521" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L521" t="n">
         <v>9000</v>
       </c>
       <c r="M521" t="n">
-        <v>9000</v>
+        <v>8750</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E522" t="n">
         <v>5</v>
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="K522" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L522" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M522" t="n">
-        <v>15000</v>
+        <v>12257</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37959,11 +37959,11 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>833</v>
+        <v>681</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -38013,7 +38013,7 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="K523" t="n">
         <v>11000</v>
@@ -38022,7 +38022,7 @@
         <v>11500</v>
       </c>
       <c r="M523" t="n">
-        <v>11235</v>
+        <v>11243</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -38081,36 +38081,36 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K524" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L524" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M524" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="Q524" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R524" t="inlineStr">
         <is>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K525" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L525" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M525" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E526" t="n">
         <v>5</v>
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="K526" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L526" t="n">
         <v>11500</v>
       </c>
-      <c r="L526" t="n">
-        <v>12000</v>
-      </c>
       <c r="M526" t="n">
-        <v>11681</v>
+        <v>11235</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -38297,24 +38297,24 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K527" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L527" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M527" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
@@ -38323,10 +38323,10 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="Q527" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R527" t="inlineStr">
         <is>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K528" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L528" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M528" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38391,11 +38391,11 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q528" t="n">
         <v>18</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E529" t="n">
         <v>5</v>
@@ -38445,16 +38445,16 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="K529" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L529" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M529" t="n">
-        <v>13000</v>
+        <v>11681</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38463,11 +38463,11 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>722</v>
+        <v>649</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K530" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L530" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M530" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38535,11 +38535,11 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="K531" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L531" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M531" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>550</v>
+        <v>220</v>
       </c>
       <c r="K532" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L532" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M532" t="n">
-        <v>15455</v>
+        <v>13000</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38679,11 +38679,11 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>859</v>
+        <v>722</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="K533" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L533" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M533" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38751,11 +38751,11 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -38801,36 +38801,36 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="K534" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L534" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M534" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="Q534" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R534" t="inlineStr">
         <is>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="K535" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L535" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="M535" t="n">
-        <v>9500</v>
+        <v>15455</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>528</v>
+        <v>859</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K536" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L536" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M536" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38967,11 +38967,11 @@
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>528</v>
+        <v>667</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E537" t="n">
         <v>5</v>
@@ -39021,32 +39021,32 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>1110</v>
+        <v>350</v>
       </c>
       <c r="K537" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L537" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M537" t="n">
-        <v>6739</v>
+        <v>5500</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>374</v>
+        <v>458</v>
       </c>
       <c r="Q537" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R537" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -39089,36 +39089,36 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K538" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L538" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="M538" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="Q538" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R538" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E539" t="n">
         <v>5</v>
@@ -39165,16 +39165,16 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K539" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="L539" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="M539" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39183,11 +39183,11 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="Q539" t="n">
         <v>18</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E540" t="n">
         <v>5</v>
@@ -39237,16 +39237,16 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>160</v>
+        <v>1110</v>
       </c>
       <c r="K540" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L540" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M540" t="n">
-        <v>9000</v>
+        <v>6739</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39255,11 +39255,11 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>500</v>
+        <v>374</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E541" t="n">
         <v>5</v>
@@ -39305,36 +39305,36 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="K541" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L541" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M541" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="Q541" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R541" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K542" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L542" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M542" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39399,11 +39399,11 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E543" t="n">
         <v>5</v>
@@ -39449,20 +39449,20 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K543" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L543" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M543" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39471,11 +39471,11 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="Q543" t="n">
         <v>18</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E544" t="n">
         <v>5</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K544" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L544" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M544" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>833</v>
+        <v>389</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E545" t="n">
         <v>5</v>
@@ -39597,16 +39597,16 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="K545" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L545" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M545" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E546" t="n">
         <v>5</v>
@@ -39669,16 +39669,16 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K546" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L546" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M546" t="n">
-        <v>9735</v>
+        <v>14000</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>541</v>
+        <v>778</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E547" t="n">
         <v>5</v>
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K547" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L547" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M547" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39759,11 +39759,11 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q547" t="n">
         <v>18</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E548" t="n">
         <v>5</v>
@@ -39809,20 +39809,20 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K548" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L548" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M548" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q548" t="n">
         <v>18</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E549" t="n">
         <v>5</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="K549" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L549" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M549" t="n">
-        <v>9000</v>
+        <v>9735</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39903,11 +39903,11 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K550" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L550" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M550" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39975,11 +39975,11 @@
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q550" t="n">
         <v>18</v>
@@ -40025,24 +40025,24 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K551" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L551" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M551" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
@@ -40051,10 +40051,10 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>375</v>
+        <v>556</v>
       </c>
       <c r="Q551" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R551" t="inlineStr">
         <is>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="K552" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L552" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M552" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K553" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L553" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M553" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E554" t="n">
         <v>5</v>
@@ -40241,36 +40241,36 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K554" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L554" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M554" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>556</v>
+        <v>375</v>
       </c>
       <c r="Q554" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R554" t="inlineStr">
         <is>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E555" t="n">
         <v>5</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K555" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L555" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M555" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E556" t="n">
         <v>5</v>
@@ -40385,36 +40385,36 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K556" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L556" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M556" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="Q556" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R556" t="inlineStr">
         <is>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K557" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L557" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M557" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E558" t="n">
         <v>5</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="K558" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L558" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="M558" t="n">
-        <v>11243</v>
+        <v>8000</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>625</v>
+        <v>444</v>
       </c>
       <c r="Q558" t="n">
         <v>18</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E559" t="n">
         <v>5</v>
@@ -40605,20 +40605,20 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="K559" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L559" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M559" t="n">
-        <v>9243</v>
+        <v>5000</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
@@ -40627,10 +40627,10 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>514</v>
+        <v>417</v>
       </c>
       <c r="Q559" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R559" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E560" t="n">
         <v>5</v>
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K560" t="n">
         <v>7000</v>
       </c>
       <c r="L560" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M560" t="n">
-        <v>7235</v>
+        <v>7000</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E561" t="n">
         <v>5</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>510</v>
+        <v>370</v>
       </c>
       <c r="K561" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L561" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="M561" t="n">
-        <v>14245</v>
+        <v>11243</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40767,11 +40767,11 @@
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P561" t="n">
-        <v>791</v>
+        <v>625</v>
       </c>
       <c r="Q561" t="n">
         <v>18</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E562" t="n">
         <v>5</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="K562" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L562" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="M562" t="n">
-        <v>11250</v>
+        <v>9243</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40839,11 +40839,11 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>625</v>
+        <v>514</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E563" t="n">
         <v>5</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K563" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L563" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="M563" t="n">
-        <v>15419</v>
+        <v>7235</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40911,11 +40911,11 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>857</v>
+        <v>402</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E564" t="n">
         <v>5</v>
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>380</v>
+        <v>510</v>
       </c>
       <c r="K564" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L564" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="M564" t="n">
-        <v>11750</v>
+        <v>14245</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>653</v>
+        <v>791</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E565" t="n">
         <v>5</v>
@@ -41033,24 +41033,24 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="K565" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="L565" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="M565" t="n">
-        <v>5500</v>
+        <v>11250</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O565" t="inlineStr">
@@ -41059,10 +41059,10 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>458</v>
+        <v>625</v>
       </c>
       <c r="Q565" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R565" t="inlineStr">
         <is>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="K566" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L566" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M566" t="n">
-        <v>9000</v>
+        <v>15419</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>500</v>
+        <v>857</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E567" t="n">
         <v>5</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="K567" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L567" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M567" t="n">
-        <v>10000</v>
+        <v>11750</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>556</v>
+        <v>653</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E568" t="n">
         <v>5</v>
@@ -41253,32 +41253,32 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="K568" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L568" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M568" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="Q568" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R568" t="inlineStr">
         <is>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E569" t="n">
         <v>5</v>
@@ -41321,36 +41321,36 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="K569" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L569" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M569" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="Q569" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R569" t="inlineStr">
         <is>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K570" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L570" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M570" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E571" t="n">
         <v>5</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="K571" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L571" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M571" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41487,11 +41487,11 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>833</v>
+        <v>444</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E572" t="n">
         <v>5</v>
@@ -41541,32 +41541,32 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="K572" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L572" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M572" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>722</v>
+        <v>417</v>
       </c>
       <c r="Q572" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R572" t="inlineStr">
         <is>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E573" t="n">
         <v>5</v>
@@ -41613,16 +41613,16 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K573" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L573" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M573" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E574" t="n">
         <v>5</v>
@@ -41685,7 +41685,7 @@
         </is>
       </c>
       <c r="J574" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K574" t="n">
         <v>15000</v>
@@ -41703,7 +41703,7 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P574" t="n">
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E575" t="n">
         <v>5</v>
@@ -41757,16 +41757,16 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K575" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L575" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M575" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E576" t="n">
         <v>5</v>
@@ -41829,16 +41829,16 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K576" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L576" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M576" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41847,11 +41847,11 @@
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41897,24 +41897,24 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K577" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L577" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="M577" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
@@ -41923,10 +41923,10 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>333</v>
+        <v>833</v>
       </c>
       <c r="Q577" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R577" t="inlineStr">
         <is>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E578" t="n">
         <v>5</v>
@@ -41973,16 +41973,16 @@
         </is>
       </c>
       <c r="J578" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K578" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L578" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M578" t="n">
-        <v>10258</v>
+        <v>12000</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41991,11 +41991,11 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>570</v>
+        <v>667</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E579" t="n">
         <v>5</v>
@@ -42041,36 +42041,36 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="K579" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L579" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M579" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="Q579" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R579" t="inlineStr">
         <is>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E580" t="n">
         <v>5</v>
@@ -42117,32 +42117,32 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K580" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L580" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="M580" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>472</v>
+        <v>333</v>
       </c>
       <c r="Q580" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R580" t="inlineStr">
         <is>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E581" t="n">
         <v>5</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K581" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L581" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="M581" t="n">
-        <v>15000</v>
+        <v>10258</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>833</v>
+        <v>570</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E582" t="n">
         <v>5</v>
@@ -42261,20 +42261,20 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="K582" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L582" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M582" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
@@ -42283,10 +42283,10 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>556</v>
+        <v>417</v>
       </c>
       <c r="Q582" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R582" t="inlineStr">
         <is>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E583" t="n">
         <v>5</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J583" t="n">
         <v>160</v>
       </c>
       <c r="K583" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L583" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M583" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42351,11 +42351,11 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>667</v>
+        <v>472</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42401,24 +42401,24 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K584" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L584" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M584" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
@@ -42427,10 +42427,10 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>458</v>
+        <v>833</v>
       </c>
       <c r="Q584" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R584" t="inlineStr">
         <is>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J585" t="n">
         <v>160</v>
       </c>
       <c r="K585" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L585" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M585" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E586" t="n">
         <v>5</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K586" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L586" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="M586" t="n">
-        <v>15698</v>
+        <v>12000</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>872</v>
+        <v>667</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E587" t="n">
         <v>5</v>
@@ -42621,20 +42621,20 @@
         </is>
       </c>
       <c r="J587" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="K587" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="L587" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="M587" t="n">
-        <v>11775</v>
+        <v>5500</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O587" t="inlineStr">
@@ -42643,10 +42643,10 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>654</v>
+        <v>458</v>
       </c>
       <c r="Q587" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R587" t="inlineStr">
         <is>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E588" t="n">
         <v>5</v>
@@ -42693,16 +42693,16 @@
         </is>
       </c>
       <c r="J588" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K588" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L588" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M588" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E589" t="n">
         <v>5</v>
@@ -42765,16 +42765,16 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="K589" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L589" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="M589" t="n">
-        <v>11000</v>
+        <v>15698</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42783,11 +42783,11 @@
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>611</v>
+        <v>872</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E590" t="n">
         <v>5</v>
@@ -42837,16 +42837,16 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K590" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L590" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M590" t="n">
-        <v>9000</v>
+        <v>11775</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42855,11 +42855,11 @@
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>500</v>
+        <v>654</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E591" t="n">
         <v>5</v>
@@ -42909,16 +42909,16 @@
         </is>
       </c>
       <c r="J591" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="K591" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L591" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M591" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42927,11 +42927,11 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E592" t="n">
         <v>5</v>
@@ -42981,16 +42981,16 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K592" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L592" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M592" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E593" t="n">
         <v>5</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K593" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L593" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M593" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E594" t="n">
         <v>5</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J594" t="n">
         <v>180</v>
       </c>
       <c r="K594" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L594" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M594" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E595" t="n">
         <v>5</v>
@@ -43197,16 +43197,16 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K595" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L595" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M595" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E596" t="n">
         <v>5</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K596" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L596" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M596" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E597" t="n">
         <v>5</v>
@@ -43337,24 +43337,24 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K597" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L597" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M597" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
@@ -43363,10 +43363,10 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q597" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R597" t="inlineStr">
         <is>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K598" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L598" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M598" t="n">
-        <v>7242</v>
+        <v>11000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>402</v>
+        <v>611</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E599" t="n">
         <v>5</v>
@@ -43485,16 +43485,16 @@
         </is>
       </c>
       <c r="J599" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K599" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L599" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M599" t="n">
-        <v>15484</v>
+        <v>9000</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43503,11 +43503,11 @@
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>860</v>
+        <v>500</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E600" t="n">
         <v>5</v>
@@ -43553,36 +43553,36 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="K600" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L600" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M600" t="n">
-        <v>12500</v>
+        <v>4000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>694</v>
+        <v>333</v>
       </c>
       <c r="Q600" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R600" t="inlineStr">
         <is>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K601" t="n">
-        <v>15500</v>
+        <v>7000</v>
       </c>
       <c r="L601" t="n">
-        <v>15500</v>
+        <v>7500</v>
       </c>
       <c r="M601" t="n">
-        <v>15500</v>
+        <v>7242</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>861</v>
+        <v>402</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E602" t="n">
         <v>5</v>
@@ -43701,16 +43701,16 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="K602" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L602" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="M602" t="n">
-        <v>12235</v>
+        <v>15484</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>680</v>
+        <v>860</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E603" t="n">
         <v>5</v>
@@ -43773,16 +43773,16 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K603" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L603" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M603" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>556</v>
+        <v>694</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -43848,13 +43848,13 @@
         <v>180</v>
       </c>
       <c r="K604" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="L604" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="M604" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>778</v>
+        <v>861</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E605" t="n">
         <v>5</v>
@@ -43917,16 +43917,16 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="K605" t="n">
         <v>12000</v>
       </c>
       <c r="L605" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="M605" t="n">
-        <v>12000</v>
+        <v>12235</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43935,11 +43935,11 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E606" t="n">
         <v>5</v>
@@ -43985,36 +43985,36 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K606" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L606" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M606" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q606" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R606" t="inlineStr">
         <is>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J607" t="n">
         <v>180</v>
       </c>
       <c r="K607" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L607" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M607" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E608" t="n">
         <v>5</v>
@@ -44133,16 +44133,16 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>360</v>
+        <v>190</v>
       </c>
       <c r="K608" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L608" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M608" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E609" t="n">
         <v>5</v>
@@ -44205,16 +44205,16 @@
         </is>
       </c>
       <c r="J609" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="K609" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L609" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M609" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>458</v>
+        <v>667</v>
       </c>
       <c r="Q609" t="n">
         <v>12</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E610" t="n">
         <v>5</v>
@@ -44277,16 +44277,16 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K610" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L610" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M610" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E611" t="n">
         <v>5</v>
@@ -44349,16 +44349,16 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>530</v>
+        <v>360</v>
       </c>
       <c r="K611" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L611" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M611" t="n">
-        <v>12528</v>
+        <v>10500</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44367,11 +44367,11 @@
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>696</v>
+        <v>583</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E612" t="n">
         <v>5</v>
@@ -44417,36 +44417,36 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="K612" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L612" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M612" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>556</v>
+        <v>458</v>
       </c>
       <c r="Q612" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R612" t="inlineStr">
         <is>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>530</v>
+        <v>150</v>
       </c>
       <c r="K613" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L613" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="M613" t="n">
-        <v>13528</v>
+        <v>8500</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>752</v>
+        <v>472</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E614" t="n">
         <v>5</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>160</v>
+        <v>530</v>
       </c>
       <c r="K614" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L614" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M614" t="n">
-        <v>11000</v>
+        <v>12528</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>611</v>
+        <v>696</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E615" t="n">
         <v>5</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="K615" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L615" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M615" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44709,16 +44709,16 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>260</v>
+        <v>530</v>
       </c>
       <c r="K616" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L616" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M616" t="n">
-        <v>9000</v>
+        <v>13528</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44727,11 +44727,11 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>500</v>
+        <v>752</v>
       </c>
       <c r="Q616" t="n">
         <v>18</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K617" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L617" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M617" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44799,11 +44799,11 @@
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E618" t="n">
         <v>5</v>
@@ -44853,7 +44853,7 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="K618" t="n">
         <v>11000</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E619" t="n">
         <v>5</v>
@@ -44925,7 +44925,7 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K619" t="n">
         <v>9000</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -44997,7 +44997,7 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K620" t="n">
         <v>7000</v>
@@ -45060,25 +45060,25 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="K621" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L621" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M621" t="n">
-        <v>7360</v>
+        <v>11000</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>409</v>
+        <v>611</v>
       </c>
       <c r="Q621" t="n">
         <v>18</v>
@@ -45132,7 +45132,7 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
@@ -45141,20 +45141,20 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K622" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L622" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M622" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
@@ -45163,10 +45163,10 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q622" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K623" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L623" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M623" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q623" t="n">
         <v>18</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
@@ -45285,16 +45285,16 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="K624" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L624" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="M624" t="n">
-        <v>9243</v>
+        <v>7360</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>514</v>
+        <v>409</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E625" t="n">
         <v>5</v>
@@ -45348,29 +45348,29 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K625" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L625" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="M625" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
@@ -45379,10 +45379,10 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>472</v>
+        <v>375</v>
       </c>
       <c r="Q625" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R625" t="inlineStr">
         <is>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E626" t="n">
         <v>5</v>
@@ -45429,16 +45429,16 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K626" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L626" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M626" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -45501,16 +45501,16 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>170</v>
+        <v>370</v>
       </c>
       <c r="K627" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L627" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="M627" t="n">
-        <v>10000</v>
+        <v>9243</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="Q627" t="n">
         <v>18</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -45573,16 +45573,16 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K628" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L628" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M628" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="Q628" t="n">
         <v>18</v>
@@ -45641,20 +45641,20 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K629" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L629" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M629" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="Q629" t="n">
         <v>18</v>
@@ -45708,7 +45708,7 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -45717,16 +45717,16 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K630" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L630" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M630" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q630" t="n">
         <v>18</v>
@@ -45780,29 +45780,29 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K631" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L631" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M631" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
@@ -45811,10 +45811,10 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q631" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K632" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L632" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M632" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45879,11 +45879,11 @@
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="Q632" t="n">
         <v>18</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E633" t="n">
         <v>5</v>
@@ -45924,7 +45924,7 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
@@ -45933,32 +45933,32 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>730</v>
+        <v>190</v>
       </c>
       <c r="K633" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L633" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M633" t="n">
-        <v>4760</v>
+        <v>7000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q633" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R633" t="inlineStr">
         <is>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E634" t="n">
         <v>5</v>
@@ -45996,41 +45996,41 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J634" t="n">
         <v>280</v>
       </c>
       <c r="K634" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L634" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M634" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q634" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R634" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E635" t="n">
         <v>5</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K635" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L635" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M635" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E636" t="n">
         <v>5</v>
@@ -46149,32 +46149,32 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>200</v>
+        <v>730</v>
       </c>
       <c r="K636" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L636" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M636" t="n">
-        <v>8000</v>
+        <v>4760</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="Q636" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E637" t="n">
         <v>5</v>
@@ -46221,16 +46221,16 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K637" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L637" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M637" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46296,13 +46296,13 @@
         <v>160</v>
       </c>
       <c r="K638" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="L638" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="M638" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46311,11 +46311,11 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>861</v>
+        <v>556</v>
       </c>
       <c r="Q638" t="n">
         <v>18</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E639" t="n">
         <v>5</v>
@@ -46365,16 +46365,16 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="K639" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L639" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M639" t="n">
-        <v>11742</v>
+        <v>8000</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>652</v>
+        <v>444</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E640" t="n">
         <v>5</v>
@@ -46437,16 +46437,16 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K640" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L640" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M640" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46455,11 +46455,11 @@
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q640" t="n">
         <v>18</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E641" t="n">
         <v>5</v>
@@ -46509,16 +46509,16 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K641" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="L641" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="M641" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46527,11 +46527,11 @@
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="Q641" t="n">
         <v>18</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E642" t="n">
         <v>5</v>
@@ -46581,16 +46581,16 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="K642" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L642" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M642" t="n">
-        <v>13000</v>
+        <v>11742</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46599,11 +46599,11 @@
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>722</v>
+        <v>652</v>
       </c>
       <c r="Q642" t="n">
         <v>18</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E643" t="n">
         <v>5</v>
@@ -46653,7 +46653,7 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K643" t="n">
         <v>10000</v>
@@ -46671,7 +46671,7 @@
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P643" t="n">
@@ -46716,29 +46716,29 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="K644" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L644" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M644" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
@@ -46747,10 +46747,10 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>417</v>
+        <v>833</v>
       </c>
       <c r="Q644" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E645" t="n">
         <v>5</v>
@@ -46797,16 +46797,16 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>530</v>
+        <v>210</v>
       </c>
       <c r="K645" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L645" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M645" t="n">
-        <v>11736</v>
+        <v>13000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>652</v>
+        <v>722</v>
       </c>
       <c r="Q645" t="n">
         <v>18</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E646" t="n">
         <v>5</v>
@@ -46869,16 +46869,16 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="K646" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L646" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="M646" t="n">
-        <v>9167</v>
+        <v>10000</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46887,11 +46887,11 @@
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>509</v>
+        <v>556</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -46932,41 +46932,41 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K647" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L647" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M647" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>556</v>
+        <v>417</v>
       </c>
       <c r="Q647" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R647" t="inlineStr">
         <is>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E648" t="n">
         <v>5</v>
@@ -47013,16 +47013,16 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="K648" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L648" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M648" t="n">
-        <v>7500</v>
+        <v>11736</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47031,11 +47031,11 @@
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>417</v>
+        <v>652</v>
       </c>
       <c r="Q648" t="n">
         <v>18</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E649" t="n">
         <v>5</v>
@@ -47081,20 +47081,20 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>180</v>
+        <v>390</v>
       </c>
       <c r="K649" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L649" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M649" t="n">
-        <v>6500</v>
+        <v>9167</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>361</v>
+        <v>509</v>
       </c>
       <c r="Q649" t="n">
         <v>18</v>
@@ -47153,38 +47153,254 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J650" t="n">
+        <v>330</v>
+      </c>
+      <c r="K650" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L650" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M650" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N650" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O650" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P650" t="n">
+        <v>556</v>
+      </c>
+      <c r="Q650" t="n">
+        <v>18</v>
+      </c>
+      <c r="R650" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>3</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D651" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E651" t="n">
+        <v>5</v>
+      </c>
+      <c r="F651" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J651" t="n">
+        <v>300</v>
+      </c>
+      <c r="K651" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L651" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M651" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N651" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O651" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P651" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q651" t="n">
+        <v>18</v>
+      </c>
+      <c r="R651" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>3</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D652" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E652" t="n">
+        <v>5</v>
+      </c>
+      <c r="F652" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J652" t="n">
+        <v>180</v>
+      </c>
+      <c r="K652" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L652" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M652" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N652" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O652" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P652" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q652" t="n">
+        <v>18</v>
+      </c>
+      <c r="R652" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>3</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D653" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E653" t="n">
+        <v>5</v>
+      </c>
+      <c r="F653" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J650" t="n">
+      <c r="J653" t="n">
         <v>320</v>
       </c>
-      <c r="K650" t="n">
+      <c r="K653" t="n">
         <v>6000</v>
       </c>
-      <c r="L650" t="n">
+      <c r="L653" t="n">
         <v>6000</v>
       </c>
-      <c r="M650" t="n">
+      <c r="M653" t="n">
         <v>6000</v>
       </c>
-      <c r="N650" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O650" t="inlineStr">
+      <c r="N653" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O653" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P650" t="n">
+      <c r="P653" t="n">
         <v>333</v>
       </c>
-      <c r="Q650" t="n">
-        <v>18</v>
-      </c>
-      <c r="R650" t="inlineStr">
+      <c r="Q653" t="n">
+        <v>18</v>
+      </c>
+      <c r="R653" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R655"/>
+  <dimension ref="A1:R657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="K474" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L474" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M474" t="n">
-        <v>10000</v>
+        <v>15538</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34503,11 +34503,11 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>556</v>
+        <v>863</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="K475" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="L475" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M475" t="n">
-        <v>8000</v>
+        <v>12732</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34575,11 +34575,11 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P475" t="n">
-        <v>444</v>
+        <v>707</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34625,36 +34625,36 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="K476" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L476" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M476" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q476" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K477" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L477" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M477" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -34769,36 +34769,36 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K478" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L478" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="M478" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>833</v>
+        <v>333</v>
       </c>
       <c r="Q478" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J479" t="n">
         <v>180</v>
       </c>
       <c r="K479" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L479" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M479" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K480" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L480" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M480" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K481" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L481" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M481" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="K482" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L482" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M482" t="n">
-        <v>15474</v>
+        <v>11000</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35079,11 +35079,11 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P482" t="n">
-        <v>860</v>
+        <v>611</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K483" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L483" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M483" t="n">
-        <v>12514</v>
+        <v>9000</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35151,11 +35151,11 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P483" t="n">
-        <v>695</v>
+        <v>500</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>174</v>
+        <v>380</v>
       </c>
       <c r="K484" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L484" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M484" t="n">
-        <v>10511</v>
+        <v>15474</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>584</v>
+        <v>860</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="K485" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L485" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M485" t="n">
-        <v>14000</v>
+        <v>12514</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>778</v>
+        <v>695</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="K486" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L486" t="n">
         <v>11000</v>
       </c>
       <c r="M486" t="n">
-        <v>11000</v>
+        <v>10511</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="K487" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L487" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M487" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -35489,11 +35489,11 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K488" t="n">
         <v>11000</v>
@@ -35511,7 +35511,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P488" t="n">
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="K489" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L489" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M489" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K490" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L490" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M490" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35705,20 +35705,20 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K491" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L491" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M491" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35781,32 +35781,32 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="K492" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L492" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M492" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q492" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R492" t="inlineStr">
         <is>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="K493" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L493" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M493" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35871,11 +35871,11 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -35921,36 +35921,36 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="K494" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L494" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M494" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>722</v>
+        <v>333</v>
       </c>
       <c r="Q494" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R494" t="inlineStr">
         <is>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="K495" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L495" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M495" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>556</v>
+        <v>417</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K496" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L496" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M496" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>630</v>
+        <v>150</v>
       </c>
       <c r="K497" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L497" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="M497" t="n">
-        <v>14317</v>
+        <v>10000</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36159,11 +36159,11 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P497" t="n">
-        <v>795</v>
+        <v>556</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K498" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L498" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M498" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36231,11 +36231,11 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>230</v>
+        <v>630</v>
       </c>
       <c r="K499" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L499" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="M499" t="n">
-        <v>9500</v>
+        <v>14317</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>528</v>
+        <v>795</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="K500" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L500" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M500" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36375,11 +36375,11 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E501" t="n">
         <v>5</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="K501" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="L501" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="M501" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36447,11 +36447,11 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>944</v>
+        <v>528</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="K502" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L502" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M502" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K503" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L503" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M503" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="K504" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L504" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M504" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -36713,20 +36713,20 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K505" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L505" t="n">
         <v>13000</v>
       </c>
       <c r="M505" t="n">
-        <v>12833</v>
+        <v>13000</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -36785,20 +36785,20 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="K506" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L506" t="n">
         <v>11000</v>
       </c>
       <c r="M506" t="n">
-        <v>10523</v>
+        <v>11000</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36857,36 +36857,36 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="K507" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="L507" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M507" t="n">
-        <v>5000</v>
+        <v>12833</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>417</v>
+        <v>713</v>
       </c>
       <c r="Q507" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R507" t="inlineStr">
         <is>
@@ -36929,20 +36929,20 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K508" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L508" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M508" t="n">
-        <v>8833</v>
+        <v>10523</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>491</v>
+        <v>585</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -37001,36 +37001,36 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="K509" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L509" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M509" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>667</v>
+        <v>417</v>
       </c>
       <c r="Q509" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R509" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="K510" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L510" t="n">
         <v>9000</v>
       </c>
       <c r="M510" t="n">
-        <v>9000</v>
+        <v>8833</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K511" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L511" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M511" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K512" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L512" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M512" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K513" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L513" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M513" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="K514" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L514" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M514" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K515" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L515" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M515" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37500,7 +37500,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="K516" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L516" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M516" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37572,7 +37572,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K517" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L517" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M517" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -37644,25 +37644,25 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="K518" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L518" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M518" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E519" t="n">
         <v>5</v>
@@ -37716,25 +37716,25 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K519" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L519" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M519" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J520" t="n">
         <v>180</v>
       </c>
       <c r="K520" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L520" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M520" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37860,7 +37860,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="K521" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L521" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M521" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E522" t="n">
         <v>5</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="K522" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L522" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M522" t="n">
-        <v>11444</v>
+        <v>7000</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>636</v>
+        <v>389</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -38004,25 +38004,25 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="K523" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L523" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M523" t="n">
-        <v>8750</v>
+        <v>7000</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>486</v>
+        <v>389</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="K524" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L524" t="n">
         <v>12000</v>
       </c>
-      <c r="L524" t="n">
-        <v>12500</v>
-      </c>
       <c r="M524" t="n">
-        <v>12257</v>
+        <v>11444</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>681</v>
+        <v>636</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="K525" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L525" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="M525" t="n">
-        <v>11243</v>
+        <v>8750</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>625</v>
+        <v>486</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="K526" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L526" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="M526" t="n">
-        <v>9000</v>
+        <v>12257</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>500</v>
+        <v>681</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="K527" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L527" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="M527" t="n">
-        <v>15000</v>
+        <v>11243</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38319,11 +38319,11 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>833</v>
+        <v>625</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K528" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L528" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="M528" t="n">
-        <v>11235</v>
+        <v>9000</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38391,11 +38391,11 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>624</v>
+        <v>500</v>
       </c>
       <c r="Q528" t="n">
         <v>18</v>
@@ -38441,24 +38441,24 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K529" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L529" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M529" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
@@ -38467,10 +38467,10 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>458</v>
+        <v>833</v>
       </c>
       <c r="Q529" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R529" t="inlineStr">
         <is>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="K530" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L530" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="M530" t="n">
-        <v>9000</v>
+        <v>11235</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>500</v>
+        <v>624</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -38589,20 +38589,20 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K531" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="L531" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="M531" t="n">
-        <v>11681</v>
+        <v>5500</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
@@ -38611,10 +38611,10 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>649</v>
+        <v>458</v>
       </c>
       <c r="Q531" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R531" t="inlineStr">
         <is>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -38661,7 +38661,7 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K532" t="n">
         <v>9000</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="K533" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="L533" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M533" t="n">
-        <v>15000</v>
+        <v>11681</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38751,11 +38751,11 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>833</v>
+        <v>649</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K534" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L534" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M534" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38823,11 +38823,11 @@
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q534" t="n">
         <v>18</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K535" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L535" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M535" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="K536" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L536" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M536" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E537" t="n">
         <v>5</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>550</v>
+        <v>240</v>
       </c>
       <c r="K537" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L537" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M537" t="n">
-        <v>15455</v>
+        <v>10000</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39039,11 +39039,11 @@
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>859</v>
+        <v>556</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="K538" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L538" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M538" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39111,11 +39111,11 @@
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q538" t="n">
         <v>18</v>
@@ -39161,24 +39161,24 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="K539" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L539" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="M539" t="n">
-        <v>5500</v>
+        <v>15455</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
@@ -39187,10 +39187,10 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>458</v>
+        <v>859</v>
       </c>
       <c r="Q539" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R539" t="inlineStr">
         <is>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="K540" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L540" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M540" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>528</v>
+        <v>667</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E541" t="n">
         <v>5</v>
@@ -39305,36 +39305,36 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K541" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L541" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="M541" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>528</v>
+        <v>458</v>
       </c>
       <c r="Q541" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R541" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>1110</v>
+        <v>180</v>
       </c>
       <c r="K542" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L542" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M542" t="n">
-        <v>6739</v>
+        <v>9500</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39399,11 +39399,11 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>374</v>
+        <v>528</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39449,24 +39449,24 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K543" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L543" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="M543" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
@@ -39475,10 +39475,10 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="Q543" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R543" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E544" t="n">
         <v>5</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>180</v>
+        <v>1110</v>
       </c>
       <c r="K544" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L544" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M544" t="n">
-        <v>10000</v>
+        <v>6739</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>556</v>
+        <v>374</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E545" t="n">
         <v>5</v>
@@ -39597,32 +39597,32 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K545" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L545" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M545" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q545" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R545" t="inlineStr">
         <is>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J546" t="n">
         <v>180</v>
       </c>
       <c r="K546" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L546" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M546" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E547" t="n">
         <v>5</v>
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K547" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L547" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M547" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39759,11 +39759,11 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q547" t="n">
         <v>18</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E548" t="n">
         <v>5</v>
@@ -39813,16 +39813,16 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K548" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L548" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M548" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39831,11 +39831,11 @@
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>778</v>
+        <v>389</v>
       </c>
       <c r="Q548" t="n">
         <v>18</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E549" t="n">
         <v>5</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="K549" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L549" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M549" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E550" t="n">
         <v>5</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K550" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L550" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M550" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q550" t="n">
         <v>18</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>340</v>
+        <v>190</v>
       </c>
       <c r="K551" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L551" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M551" t="n">
-        <v>9735</v>
+        <v>15000</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>541</v>
+        <v>833</v>
       </c>
       <c r="Q551" t="n">
         <v>18</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E552" t="n">
         <v>5</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K552" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L552" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M552" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40119,11 +40119,11 @@
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E553" t="n">
         <v>5</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="K553" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="L553" t="n">
         <v>10000</v>
       </c>
       <c r="M553" t="n">
-        <v>10000</v>
+        <v>9735</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K554" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L554" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M554" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q554" t="n">
         <v>18</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K555" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L555" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M555" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40389,32 +40389,32 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K556" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L556" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M556" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q556" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R556" t="inlineStr">
         <is>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K557" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L557" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M557" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40479,11 +40479,11 @@
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40529,24 +40529,24 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K558" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L558" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M558" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O558" t="inlineStr">
@@ -40555,10 +40555,10 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="Q558" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R558" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E559" t="n">
         <v>5</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K559" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L559" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M559" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q559" t="n">
         <v>18</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E560" t="n">
         <v>5</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K560" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L560" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M560" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40695,11 +40695,11 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>444</v>
+        <v>361</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40745,24 +40745,24 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K561" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L561" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M561" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
@@ -40771,10 +40771,10 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="Q561" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R561" t="inlineStr">
         <is>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K562" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L562" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M562" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E563" t="n">
         <v>5</v>
@@ -40889,24 +40889,24 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="K563" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L563" t="n">
-        <v>11500</v>
+        <v>5000</v>
       </c>
       <c r="M563" t="n">
-        <v>11243</v>
+        <v>5000</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
@@ -40915,10 +40915,10 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>625</v>
+        <v>417</v>
       </c>
       <c r="Q563" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R563" t="inlineStr">
         <is>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E564" t="n">
         <v>5</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="K564" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L564" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M564" t="n">
-        <v>9243</v>
+        <v>7000</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>514</v>
+        <v>389</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="K565" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L565" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="M565" t="n">
-        <v>7235</v>
+        <v>11243</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>402</v>
+        <v>625</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E566" t="n">
         <v>5</v>
@@ -41109,16 +41109,16 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>510</v>
+        <v>370</v>
       </c>
       <c r="K566" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L566" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="M566" t="n">
-        <v>14245</v>
+        <v>9243</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>791</v>
+        <v>514</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E567" t="n">
         <v>5</v>
@@ -41181,16 +41181,16 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="K567" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L567" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="M567" t="n">
-        <v>11250</v>
+        <v>7235</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>625</v>
+        <v>402</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E568" t="n">
         <v>5</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="K568" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L568" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="M568" t="n">
-        <v>15419</v>
+        <v>14245</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>857</v>
+        <v>791</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E569" t="n">
         <v>5</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="K569" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L569" t="n">
         <v>11500</v>
       </c>
-      <c r="L569" t="n">
-        <v>12000</v>
-      </c>
       <c r="M569" t="n">
-        <v>11750</v>
+        <v>11250</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41393,24 +41393,24 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="K570" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L570" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="M570" t="n">
-        <v>5500</v>
+        <v>15419</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
@@ -41419,10 +41419,10 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>458</v>
+        <v>857</v>
       </c>
       <c r="Q570" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R570" t="inlineStr">
         <is>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K571" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L571" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M571" t="n">
-        <v>9000</v>
+        <v>11750</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>500</v>
+        <v>653</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E572" t="n">
         <v>5</v>
@@ -41537,36 +41537,36 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="K572" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L572" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M572" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>556</v>
+        <v>458</v>
       </c>
       <c r="Q572" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R572" t="inlineStr">
         <is>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E573" t="n">
         <v>5</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="K573" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L573" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M573" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41681,24 +41681,24 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="K574" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L574" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M574" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
@@ -41707,10 +41707,10 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="Q574" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R574" t="inlineStr">
         <is>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K575" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L575" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M575" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E576" t="n">
         <v>5</v>
@@ -41825,36 +41825,36 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="K576" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L576" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M576" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>833</v>
+        <v>417</v>
       </c>
       <c r="Q576" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R576" t="inlineStr">
         <is>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E577" t="n">
         <v>5</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K577" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L577" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M577" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41919,11 +41919,11 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K578" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L578" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M578" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E579" t="n">
         <v>5</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K579" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L579" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M579" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E580" t="n">
         <v>5</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K580" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L580" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M580" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K581" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L581" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M581" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42257,24 +42257,24 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K582" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L582" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M582" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
@@ -42283,10 +42283,10 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="Q582" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R582" t="inlineStr">
         <is>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E583" t="n">
         <v>5</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="K583" t="n">
         <v>10000</v>
       </c>
       <c r="L583" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="M583" t="n">
-        <v>10258</v>
+        <v>10000</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42351,11 +42351,11 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E584" t="n">
         <v>5</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="K584" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L584" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M584" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="Q584" t="n">
         <v>12</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="K585" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L585" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="M585" t="n">
-        <v>8500</v>
+        <v>10258</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>472</v>
+        <v>570</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E586" t="n">
         <v>5</v>
@@ -42545,36 +42545,36 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K586" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L586" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M586" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>833</v>
+        <v>417</v>
       </c>
       <c r="Q586" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R586" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E587" t="n">
         <v>5</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J587" t="n">
         <v>160</v>
       </c>
       <c r="K587" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L587" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M587" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K588" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L588" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M588" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42765,32 +42765,32 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K589" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L589" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M589" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>458</v>
+        <v>556</v>
       </c>
       <c r="Q589" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R589" t="inlineStr">
         <is>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
         <v>160</v>
       </c>
       <c r="K590" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L590" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M590" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E591" t="n">
         <v>5</v>
@@ -42905,24 +42905,24 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="K591" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="L591" t="n">
-        <v>16500</v>
+        <v>5500</v>
       </c>
       <c r="M591" t="n">
-        <v>15698</v>
+        <v>5500</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
@@ -42931,10 +42931,10 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>872</v>
+        <v>458</v>
       </c>
       <c r="Q591" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R591" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E592" t="n">
         <v>5</v>
@@ -42977,20 +42977,20 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K592" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L592" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M592" t="n">
-        <v>11775</v>
+        <v>9000</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>654</v>
+        <v>500</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="K593" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L593" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="M593" t="n">
-        <v>10000</v>
+        <v>15698</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>556</v>
+        <v>872</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E594" t="n">
         <v>5</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="K594" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L594" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M594" t="n">
-        <v>11000</v>
+        <v>11775</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>611</v>
+        <v>654</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E595" t="n">
         <v>5</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K595" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L595" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M595" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43215,11 +43215,11 @@
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K596" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L596" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M596" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E597" t="n">
         <v>5</v>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K597" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L597" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M597" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E598" t="n">
         <v>5</v>
@@ -43413,16 +43413,16 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K598" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L598" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M598" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J599" t="n">
         <v>180</v>
       </c>
       <c r="K599" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L599" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M599" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E600" t="n">
         <v>5</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K600" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L600" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M600" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J601" t="n">
         <v>180</v>
       </c>
       <c r="K601" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L601" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M601" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43697,24 +43697,24 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K602" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L602" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M602" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
@@ -43723,10 +43723,10 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>333</v>
+        <v>611</v>
       </c>
       <c r="Q602" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R602" t="inlineStr">
         <is>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K603" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L603" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M603" t="n">
-        <v>7242</v>
+        <v>9000</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>402</v>
+        <v>500</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -43845,32 +43845,32 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="K604" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L604" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="M604" t="n">
-        <v>15484</v>
+        <v>4000</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>860</v>
+        <v>333</v>
       </c>
       <c r="Q604" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R604" t="inlineStr">
         <is>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E605" t="n">
         <v>5</v>
@@ -43917,16 +43917,16 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K605" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L605" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M605" t="n">
-        <v>12500</v>
+        <v>7242</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43935,11 +43935,11 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>694</v>
+        <v>402</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E606" t="n">
         <v>5</v>
@@ -43985,20 +43985,20 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K606" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="L606" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="M606" t="n">
-        <v>15500</v>
+        <v>15484</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E607" t="n">
         <v>5</v>
@@ -44057,21 +44057,21 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K607" t="n">
         <v>12000</v>
       </c>
       <c r="L607" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M607" t="n">
         <v>12500</v>
       </c>
-      <c r="M607" t="n">
-        <v>12235</v>
-      </c>
       <c r="N607" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J608" t="n">
         <v>180</v>
       </c>
       <c r="K608" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="L608" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="M608" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>556</v>
+        <v>861</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E609" t="n">
         <v>5</v>
@@ -44201,20 +44201,20 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K609" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L609" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M609" t="n">
-        <v>14000</v>
+        <v>12235</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44223,11 +44223,11 @@
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>778</v>
+        <v>680</v>
       </c>
       <c r="Q609" t="n">
         <v>18</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E610" t="n">
         <v>5</v>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K610" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L610" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M610" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44345,24 +44345,24 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K611" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L611" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M611" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
@@ -44371,10 +44371,10 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q611" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R611" t="inlineStr">
         <is>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K612" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L612" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M612" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -44493,20 +44493,20 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K613" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L613" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M613" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
@@ -44515,10 +44515,10 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="Q613" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R613" t="inlineStr">
         <is>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E614" t="n">
         <v>5</v>
@@ -44561,24 +44561,24 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="K614" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L614" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M614" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
@@ -44587,10 +44587,10 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>458</v>
+        <v>556</v>
       </c>
       <c r="Q614" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R614" t="inlineStr">
         <is>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="K615" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L615" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M615" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>472</v>
+        <v>583</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44709,32 +44709,32 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>530</v>
+        <v>380</v>
       </c>
       <c r="K616" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L616" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M616" t="n">
-        <v>12528</v>
+        <v>5500</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>696</v>
+        <v>458</v>
       </c>
       <c r="Q616" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R616" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="K617" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L617" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M617" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44799,11 +44799,11 @@
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E618" t="n">
         <v>5</v>
@@ -44856,13 +44856,13 @@
         <v>530</v>
       </c>
       <c r="K618" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L618" t="n">
         <v>13000</v>
       </c>
-      <c r="L618" t="n">
-        <v>14000</v>
-      </c>
       <c r="M618" t="n">
-        <v>13528</v>
+        <v>12528</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>752</v>
+        <v>696</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E619" t="n">
         <v>5</v>
@@ -44925,16 +44925,16 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="K619" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L619" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M619" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -44993,20 +44993,20 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>280</v>
+        <v>530</v>
       </c>
       <c r="K620" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L620" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M620" t="n">
-        <v>11000</v>
+        <v>13528</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45015,11 +45015,11 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>611</v>
+        <v>752</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E621" t="n">
         <v>5</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K621" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L621" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M621" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45087,11 +45087,11 @@
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q621" t="n">
         <v>18</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K622" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L622" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M622" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q622" t="n">
         <v>18</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="K623" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L623" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M623" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q623" t="n">
         <v>18</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -45281,20 +45281,20 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K624" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L624" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M624" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45353,20 +45353,20 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K625" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L625" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M625" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45420,7 +45420,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -45429,16 +45429,16 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K626" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L626" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M626" t="n">
-        <v>7360</v>
+        <v>9000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>409</v>
+        <v>500</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45492,29 +45492,29 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K627" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L627" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M627" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
@@ -45523,10 +45523,10 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="Q627" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -45564,25 +45564,25 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K628" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L628" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M628" t="n">
-        <v>11000</v>
+        <v>7360</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>611</v>
+        <v>409</v>
       </c>
       <c r="Q628" t="n">
         <v>18</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E629" t="n">
         <v>5</v>
@@ -45636,7 +45636,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -45645,20 +45645,20 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="K629" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L629" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M629" t="n">
-        <v>9243</v>
+        <v>4500</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
@@ -45667,10 +45667,10 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>514</v>
+        <v>375</v>
       </c>
       <c r="Q629" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R629" t="inlineStr">
         <is>
@@ -45713,20 +45713,20 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K630" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L630" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M630" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>472</v>
+        <v>611</v>
       </c>
       <c r="Q630" t="n">
         <v>18</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E631" t="n">
         <v>5</v>
@@ -45785,20 +45785,20 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="K631" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L631" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M631" t="n">
-        <v>12000</v>
+        <v>9243</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>667</v>
+        <v>514</v>
       </c>
       <c r="Q631" t="n">
         <v>18</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K632" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L632" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M632" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="Q632" t="n">
         <v>18</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J633" t="n">
         <v>180</v>
       </c>
       <c r="K633" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L633" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M633" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q633" t="n">
         <v>18</v>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K634" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L634" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M634" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q634" t="n">
         <v>18</v>
@@ -46068,25 +46068,25 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K635" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L635" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M635" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46140,29 +46140,29 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K636" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L636" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M636" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
@@ -46174,7 +46174,7 @@
         <v>333</v>
       </c>
       <c r="Q636" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E637" t="n">
         <v>5</v>
@@ -46212,7 +46212,7 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
@@ -46221,16 +46221,16 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="K637" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L637" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M637" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46284,7 +46284,7 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -46293,16 +46293,16 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>730</v>
+        <v>280</v>
       </c>
       <c r="K638" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L638" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M638" t="n">
-        <v>4760</v>
+        <v>4000</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46311,11 +46311,11 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="Q638" t="n">
         <v>12</v>
@@ -46361,20 +46361,20 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K639" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L639" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M639" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E640" t="n">
         <v>5</v>
@@ -46433,36 +46433,36 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>160</v>
+        <v>730</v>
       </c>
       <c r="K640" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L640" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M640" t="n">
-        <v>10000</v>
+        <v>4760</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>556</v>
+        <v>397</v>
       </c>
       <c r="Q640" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E641" t="n">
         <v>5</v>
@@ -46505,20 +46505,20 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K641" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L641" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M641" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46527,11 +46527,11 @@
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q641" t="n">
         <v>18</v>
@@ -46577,20 +46577,20 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K642" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L642" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M642" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q642" t="n">
         <v>18</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E643" t="n">
         <v>5</v>
@@ -46649,20 +46649,20 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K643" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="L643" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="M643" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46671,11 +46671,11 @@
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>861</v>
+        <v>444</v>
       </c>
       <c r="Q643" t="n">
         <v>18</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E644" t="n">
         <v>5</v>
@@ -46721,20 +46721,20 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="K644" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L644" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M644" t="n">
-        <v>11742</v>
+        <v>7000</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46743,11 +46743,11 @@
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>652</v>
+        <v>389</v>
       </c>
       <c r="Q644" t="n">
         <v>18</v>
@@ -46793,20 +46793,20 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J645" t="n">
         <v>160</v>
       </c>
       <c r="K645" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="L645" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="M645" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>556</v>
+        <v>861</v>
       </c>
       <c r="Q645" t="n">
         <v>18</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E646" t="n">
         <v>5</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="K646" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="L646" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M646" t="n">
-        <v>15000</v>
+        <v>11742</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46887,11 +46887,11 @@
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>833</v>
+        <v>652</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K647" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L647" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M647" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46959,11 +46959,11 @@
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q647" t="n">
         <v>18</v>
@@ -47009,20 +47009,20 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="K648" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L648" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M648" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q648" t="n">
         <v>18</v>
@@ -47076,7 +47076,7 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
@@ -47085,20 +47085,20 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="K649" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L649" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M649" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
@@ -47107,10 +47107,10 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>417</v>
+        <v>722</v>
       </c>
       <c r="Q649" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R649" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E650" t="n">
         <v>5</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>530</v>
+        <v>260</v>
       </c>
       <c r="K650" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L650" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M650" t="n">
-        <v>11736</v>
+        <v>10000</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47175,11 +47175,11 @@
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>652</v>
+        <v>556</v>
       </c>
       <c r="Q650" t="n">
         <v>18</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -47220,41 +47220,41 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="K651" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L651" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M651" t="n">
-        <v>9167</v>
+        <v>5000</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>509</v>
+        <v>417</v>
       </c>
       <c r="Q651" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E652" t="n">
         <v>5</v>
@@ -47297,20 +47297,20 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>330</v>
+        <v>530</v>
       </c>
       <c r="K652" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L652" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M652" t="n">
-        <v>10000</v>
+        <v>11736</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47319,11 +47319,11 @@
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>556</v>
+        <v>652</v>
       </c>
       <c r="Q652" t="n">
         <v>18</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E653" t="n">
         <v>5</v>
@@ -47369,20 +47369,20 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="K653" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L653" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M653" t="n">
-        <v>7500</v>
+        <v>9167</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47391,11 +47391,11 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>417</v>
+        <v>509</v>
       </c>
       <c r="Q653" t="n">
         <v>18</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="K654" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L654" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M654" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47463,11 +47463,11 @@
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>361</v>
+        <v>556</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47513,38 +47513,182 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J655" t="n">
+        <v>300</v>
+      </c>
+      <c r="K655" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L655" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M655" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N655" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O655" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P655" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q655" t="n">
+        <v>18</v>
+      </c>
+      <c r="R655" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>3</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D656" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E656" t="n">
+        <v>5</v>
+      </c>
+      <c r="F656" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J656" t="n">
+        <v>180</v>
+      </c>
+      <c r="K656" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L656" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M656" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N656" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O656" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P656" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q656" t="n">
+        <v>18</v>
+      </c>
+      <c r="R656" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>3</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D657" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E657" t="n">
+        <v>5</v>
+      </c>
+      <c r="F657" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J655" t="n">
+      <c r="J657" t="n">
         <v>320</v>
       </c>
-      <c r="K655" t="n">
+      <c r="K657" t="n">
         <v>6000</v>
       </c>
-      <c r="L655" t="n">
+      <c r="L657" t="n">
         <v>6000</v>
       </c>
-      <c r="M655" t="n">
+      <c r="M657" t="n">
         <v>6000</v>
       </c>
-      <c r="N655" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O655" t="inlineStr">
+      <c r="N657" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O657" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P655" t="n">
+      <c r="P657" t="n">
         <v>333</v>
       </c>
-      <c r="Q655" t="n">
-        <v>18</v>
-      </c>
-      <c r="R655" t="inlineStr">
+      <c r="Q657" t="n">
+        <v>18</v>
+      </c>
+      <c r="R657" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R662"/>
+  <dimension ref="A1:R664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E573" t="n">
         <v>5</v>
@@ -41613,16 +41613,16 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>510</v>
+        <v>290</v>
       </c>
       <c r="K573" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L573" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="M573" t="n">
-        <v>14245</v>
+        <v>17517</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>791</v>
+        <v>973</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E574" t="n">
         <v>5</v>
@@ -41688,13 +41688,13 @@
         <v>320</v>
       </c>
       <c r="K574" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L574" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="M574" t="n">
-        <v>11250</v>
+        <v>14500</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>625</v>
+        <v>806</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E575" t="n">
         <v>5</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="K575" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L575" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="M575" t="n">
-        <v>15419</v>
+        <v>14245</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>857</v>
+        <v>791</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E576" t="n">
         <v>5</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="K576" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L576" t="n">
         <v>11500</v>
       </c>
-      <c r="L576" t="n">
-        <v>12000</v>
-      </c>
       <c r="M576" t="n">
-        <v>11750</v>
+        <v>11250</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41897,24 +41897,24 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="K577" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L577" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="M577" t="n">
-        <v>5500</v>
+        <v>15419</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
@@ -41923,10 +41923,10 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>458</v>
+        <v>857</v>
       </c>
       <c r="Q577" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R577" t="inlineStr">
         <is>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K578" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L578" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M578" t="n">
-        <v>9000</v>
+        <v>11750</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>500</v>
+        <v>653</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E579" t="n">
         <v>5</v>
@@ -42041,36 +42041,36 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="K579" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L579" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M579" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>556</v>
+        <v>458</v>
       </c>
       <c r="Q579" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R579" t="inlineStr">
         <is>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E580" t="n">
         <v>5</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="K580" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L580" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M580" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42185,24 +42185,24 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="K581" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L581" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M581" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O581" t="inlineStr">
@@ -42211,10 +42211,10 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="Q581" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R581" t="inlineStr">
         <is>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K582" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L582" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M582" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q582" t="n">
         <v>18</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E583" t="n">
         <v>5</v>
@@ -42329,36 +42329,36 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="K583" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L583" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M583" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>833</v>
+        <v>417</v>
       </c>
       <c r="Q583" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R583" t="inlineStr">
         <is>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E584" t="n">
         <v>5</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K584" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L584" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M584" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="Q584" t="n">
         <v>18</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K585" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L585" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M585" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E586" t="n">
         <v>5</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K586" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L586" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M586" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E587" t="n">
         <v>5</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K587" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L587" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M587" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K588" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L588" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M588" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42761,24 +42761,24 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K589" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L589" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M589" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
@@ -42787,10 +42787,10 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="Q589" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R589" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E590" t="n">
         <v>5</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="K590" t="n">
         <v>10000</v>
       </c>
       <c r="L590" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="M590" t="n">
-        <v>10258</v>
+        <v>10000</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42855,11 +42855,11 @@
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E591" t="n">
         <v>5</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="K591" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L591" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M591" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42927,11 +42927,11 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="Q591" t="n">
         <v>12</v>
@@ -42977,20 +42977,20 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="K592" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L592" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="M592" t="n">
-        <v>8500</v>
+        <v>10258</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>472</v>
+        <v>570</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E593" t="n">
         <v>5</v>
@@ -43049,36 +43049,36 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K593" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L593" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M593" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>833</v>
+        <v>417</v>
       </c>
       <c r="Q593" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R593" t="inlineStr">
         <is>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E594" t="n">
         <v>5</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J594" t="n">
         <v>160</v>
       </c>
       <c r="K594" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L594" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M594" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K595" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L595" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M595" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43269,32 +43269,32 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K596" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L596" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M596" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>458</v>
+        <v>556</v>
       </c>
       <c r="Q596" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R596" t="inlineStr">
         <is>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
         <v>160</v>
       </c>
       <c r="K597" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L597" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M597" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E598" t="n">
         <v>5</v>
@@ -43409,24 +43409,24 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="K598" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="L598" t="n">
-        <v>16500</v>
+        <v>5500</v>
       </c>
       <c r="M598" t="n">
-        <v>15698</v>
+        <v>5500</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
@@ -43435,10 +43435,10 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>872</v>
+        <v>458</v>
       </c>
       <c r="Q598" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R598" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E599" t="n">
         <v>5</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K599" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L599" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M599" t="n">
-        <v>11775</v>
+        <v>9000</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>654</v>
+        <v>500</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="K600" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L600" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="M600" t="n">
-        <v>10000</v>
+        <v>15698</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>556</v>
+        <v>872</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="K601" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L601" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M601" t="n">
-        <v>11000</v>
+        <v>11775</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>611</v>
+        <v>654</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E602" t="n">
         <v>5</v>
@@ -43697,20 +43697,20 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K602" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L602" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M602" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K603" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L603" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M603" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K604" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L604" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M604" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E605" t="n">
         <v>5</v>
@@ -43917,16 +43917,16 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K605" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L605" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M605" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43985,20 +43985,20 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J606" t="n">
         <v>180</v>
       </c>
       <c r="K606" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L606" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M606" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E607" t="n">
         <v>5</v>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K607" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L607" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M607" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E608" t="n">
         <v>5</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J608" t="n">
         <v>180</v>
       </c>
       <c r="K608" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L608" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M608" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44201,24 +44201,24 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K609" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L609" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M609" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
@@ -44227,10 +44227,10 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>333</v>
+        <v>611</v>
       </c>
       <c r="Q609" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K610" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L610" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M610" t="n">
-        <v>7242</v>
+        <v>9000</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>402</v>
+        <v>500</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E611" t="n">
         <v>5</v>
@@ -44349,32 +44349,32 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="K611" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L611" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="M611" t="n">
-        <v>15484</v>
+        <v>4000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>860</v>
+        <v>333</v>
       </c>
       <c r="Q611" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R611" t="inlineStr">
         <is>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E612" t="n">
         <v>5</v>
@@ -44421,16 +44421,16 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K612" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L612" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M612" t="n">
-        <v>12500</v>
+        <v>7242</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44439,11 +44439,11 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>694</v>
+        <v>402</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K613" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="L613" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="M613" t="n">
-        <v>15500</v>
+        <v>15484</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E614" t="n">
         <v>5</v>
@@ -44561,21 +44561,21 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K614" t="n">
         <v>12000</v>
       </c>
       <c r="L614" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M614" t="n">
         <v>12500</v>
       </c>
-      <c r="M614" t="n">
-        <v>12235</v>
-      </c>
       <c r="N614" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J615" t="n">
         <v>180</v>
       </c>
       <c r="K615" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="L615" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="M615" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>556</v>
+        <v>861</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44705,20 +44705,20 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K616" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L616" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M616" t="n">
-        <v>14000</v>
+        <v>12235</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44727,11 +44727,11 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>778</v>
+        <v>680</v>
       </c>
       <c r="Q616" t="n">
         <v>18</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -44777,20 +44777,20 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K617" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L617" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M617" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44799,11 +44799,11 @@
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44849,24 +44849,24 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K618" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L618" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M618" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
@@ -44875,10 +44875,10 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q618" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R618" t="inlineStr">
         <is>
@@ -44921,20 +44921,20 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K619" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L619" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M619" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -44997,20 +44997,20 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K620" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L620" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M620" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
@@ -45019,10 +45019,10 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="Q620" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R620" t="inlineStr">
         <is>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E621" t="n">
         <v>5</v>
@@ -45065,24 +45065,24 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="K621" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L621" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M621" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
@@ -45091,10 +45091,10 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>458</v>
+        <v>556</v>
       </c>
       <c r="Q621" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="K622" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L622" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M622" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>472</v>
+        <v>583</v>
       </c>
       <c r="Q622" t="n">
         <v>18</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45213,32 +45213,32 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>530</v>
+        <v>380</v>
       </c>
       <c r="K623" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L623" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M623" t="n">
-        <v>12528</v>
+        <v>5500</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>696</v>
+        <v>458</v>
       </c>
       <c r="Q623" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -45285,16 +45285,16 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="K624" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L624" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M624" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E625" t="n">
         <v>5</v>
@@ -45360,13 +45360,13 @@
         <v>530</v>
       </c>
       <c r="K625" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L625" t="n">
         <v>13000</v>
       </c>
-      <c r="L625" t="n">
-        <v>14000</v>
-      </c>
       <c r="M625" t="n">
-        <v>13528</v>
+        <v>12528</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>752</v>
+        <v>696</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E626" t="n">
         <v>5</v>
@@ -45429,16 +45429,16 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="K626" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L626" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M626" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -45497,20 +45497,20 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>280</v>
+        <v>530</v>
       </c>
       <c r="K627" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L627" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M627" t="n">
-        <v>11000</v>
+        <v>13528</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45519,11 +45519,11 @@
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>611</v>
+        <v>752</v>
       </c>
       <c r="Q627" t="n">
         <v>18</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -45569,20 +45569,20 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K628" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L628" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M628" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q628" t="n">
         <v>18</v>
@@ -45641,20 +45641,20 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K629" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L629" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M629" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q629" t="n">
         <v>18</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E630" t="n">
         <v>5</v>
@@ -45713,20 +45713,20 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="K630" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L630" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M630" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q630" t="n">
         <v>18</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E631" t="n">
         <v>5</v>
@@ -45785,20 +45785,20 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K631" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L631" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M631" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q631" t="n">
         <v>18</v>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K632" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L632" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M632" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q632" t="n">
         <v>18</v>
@@ -45924,7 +45924,7 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
@@ -45933,16 +45933,16 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K633" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L633" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M633" t="n">
-        <v>7360</v>
+        <v>9000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>409</v>
+        <v>500</v>
       </c>
       <c r="Q633" t="n">
         <v>18</v>
@@ -45996,29 +45996,29 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K634" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L634" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M634" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
@@ -46027,10 +46027,10 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="Q634" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R634" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E635" t="n">
         <v>5</v>
@@ -46068,25 +46068,25 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K635" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L635" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M635" t="n">
-        <v>11000</v>
+        <v>7360</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>611</v>
+        <v>409</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E636" t="n">
         <v>5</v>
@@ -46140,7 +46140,7 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
@@ -46149,20 +46149,20 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="K636" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L636" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M636" t="n">
-        <v>9243</v>
+        <v>4500</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
@@ -46171,10 +46171,10 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>514</v>
+        <v>375</v>
       </c>
       <c r="Q636" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K637" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L637" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M637" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>472</v>
+        <v>611</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46289,20 +46289,20 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="K638" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L638" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M638" t="n">
-        <v>12000</v>
+        <v>9243</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>667</v>
+        <v>514</v>
       </c>
       <c r="Q638" t="n">
         <v>18</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E639" t="n">
         <v>5</v>
@@ -46361,20 +46361,20 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K639" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L639" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M639" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46433,20 +46433,20 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J640" t="n">
         <v>180</v>
       </c>
       <c r="K640" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L640" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M640" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q640" t="n">
         <v>18</v>
@@ -46505,20 +46505,20 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K641" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L641" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M641" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q641" t="n">
         <v>18</v>
@@ -46572,25 +46572,25 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K642" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L642" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M642" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q642" t="n">
         <v>18</v>
@@ -46644,29 +46644,29 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K643" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L643" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M643" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
@@ -46678,7 +46678,7 @@
         <v>333</v>
       </c>
       <c r="Q643" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E644" t="n">
         <v>5</v>
@@ -46716,7 +46716,7 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
@@ -46725,16 +46725,16 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="K644" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L644" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M644" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46743,11 +46743,11 @@
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q644" t="n">
         <v>18</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E645" t="n">
         <v>5</v>
@@ -46788,7 +46788,7 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
@@ -46797,16 +46797,16 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>730</v>
+        <v>280</v>
       </c>
       <c r="K645" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L645" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M645" t="n">
-        <v>4760</v>
+        <v>4000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="Q645" t="n">
         <v>12</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K646" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L646" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M646" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -46937,36 +46937,36 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>160</v>
+        <v>730</v>
       </c>
       <c r="K647" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L647" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M647" t="n">
-        <v>10000</v>
+        <v>4760</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>556</v>
+        <v>397</v>
       </c>
       <c r="Q647" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R647" t="inlineStr">
         <is>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E648" t="n">
         <v>5</v>
@@ -47009,20 +47009,20 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K648" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L648" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M648" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47031,11 +47031,11 @@
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q648" t="n">
         <v>18</v>
@@ -47081,20 +47081,20 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K649" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L649" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M649" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q649" t="n">
         <v>18</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E650" t="n">
         <v>5</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K650" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="L650" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="M650" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47175,11 +47175,11 @@
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>861</v>
+        <v>444</v>
       </c>
       <c r="Q650" t="n">
         <v>18</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -47225,20 +47225,20 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="K651" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L651" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M651" t="n">
-        <v>11742</v>
+        <v>7000</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47247,11 +47247,11 @@
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>652</v>
+        <v>389</v>
       </c>
       <c r="Q651" t="n">
         <v>18</v>
@@ -47297,20 +47297,20 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J652" t="n">
         <v>160</v>
       </c>
       <c r="K652" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="L652" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="M652" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>556</v>
+        <v>861</v>
       </c>
       <c r="Q652" t="n">
         <v>18</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E653" t="n">
         <v>5</v>
@@ -47369,20 +47369,20 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="K653" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="L653" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M653" t="n">
-        <v>15000</v>
+        <v>11742</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47391,11 +47391,11 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>833</v>
+        <v>652</v>
       </c>
       <c r="Q653" t="n">
         <v>18</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E654" t="n">
         <v>5</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K654" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L654" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M654" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47463,11 +47463,11 @@
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="K655" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L655" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M655" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q655" t="n">
         <v>18</v>
@@ -47580,7 +47580,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
@@ -47589,20 +47589,20 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="K656" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L656" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M656" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
@@ -47611,10 +47611,10 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>417</v>
+        <v>722</v>
       </c>
       <c r="Q656" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R656" t="inlineStr">
         <is>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E657" t="n">
         <v>5</v>
@@ -47657,20 +47657,20 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>530</v>
+        <v>260</v>
       </c>
       <c r="K657" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L657" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M657" t="n">
-        <v>11736</v>
+        <v>10000</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>652</v>
+        <v>556</v>
       </c>
       <c r="Q657" t="n">
         <v>18</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E658" t="n">
         <v>5</v>
@@ -47724,41 +47724,41 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="K658" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L658" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M658" t="n">
-        <v>9167</v>
+        <v>5000</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>509</v>
+        <v>417</v>
       </c>
       <c r="Q658" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R658" t="inlineStr">
         <is>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E659" t="n">
         <v>5</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>330</v>
+        <v>530</v>
       </c>
       <c r="K659" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L659" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M659" t="n">
-        <v>10000</v>
+        <v>11736</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47823,11 +47823,11 @@
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>556</v>
+        <v>652</v>
       </c>
       <c r="Q659" t="n">
         <v>18</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E660" t="n">
         <v>5</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="K660" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L660" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M660" t="n">
-        <v>7500</v>
+        <v>9167</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47895,11 +47895,11 @@
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>417</v>
+        <v>509</v>
       </c>
       <c r="Q660" t="n">
         <v>18</v>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="K661" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L661" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M661" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>361</v>
+        <v>556</v>
       </c>
       <c r="Q661" t="n">
         <v>18</v>
@@ -48017,38 +48017,182 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J662" t="n">
+        <v>300</v>
+      </c>
+      <c r="K662" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L662" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M662" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N662" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O662" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P662" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q662" t="n">
+        <v>18</v>
+      </c>
+      <c r="R662" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>3</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D663" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E663" t="n">
+        <v>5</v>
+      </c>
+      <c r="F663" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J663" t="n">
+        <v>180</v>
+      </c>
+      <c r="K663" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L663" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M663" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N663" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O663" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P663" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q663" t="n">
+        <v>18</v>
+      </c>
+      <c r="R663" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>3</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D664" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E664" t="n">
+        <v>5</v>
+      </c>
+      <c r="F664" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J662" t="n">
+      <c r="J664" t="n">
         <v>320</v>
       </c>
-      <c r="K662" t="n">
+      <c r="K664" t="n">
         <v>6000</v>
       </c>
-      <c r="L662" t="n">
+      <c r="L664" t="n">
         <v>6000</v>
       </c>
-      <c r="M662" t="n">
+      <c r="M664" t="n">
         <v>6000</v>
       </c>
-      <c r="N662" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O662" t="inlineStr">
+      <c r="N664" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O664" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P662" t="n">
+      <c r="P664" t="n">
         <v>333</v>
       </c>
-      <c r="Q662" t="n">
-        <v>18</v>
-      </c>
-      <c r="R662" t="inlineStr">
+      <c r="Q664" t="n">
+        <v>18</v>
+      </c>
+      <c r="R664" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R667"/>
+  <dimension ref="A1:R670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32901,20 +32901,20 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>680</v>
+        <v>340</v>
       </c>
       <c r="K452" t="n">
-        <v>8500</v>
+        <v>20000</v>
       </c>
       <c r="L452" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="M452" t="n">
-        <v>8757</v>
+        <v>20471</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -32923,10 +32923,10 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>730</v>
+        <v>1137</v>
       </c>
       <c r="Q452" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32969,24 +32969,24 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>380</v>
+        <v>680</v>
       </c>
       <c r="K453" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="L453" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M453" t="n">
-        <v>16500</v>
+        <v>8757</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
@@ -32995,10 +32995,10 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>917</v>
+        <v>730</v>
       </c>
       <c r="Q453" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="K454" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L454" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M454" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33063,11 +33063,11 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>611</v>
+        <v>917</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K455" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L455" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M455" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33189,20 +33189,20 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K456" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L456" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M456" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -33214,7 +33214,7 @@
         <v>500</v>
       </c>
       <c r="Q456" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33257,24 +33257,24 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K457" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L457" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M457" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -33283,10 +33283,10 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q457" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>440</v>
+        <v>160</v>
       </c>
       <c r="K458" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L458" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="M458" t="n">
-        <v>14216</v>
+        <v>7000</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>790</v>
+        <v>389</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="K459" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L459" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="M459" t="n">
-        <v>11780</v>
+        <v>14216</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>654</v>
+        <v>790</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33477,20 +33477,20 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="K460" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="L460" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M460" t="n">
-        <v>6000</v>
+        <v>11780</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -33499,10 +33499,10 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>500</v>
+        <v>654</v>
       </c>
       <c r="Q460" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
@@ -33545,24 +33545,24 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="K461" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L461" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="M461" t="n">
-        <v>10240</v>
+        <v>6000</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -33571,10 +33571,10 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>569</v>
+        <v>500</v>
       </c>
       <c r="Q461" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="K462" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="L462" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M462" t="n">
-        <v>12804</v>
+        <v>10240</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33639,11 +33639,11 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P462" t="n">
-        <v>711</v>
+        <v>569</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="K463" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L463" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M463" t="n">
-        <v>11000</v>
+        <v>12804</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>611</v>
+        <v>711</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K464" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="L464" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="M464" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>861</v>
+        <v>611</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K465" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="L465" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="M465" t="n">
-        <v>11742</v>
+        <v>15500</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>652</v>
+        <v>861</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33905,20 +33905,20 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="K466" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L466" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M466" t="n">
-        <v>10000</v>
+        <v>11742</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>556</v>
+        <v>652</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K467" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L467" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M467" t="n">
-        <v>15543</v>
+        <v>10000</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>864</v>
+        <v>556</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34049,20 +34049,20 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K468" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L468" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M468" t="n">
-        <v>13500</v>
+        <v>15543</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>750</v>
+        <v>864</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="K469" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L469" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M469" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="K470" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L470" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M470" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K471" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L471" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M471" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="K472" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L472" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M472" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="K473" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L473" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M473" t="n">
-        <v>11579</v>
+        <v>7500</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34431,11 +34431,11 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>643</v>
+        <v>417</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="K474" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L474" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M474" t="n">
-        <v>9000</v>
+        <v>11579</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="K475" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L475" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M475" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K476" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L476" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M476" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K477" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L477" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M477" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34764,29 +34764,29 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K478" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L478" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M478" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -34795,10 +34795,10 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q478" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -34836,29 +34836,29 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K479" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L479" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M479" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -34867,10 +34867,10 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="Q479" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="K480" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L480" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M480" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34989,20 +34989,20 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="K481" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L481" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M481" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
@@ -35011,10 +35011,10 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="Q481" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R481" t="inlineStr">
         <is>
@@ -35057,24 +35057,24 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="K482" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L482" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M482" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -35083,10 +35083,10 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q482" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R482" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="K483" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L483" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M483" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>667</v>
+        <v>361</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="K484" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L484" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M484" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35277,20 +35277,20 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="K485" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L485" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M485" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -35302,7 +35302,7 @@
         <v>500</v>
       </c>
       <c r="Q485" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
@@ -35345,24 +35345,24 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="K486" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L486" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M486" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -35371,10 +35371,10 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q486" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35412,29 +35412,29 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K487" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L487" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M487" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -35443,10 +35443,10 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="Q487" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35493,32 +35493,32 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="K488" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="L488" t="n">
-        <v>19000</v>
+        <v>4500</v>
       </c>
       <c r="M488" t="n">
-        <v>18479</v>
+        <v>4500</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>1027</v>
+        <v>375</v>
       </c>
       <c r="Q488" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R488" t="inlineStr">
         <is>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>310</v>
+        <v>480</v>
       </c>
       <c r="K489" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="L489" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M489" t="n">
-        <v>14758</v>
+        <v>18479</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>820</v>
+        <v>1027</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="K490" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="L490" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M490" t="n">
-        <v>13000</v>
+        <v>14758</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>722</v>
+        <v>820</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -35705,20 +35705,20 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="K491" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L491" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M491" t="n">
-        <v>17517</v>
+        <v>13000</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>973</v>
+        <v>722</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="K492" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L492" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M492" t="n">
-        <v>14500</v>
+        <v>17517</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>806</v>
+        <v>973</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K493" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L493" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M493" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35871,11 +35871,11 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>667</v>
+        <v>806</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K494" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L494" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M494" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K495" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L495" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M495" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36060,16 +36060,16 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K496" t="n">
         <v>7000</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -36132,25 +36132,25 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K497" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L497" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M497" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>833</v>
+        <v>389</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K498" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L498" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M498" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K499" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L499" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M499" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="K500" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="L500" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M500" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36375,11 +36375,11 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>819</v>
+        <v>611</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K501" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="L501" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M501" t="n">
-        <v>11779</v>
+        <v>14750</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>654</v>
+        <v>819</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J502" t="n">
         <v>340</v>
       </c>
       <c r="K502" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L502" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M502" t="n">
-        <v>9735</v>
+        <v>11779</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>541</v>
+        <v>654</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E503" t="n">
         <v>5</v>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K503" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L503" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M503" t="n">
-        <v>15000</v>
+        <v>9735</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36591,11 +36591,11 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>833</v>
+        <v>541</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K504" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L504" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M504" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36713,20 +36713,20 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K505" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L505" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M505" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -36785,20 +36785,20 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K506" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L506" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M506" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="K507" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L507" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M507" t="n">
-        <v>13243</v>
+        <v>15000</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>736</v>
+        <v>833</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36929,20 +36929,20 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="K508" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L508" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="M508" t="n">
-        <v>11000</v>
+        <v>13243</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>611</v>
+        <v>736</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -37001,20 +37001,20 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K509" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L509" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M509" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K510" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L510" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M510" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37095,11 +37095,11 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K511" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L511" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M511" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="K512" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L512" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M512" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="K513" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L513" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M513" t="n">
-        <v>15419</v>
+        <v>10000</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>857</v>
+        <v>556</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="K514" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="L514" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M514" t="n">
-        <v>11750</v>
+        <v>15419</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>653</v>
+        <v>857</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37440,17 +37440,17 @@
         <v>380</v>
       </c>
       <c r="K515" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="L515" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M515" t="n">
-        <v>5500</v>
+        <v>11750</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
@@ -37459,10 +37459,10 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>458</v>
+        <v>653</v>
       </c>
       <c r="Q515" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R515" t="inlineStr">
         <is>
@@ -37505,24 +37505,24 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K516" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L516" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M516" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
@@ -37531,10 +37531,10 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="Q516" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R516" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -37577,20 +37577,20 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K517" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L517" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M517" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37649,20 +37649,20 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K518" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L518" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M518" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37725,20 +37725,20 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="K519" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="L519" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M519" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
@@ -37747,10 +37747,10 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>458</v>
+        <v>722</v>
       </c>
       <c r="Q519" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R519" t="inlineStr">
         <is>
@@ -37793,24 +37793,24 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="K520" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L520" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M520" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
@@ -37819,10 +37819,10 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>556</v>
+        <v>458</v>
       </c>
       <c r="Q520" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R520" t="inlineStr">
         <is>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="K521" t="n">
-        <v>18500</v>
+        <v>10000</v>
       </c>
       <c r="L521" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="M521" t="n">
-        <v>18780</v>
+        <v>10000</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>1043</v>
+        <v>556</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>270</v>
+        <v>410</v>
       </c>
       <c r="K522" t="n">
-        <v>14000</v>
+        <v>18500</v>
       </c>
       <c r="L522" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M522" t="n">
-        <v>15556</v>
+        <v>18780</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>864</v>
+        <v>1043</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="K523" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L523" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M523" t="n">
-        <v>12000</v>
+        <v>15556</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>667</v>
+        <v>864</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K524" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L524" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M524" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K525" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L525" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M525" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38220,25 +38220,25 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="K526" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L526" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M526" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K527" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L527" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M527" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -38364,25 +38364,25 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="K528" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L528" t="n">
-        <v>14500</v>
+        <v>5000</v>
       </c>
       <c r="M528" t="n">
-        <v>14240</v>
+        <v>5000</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38391,11 +38391,11 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>791</v>
+        <v>278</v>
       </c>
       <c r="Q528" t="n">
         <v>18</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K529" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L529" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="M529" t="n">
-        <v>11000</v>
+        <v>14240</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>611</v>
+        <v>791</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K530" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L530" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M530" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>570</v>
+        <v>180</v>
       </c>
       <c r="K531" t="n">
-        <v>18500</v>
+        <v>9000</v>
       </c>
       <c r="L531" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="M531" t="n">
-        <v>18746</v>
+        <v>9000</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>1041</v>
+        <v>500</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>280</v>
+        <v>570</v>
       </c>
       <c r="K532" t="n">
-        <v>15000</v>
+        <v>18500</v>
       </c>
       <c r="L532" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M532" t="n">
-        <v>15000</v>
+        <v>18746</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>833</v>
+        <v>1041</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K533" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L533" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M533" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38751,11 +38751,11 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>889</v>
+        <v>833</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K534" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L534" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M534" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>778</v>
+        <v>889</v>
       </c>
       <c r="Q534" t="n">
         <v>18</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K535" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L535" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M535" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -38949,16 +38949,16 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="K536" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L536" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M536" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38967,11 +38967,11 @@
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="K537" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L537" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M537" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -39089,11 +39089,11 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="K538" t="n">
         <v>16000</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>1880</v>
+        <v>190</v>
       </c>
       <c r="K539" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L539" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M539" t="n">
-        <v>11598</v>
+        <v>16000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>644</v>
+        <v>889</v>
       </c>
       <c r="Q539" t="n">
         <v>18</v>
@@ -39237,20 +39237,20 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>700</v>
+        <v>1880</v>
       </c>
       <c r="K540" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L540" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M540" t="n">
-        <v>4250</v>
+        <v>11598</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
@@ -39259,10 +39259,10 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>354</v>
+        <v>644</v>
       </c>
       <c r="Q540" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R540" t="inlineStr">
         <is>
@@ -39305,24 +39305,24 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K541" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L541" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M541" t="n">
-        <v>8925</v>
+        <v>4250</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
@@ -39331,10 +39331,10 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>496</v>
+        <v>354</v>
       </c>
       <c r="Q541" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R541" t="inlineStr">
         <is>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>790</v>
+        <v>1200</v>
       </c>
       <c r="K542" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L542" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="M542" t="n">
-        <v>6899</v>
+        <v>8925</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>383</v>
+        <v>496</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E543" t="n">
         <v>5</v>
@@ -39449,20 +39449,20 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>220</v>
+        <v>790</v>
       </c>
       <c r="K543" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L543" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M543" t="n">
-        <v>12000</v>
+        <v>6899</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39471,11 +39471,11 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>667</v>
+        <v>383</v>
       </c>
       <c r="Q543" t="n">
         <v>18</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K544" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L544" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M544" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39593,20 +39593,20 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K545" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L545" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M545" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39660,25 +39660,25 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K546" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L546" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M546" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39741,20 +39741,20 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K547" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L547" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M547" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
@@ -39763,10 +39763,10 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q547" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R547" t="inlineStr">
         <is>
@@ -39809,24 +39809,24 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K548" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L548" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M548" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
@@ -39835,10 +39835,10 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q548" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R548" t="inlineStr">
         <is>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E549" t="n">
         <v>5</v>
@@ -39876,25 +39876,25 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>390</v>
+        <v>100</v>
       </c>
       <c r="K549" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L549" t="n">
-        <v>11500</v>
+        <v>5000</v>
       </c>
       <c r="M549" t="n">
-        <v>11269</v>
+        <v>5000</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39903,11 +39903,11 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>626</v>
+        <v>278</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="K550" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L550" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="M550" t="n">
-        <v>9265</v>
+        <v>11269</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>515</v>
+        <v>626</v>
       </c>
       <c r="Q550" t="n">
         <v>18</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E551" t="n">
         <v>5</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="K551" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L551" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M551" t="n">
-        <v>11681</v>
+        <v>9265</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>649</v>
+        <v>515</v>
       </c>
       <c r="Q551" t="n">
         <v>18</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="K552" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L552" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M552" t="n">
-        <v>9000</v>
+        <v>11681</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>500</v>
+        <v>649</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E553" t="n">
         <v>5</v>
@@ -40169,33 +40169,33 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J553" t="n">
+        <v>180</v>
+      </c>
+      <c r="K553" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L553" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M553" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N553" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O553" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P553" t="n">
         <v>500</v>
-      </c>
-      <c r="K553" t="n">
-        <v>10500</v>
-      </c>
-      <c r="L553" t="n">
-        <v>11000</v>
-      </c>
-      <c r="M553" t="n">
-        <v>10780</v>
-      </c>
-      <c r="N553" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O553" t="inlineStr">
-        <is>
-          <t>Limache</t>
-        </is>
-      </c>
-      <c r="P553" t="n">
-        <v>599</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="K554" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="L554" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="M554" t="n">
-        <v>9246</v>
+        <v>10780</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>514</v>
+        <v>599</v>
       </c>
       <c r="Q554" t="n">
         <v>18</v>
@@ -40317,32 +40317,32 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>350</v>
+        <v>570</v>
       </c>
       <c r="K555" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L555" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="M555" t="n">
-        <v>4500</v>
+        <v>9246</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="Q555" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R555" t="inlineStr">
         <is>
@@ -40385,36 +40385,36 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K556" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L556" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M556" t="n">
-        <v>7250</v>
+        <v>4500</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="Q556" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R556" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E557" t="n">
         <v>5</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="K557" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L557" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M557" t="n">
-        <v>10490</v>
+        <v>7250</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>583</v>
+        <v>403</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40533,20 +40533,20 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>380</v>
+        <v>510</v>
       </c>
       <c r="K558" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L558" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M558" t="n">
-        <v>5000</v>
+        <v>10490</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O558" t="inlineStr">
@@ -40555,10 +40555,10 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>417</v>
+        <v>583</v>
       </c>
       <c r="Q558" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R558" t="inlineStr">
         <is>
@@ -40601,24 +40601,24 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="K559" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L559" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M559" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
@@ -40627,10 +40627,10 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="Q559" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R559" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E560" t="n">
         <v>5</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K560" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L560" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M560" t="n">
-        <v>11444</v>
+        <v>8000</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>636</v>
+        <v>444</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="K561" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L561" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M561" t="n">
-        <v>8750</v>
+        <v>11444</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>486</v>
+        <v>636</v>
       </c>
       <c r="Q561" t="n">
         <v>18</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E562" t="n">
         <v>5</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K562" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L562" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M562" t="n">
-        <v>11000</v>
+        <v>8750</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40839,11 +40839,11 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>611</v>
+        <v>486</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>470</v>
+        <v>230</v>
       </c>
       <c r="K563" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L563" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="M563" t="n">
-        <v>9191</v>
+        <v>11000</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>511</v>
+        <v>611</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44468</v>
+        <v>44334</v>
       </c>
       <c r="E564" t="n">
         <v>5</v>
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>260</v>
+        <v>470</v>
       </c>
       <c r="K564" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L564" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="M564" t="n">
-        <v>15538</v>
+        <v>9191</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>863</v>
+        <v>511</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E565" t="n">
         <v>5</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="K565" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="L565" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M565" t="n">
-        <v>12732</v>
+        <v>18514</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>707</v>
+        <v>1029</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E566" t="n">
         <v>5</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="K566" t="n">
         <v>14000</v>
       </c>
       <c r="L566" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M566" t="n">
-        <v>14000</v>
+        <v>14471</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>778</v>
+        <v>804</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E567" t="n">
         <v>5</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="K567" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L567" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M567" t="n">
-        <v>11000</v>
+        <v>15538</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>611</v>
+        <v>863</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E568" t="n">
         <v>5</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K568" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="L568" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M568" t="n">
-        <v>9000</v>
+        <v>12732</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E569" t="n">
         <v>5</v>
@@ -41325,16 +41325,16 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>510</v>
+        <v>230</v>
       </c>
       <c r="K569" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L569" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M569" t="n">
-        <v>12549</v>
+        <v>14000</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>697</v>
+        <v>778</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E570" t="n">
         <v>5</v>
@@ -41397,16 +41397,16 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="K570" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L570" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M570" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E571" t="n">
         <v>5</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K571" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L571" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M571" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41487,11 +41487,11 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E572" t="n">
         <v>5</v>
@@ -41541,16 +41541,16 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>280</v>
+        <v>510</v>
       </c>
       <c r="K572" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L572" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M572" t="n">
-        <v>10000</v>
+        <v>12549</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>556</v>
+        <v>697</v>
       </c>
       <c r="Q572" t="n">
         <v>18</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E573" t="n">
         <v>5</v>
@@ -41613,16 +41613,16 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="K573" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L573" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M573" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E574" t="n">
         <v>5</v>
@@ -41685,16 +41685,16 @@
         </is>
       </c>
       <c r="J574" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="K574" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L574" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M574" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41703,11 +41703,11 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E575" t="n">
         <v>5</v>
@@ -41757,16 +41757,16 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K575" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L575" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M575" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E576" t="n">
         <v>5</v>
@@ -41829,16 +41829,16 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="K576" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L576" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M576" t="n">
-        <v>9735</v>
+        <v>8000</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41847,11 +41847,11 @@
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>541</v>
+        <v>444</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E577" t="n">
         <v>5</v>
@@ -41904,13 +41904,13 @@
         <v>190</v>
       </c>
       <c r="K577" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L577" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M577" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41919,11 +41919,11 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E578" t="n">
         <v>5</v>
@@ -41973,16 +41973,16 @@
         </is>
       </c>
       <c r="J578" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K578" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L578" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M578" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41991,11 +41991,11 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E579" t="n">
         <v>5</v>
@@ -42045,16 +42045,16 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K579" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L579" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M579" t="n">
-        <v>7000</v>
+        <v>9735</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>389</v>
+        <v>541</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E580" t="n">
         <v>5</v>
@@ -42117,16 +42117,16 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K580" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L580" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M580" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>833</v>
+        <v>611</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E581" t="n">
         <v>5</v>
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K581" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L581" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="M581" t="n">
-        <v>11235</v>
+        <v>9000</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>624</v>
+        <v>500</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E582" t="n">
         <v>5</v>
@@ -42257,36 +42257,36 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K582" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L582" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M582" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="Q582" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R582" t="inlineStr">
         <is>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K583" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L583" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M583" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E584" t="n">
         <v>5</v>
@@ -42405,16 +42405,16 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="K584" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L584" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="M584" t="n">
-        <v>10514</v>
+        <v>11235</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="Q584" t="n">
         <v>18</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E585" t="n">
         <v>5</v>
@@ -42473,36 +42473,36 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K585" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L585" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M585" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="Q585" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R585" t="inlineStr">
         <is>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E586" t="n">
         <v>5</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="K586" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L586" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M586" t="n">
-        <v>12833</v>
+        <v>9000</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>713</v>
+        <v>500</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E587" t="n">
         <v>5</v>
@@ -42621,16 +42621,16 @@
         </is>
       </c>
       <c r="J587" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="K587" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L587" t="n">
         <v>11000</v>
       </c>
       <c r="M587" t="n">
-        <v>10523</v>
+        <v>10514</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E588" t="n">
         <v>5</v>
@@ -42689,36 +42689,36 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="K588" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L588" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M588" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="Q588" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R588" t="inlineStr">
         <is>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J589" t="n">
         <v>240</v>
       </c>
       <c r="K589" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="L589" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M589" t="n">
-        <v>8833</v>
+        <v>12833</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>491</v>
+        <v>713</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E590" t="n">
         <v>5</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K590" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="L590" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="M590" t="n">
-        <v>15500</v>
+        <v>10523</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42855,11 +42855,11 @@
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>861</v>
+        <v>585</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E591" t="n">
         <v>5</v>
@@ -42909,20 +42909,20 @@
         </is>
       </c>
       <c r="J591" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K591" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L591" t="n">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="M591" t="n">
-        <v>12235</v>
+        <v>5000</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
@@ -42931,10 +42931,10 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>680</v>
+        <v>417</v>
       </c>
       <c r="Q591" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R591" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E592" t="n">
         <v>5</v>
@@ -42981,16 +42981,16 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="K592" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L592" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M592" t="n">
-        <v>10000</v>
+        <v>8833</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>556</v>
+        <v>491</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E593" t="n">
         <v>5</v>
@@ -43053,16 +43053,16 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K593" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="L593" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="M593" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43071,11 +43071,11 @@
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>611</v>
+        <v>861</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E594" t="n">
         <v>5</v>
@@ -43125,16 +43125,16 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K594" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L594" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="M594" t="n">
-        <v>9000</v>
+        <v>12235</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E595" t="n">
         <v>5</v>
@@ -43193,36 +43193,36 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K595" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L595" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M595" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="Q595" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R595" t="inlineStr">
         <is>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K596" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L596" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M596" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E597" t="n">
         <v>5</v>
@@ -43337,7 +43337,7 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E598" t="n">
         <v>5</v>
@@ -43413,20 +43413,20 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K598" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L598" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M598" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
@@ -43435,10 +43435,10 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="Q598" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R598" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E599" t="n">
         <v>5</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K599" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L599" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M599" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>833</v>
+        <v>444</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E600" t="n">
         <v>5</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K600" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L600" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M600" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K601" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L601" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M601" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E602" t="n">
         <v>5</v>
@@ -43701,16 +43701,16 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="K602" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L602" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M602" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E603" t="n">
         <v>5</v>
@@ -43773,16 +43773,16 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K603" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L603" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M603" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -43841,24 +43841,24 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="K604" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L604" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M604" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
@@ -43867,10 +43867,10 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q604" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R604" t="inlineStr">
         <is>
@@ -43913,20 +43913,20 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K605" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L605" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M605" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43985,24 +43985,24 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="K606" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L606" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="M606" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
@@ -44011,10 +44011,10 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>375</v>
+        <v>611</v>
       </c>
       <c r="Q606" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R606" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E607" t="n">
         <v>5</v>
@@ -44061,32 +44061,32 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="K607" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="L607" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M607" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q607" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R607" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E608" t="n">
         <v>5</v>
@@ -44133,16 +44133,16 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K608" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L608" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M608" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E609" t="n">
         <v>5</v>
@@ -44201,36 +44201,36 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>540</v>
+        <v>330</v>
       </c>
       <c r="K609" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="L609" t="n">
-        <v>12500</v>
+        <v>4500</v>
       </c>
       <c r="M609" t="n">
-        <v>12269</v>
+        <v>4500</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>682</v>
+        <v>375</v>
       </c>
       <c r="Q609" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E610" t="n">
         <v>5</v>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K610" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L610" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M610" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E611" t="n">
         <v>5</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K611" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L611" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M611" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E612" t="n">
         <v>5</v>
@@ -44421,16 +44421,16 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="K612" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L612" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="M612" t="n">
-        <v>9235</v>
+        <v>12269</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>513</v>
+        <v>682</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -44489,24 +44489,24 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K613" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L613" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M613" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
@@ -44515,10 +44515,10 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>375</v>
+        <v>556</v>
       </c>
       <c r="Q613" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R613" t="inlineStr">
         <is>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K614" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L614" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M614" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E615" t="n">
         <v>5</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K615" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L615" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="M615" t="n">
-        <v>10000</v>
+        <v>9235</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>556</v>
+        <v>513</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44709,32 +44709,32 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K616" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L616" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M616" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>444</v>
+        <v>375</v>
       </c>
       <c r="Q616" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R616" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K617" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L617" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M617" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44799,11 +44799,11 @@
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E618" t="n">
         <v>5</v>
@@ -44853,16 +44853,16 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K618" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L618" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M618" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E619" t="n">
         <v>5</v>
@@ -44925,16 +44925,16 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="K619" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L619" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M619" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44943,11 +44943,11 @@
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>833</v>
+        <v>444</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -44997,16 +44997,16 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K620" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L620" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M620" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45015,11 +45015,11 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E621" t="n">
         <v>5</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>530</v>
+        <v>160</v>
       </c>
       <c r="K621" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="L621" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M621" t="n">
-        <v>11736</v>
+        <v>18000</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>652</v>
+        <v>1000</v>
       </c>
       <c r="Q621" t="n">
         <v>18</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="K622" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L622" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="M622" t="n">
-        <v>9167</v>
+        <v>15000</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>509</v>
+        <v>833</v>
       </c>
       <c r="Q622" t="n">
         <v>18</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="K623" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L623" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M623" t="n">
-        <v>15474</v>
+        <v>12000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>860</v>
+        <v>667</v>
       </c>
       <c r="Q623" t="n">
         <v>18</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -45281,20 +45281,20 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>350</v>
+        <v>530</v>
       </c>
       <c r="K624" t="n">
+        <v>11500</v>
+      </c>
+      <c r="L624" t="n">
         <v>12000</v>
       </c>
-      <c r="L624" t="n">
-        <v>13000</v>
-      </c>
       <c r="M624" t="n">
-        <v>12514</v>
+        <v>11736</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>695</v>
+        <v>652</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E625" t="n">
         <v>5</v>
@@ -45353,20 +45353,20 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>174</v>
+        <v>390</v>
       </c>
       <c r="K625" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L625" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="M625" t="n">
-        <v>10511</v>
+        <v>9167</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>584</v>
+        <v>509</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E626" t="n">
         <v>5</v>
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="K626" t="n">
         <v>15000</v>
       </c>
       <c r="L626" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M626" t="n">
-        <v>15000</v>
+        <v>15474</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>833</v>
+        <v>860</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -45497,20 +45497,20 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="K627" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L627" t="n">
         <v>13000</v>
       </c>
       <c r="M627" t="n">
-        <v>13000</v>
+        <v>12514</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45519,11 +45519,11 @@
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>722</v>
+        <v>695</v>
       </c>
       <c r="Q627" t="n">
         <v>18</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -45569,20 +45569,20 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K628" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L628" t="n">
         <v>11000</v>
       </c>
       <c r="M628" t="n">
-        <v>11000</v>
+        <v>10511</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="Q628" t="n">
         <v>18</v>
@@ -45641,20 +45641,20 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K629" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L629" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M629" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="Q629" t="n">
         <v>18</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E630" t="n">
         <v>5</v>
@@ -45717,16 +45717,16 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K630" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L630" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M630" t="n">
-        <v>16286</v>
+        <v>13000</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45735,11 +45735,11 @@
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>905</v>
+        <v>722</v>
       </c>
       <c r="Q630" t="n">
         <v>18</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E631" t="n">
         <v>5</v>
@@ -45789,16 +45789,16 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K631" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L631" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M631" t="n">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45807,11 +45807,11 @@
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>733</v>
+        <v>611</v>
       </c>
       <c r="Q631" t="n">
         <v>18</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -45861,16 +45861,16 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K632" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L632" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M632" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45879,11 +45879,11 @@
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q632" t="n">
         <v>18</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E633" t="n">
         <v>5</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K633" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L633" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="M633" t="n">
-        <v>11000</v>
+        <v>16286</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45951,11 +45951,11 @@
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>611</v>
+        <v>905</v>
       </c>
       <c r="Q633" t="n">
         <v>18</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E634" t="n">
         <v>5</v>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="K634" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L634" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="M634" t="n">
-        <v>9000</v>
+        <v>13200</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46023,11 +46023,11 @@
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>500</v>
+        <v>733</v>
       </c>
       <c r="Q634" t="n">
         <v>18</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E635" t="n">
         <v>5</v>
@@ -46073,36 +46073,36 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="K635" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L635" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M635" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q635" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R635" t="inlineStr">
         <is>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="K636" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L636" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M636" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q636" t="n">
         <v>18</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E637" t="n">
         <v>5</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K637" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L637" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M637" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46293,20 +46293,20 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="K638" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L638" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M638" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
@@ -46318,7 +46318,7 @@
         <v>500</v>
       </c>
       <c r="Q638" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E639" t="n">
         <v>5</v>
@@ -46365,7 +46365,7 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K639" t="n">
         <v>7000</v>
@@ -46428,25 +46428,25 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J640" t="n">
         <v>180</v>
       </c>
       <c r="K640" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L640" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M640" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q640" t="n">
         <v>18</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E641" t="n">
         <v>5</v>
@@ -46509,16 +46509,16 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>510</v>
+        <v>170</v>
       </c>
       <c r="K641" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L641" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="M641" t="n">
-        <v>14245</v>
+        <v>9000</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46527,11 +46527,11 @@
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>791</v>
+        <v>500</v>
       </c>
       <c r="Q641" t="n">
         <v>18</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E642" t="n">
         <v>5</v>
@@ -46581,16 +46581,16 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="K642" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L642" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="M642" t="n">
-        <v>11250</v>
+        <v>7000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46599,11 +46599,11 @@
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>625</v>
+        <v>389</v>
       </c>
       <c r="Q642" t="n">
         <v>18</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E643" t="n">
         <v>5</v>
@@ -46644,25 +46644,25 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J643" t="n">
         <v>180</v>
       </c>
       <c r="K643" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L643" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M643" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>833</v>
+        <v>389</v>
       </c>
       <c r="Q643" t="n">
         <v>18</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E644" t="n">
         <v>5</v>
@@ -46725,16 +46725,16 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>190</v>
+        <v>510</v>
       </c>
       <c r="K644" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L644" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="M644" t="n">
-        <v>13000</v>
+        <v>14245</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46743,11 +46743,11 @@
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>722</v>
+        <v>791</v>
       </c>
       <c r="Q644" t="n">
         <v>18</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E645" t="n">
         <v>5</v>
@@ -46797,16 +46797,16 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K645" t="n">
         <v>11000</v>
       </c>
       <c r="L645" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="M645" t="n">
-        <v>11000</v>
+        <v>11250</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="Q645" t="n">
         <v>18</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E646" t="n">
         <v>5</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K646" t="n">
         <v>15000</v>
       </c>
       <c r="L646" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M646" t="n">
-        <v>15484</v>
+        <v>15000</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46887,11 +46887,11 @@
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>860</v>
+        <v>833</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="K647" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L647" t="n">
         <v>13000</v>
       </c>
       <c r="M647" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46959,11 +46959,11 @@
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="Q647" t="n">
         <v>18</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E648" t="n">
         <v>5</v>
@@ -47009,20 +47009,20 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J648" t="n">
         <v>180</v>
       </c>
       <c r="K648" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L648" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M648" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47031,11 +47031,11 @@
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>944</v>
+        <v>611</v>
       </c>
       <c r="Q648" t="n">
         <v>18</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E649" t="n">
         <v>5</v>
@@ -47085,16 +47085,16 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="K649" t="n">
         <v>15000</v>
       </c>
       <c r="L649" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M649" t="n">
-        <v>15000</v>
+        <v>15484</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47103,11 +47103,11 @@
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>833</v>
+        <v>860</v>
       </c>
       <c r="Q649" t="n">
         <v>18</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E650" t="n">
         <v>5</v>
@@ -47157,16 +47157,16 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="K650" t="n">
         <v>12000</v>
       </c>
       <c r="L650" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M650" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47175,11 +47175,11 @@
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="Q650" t="n">
         <v>18</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -47229,16 +47229,16 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K651" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L651" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M651" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47247,11 +47247,11 @@
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="Q651" t="n">
         <v>18</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E652" t="n">
         <v>5</v>
@@ -47301,16 +47301,16 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="K652" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L652" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M652" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47319,11 +47319,11 @@
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="Q652" t="n">
         <v>18</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E653" t="n">
         <v>5</v>
@@ -47369,36 +47369,36 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="K653" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L653" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M653" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>417</v>
+        <v>667</v>
       </c>
       <c r="Q653" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R653" t="inlineStr">
         <is>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K654" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L654" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M654" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E655" t="n">
         <v>5</v>
@@ -47517,29 +47517,29 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="K655" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L655" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M655" t="n">
-        <v>15478</v>
+        <v>8000</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>860</v>
+        <v>444</v>
       </c>
       <c r="Q655" t="n">
         <v>18</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E656" t="n">
         <v>5</v>
@@ -47585,36 +47585,36 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>430</v>
+        <v>290</v>
       </c>
       <c r="K656" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L656" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M656" t="n">
-        <v>12535</v>
+        <v>5000</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>696</v>
+        <v>417</v>
       </c>
       <c r="Q656" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R656" t="inlineStr">
         <is>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E657" t="n">
         <v>5</v>
@@ -47657,33 +47657,33 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K657" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L657" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M657" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q657" t="n">
         <v>18</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E658" t="n">
         <v>5</v>
@@ -47729,33 +47729,33 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>180</v>
+        <v>460</v>
       </c>
       <c r="K658" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L658" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M658" t="n">
-        <v>10000</v>
+        <v>15478</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>556</v>
+        <v>860</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E659" t="n">
         <v>5</v>
@@ -47801,33 +47801,33 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="K659" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L659" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M659" t="n">
-        <v>8000</v>
+        <v>12535</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>444</v>
+        <v>696</v>
       </c>
       <c r="Q659" t="n">
         <v>18</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E660" t="n">
         <v>5</v>
@@ -47873,24 +47873,24 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="K660" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L660" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M660" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
@@ -47899,10 +47899,10 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q660" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R660" t="inlineStr">
         <is>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J661" t="n">
         <v>180</v>
       </c>
       <c r="K661" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L661" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M661" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q661" t="n">
         <v>18</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E662" t="n">
         <v>5</v>
@@ -48017,20 +48017,20 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K662" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L662" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M662" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="Q662" t="n">
         <v>18</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E663" t="n">
         <v>5</v>
@@ -48093,32 +48093,32 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K663" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L663" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M663" t="n">
-        <v>8721</v>
+        <v>4000</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>484</v>
+        <v>333</v>
       </c>
       <c r="Q663" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E664" t="n">
         <v>5</v>
@@ -48165,7 +48165,7 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K664" t="n">
         <v>7000</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E665" t="n">
         <v>5</v>
@@ -48233,11 +48233,11 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K665" t="n">
         <v>11000</v>
@@ -48255,7 +48255,7 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P665" t="n">
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E666" t="n">
         <v>5</v>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K666" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L666" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M666" t="n">
-        <v>8000</v>
+        <v>8721</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48327,11 +48327,11 @@
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="Q666" t="n">
         <v>18</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E667" t="n">
         <v>5</v>
@@ -48377,38 +48377,254 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J667" t="n">
         <v>160</v>
       </c>
       <c r="K667" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L667" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M667" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N667" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O667" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P667" t="n">
+        <v>389</v>
+      </c>
+      <c r="Q667" t="n">
+        <v>18</v>
+      </c>
+      <c r="R667" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>3</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D668" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E668" t="n">
+        <v>5</v>
+      </c>
+      <c r="F668" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J668" t="n">
+        <v>180</v>
+      </c>
+      <c r="K668" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L668" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M668" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N668" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O668" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P668" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q668" t="n">
+        <v>18</v>
+      </c>
+      <c r="R668" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>3</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D669" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E669" t="n">
+        <v>5</v>
+      </c>
+      <c r="F669" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J669" t="n">
+        <v>180</v>
+      </c>
+      <c r="K669" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L669" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M669" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N669" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O669" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P669" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q669" t="n">
+        <v>18</v>
+      </c>
+      <c r="R669" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>3</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D670" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E670" t="n">
+        <v>5</v>
+      </c>
+      <c r="F670" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J670" t="n">
+        <v>160</v>
+      </c>
+      <c r="K670" t="n">
         <v>6500</v>
       </c>
-      <c r="L667" t="n">
+      <c r="L670" t="n">
         <v>6500</v>
       </c>
-      <c r="M667" t="n">
+      <c r="M670" t="n">
         <v>6500</v>
       </c>
-      <c r="N667" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O667" t="inlineStr">
+      <c r="N670" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O670" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P667" t="n">
+      <c r="P670" t="n">
         <v>361</v>
       </c>
-      <c r="Q667" t="n">
-        <v>18</v>
-      </c>
-      <c r="R667" t="inlineStr">
+      <c r="Q670" t="n">
+        <v>18</v>
+      </c>
+      <c r="R670" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R690"/>
+  <dimension ref="A1:R693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="K485" t="n">
-        <v>15500</v>
+        <v>17000</v>
       </c>
       <c r="L485" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="M485" t="n">
-        <v>15500</v>
+        <v>17514</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>861</v>
+        <v>973</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -35349,20 +35349,20 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="K486" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="L486" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M486" t="n">
-        <v>11742</v>
+        <v>6000</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -35371,10 +35371,10 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>652</v>
+        <v>500</v>
       </c>
       <c r="Q486" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K487" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L487" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="M487" t="n">
-        <v>10000</v>
+        <v>14235</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>556</v>
+        <v>791</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K488" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="L488" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="M488" t="n">
-        <v>15543</v>
+        <v>15500</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="K489" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L489" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M489" t="n">
-        <v>13500</v>
+        <v>11742</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>750</v>
+        <v>652</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E490" t="n">
         <v>5</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K490" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L490" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M490" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="K491" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L491" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M491" t="n">
-        <v>11000</v>
+        <v>15543</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>611</v>
+        <v>864</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="K492" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L492" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M492" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K493" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L493" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M493" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>417</v>
+        <v>667</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="K494" t="n">
         <v>11000</v>
       </c>
       <c r="L494" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M494" t="n">
-        <v>11579</v>
+        <v>11000</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35943,11 +35943,11 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>643</v>
+        <v>611</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -35993,11 +35993,11 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="K495" t="n">
         <v>9000</v>
@@ -36015,7 +36015,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P495" t="n">
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K496" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L496" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M496" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36087,11 +36087,11 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>722</v>
+        <v>417</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K497" t="n">
         <v>11000</v>
       </c>
       <c r="L497" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M497" t="n">
-        <v>11000</v>
+        <v>11579</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -36213,7 +36213,7 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K498" t="n">
         <v>9000</v>
@@ -36276,29 +36276,29 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="K499" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="L499" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="M499" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
@@ -36307,10 +36307,10 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>375</v>
+        <v>722</v>
       </c>
       <c r="Q499" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R499" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K500" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L500" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M500" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E501" t="n">
         <v>5</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K501" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L501" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M501" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -36492,7 +36492,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K502" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L502" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M502" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="Q502" t="n">
         <v>12</v>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K503" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L503" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M503" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>361</v>
+        <v>500</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K504" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L504" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M504" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>667</v>
+        <v>417</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -36717,20 +36717,20 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="K505" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L505" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M505" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
@@ -36739,10 +36739,10 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q505" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R505" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -36785,24 +36785,24 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="K506" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L506" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M506" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
@@ -36811,10 +36811,10 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="Q506" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R506" t="inlineStr">
         <is>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K507" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L507" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M507" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,20 +36933,20 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="K508" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L508" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M508" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -36955,10 +36955,10 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q508" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R508" t="inlineStr">
         <is>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -37005,32 +37005,32 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="K509" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="L509" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="M509" t="n">
-        <v>18479</v>
+        <v>6000</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>1027</v>
+        <v>500</v>
       </c>
       <c r="Q509" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R509" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="K510" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="L510" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M510" t="n">
-        <v>14758</v>
+        <v>7000</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37095,11 +37095,11 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>820</v>
+        <v>389</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -37140,41 +37140,41 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K511" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="L511" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="M511" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>722</v>
+        <v>375</v>
       </c>
       <c r="Q511" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R511" t="inlineStr">
         <is>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>290</v>
+        <v>480</v>
       </c>
       <c r="K512" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L512" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M512" t="n">
-        <v>17517</v>
+        <v>18479</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>973</v>
+        <v>1027</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K513" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L513" t="n">
         <v>15000</v>
       </c>
       <c r="M513" t="n">
-        <v>14500</v>
+        <v>14758</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K514" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L514" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M514" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37383,11 +37383,11 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="K515" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L515" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M515" t="n">
-        <v>9000</v>
+        <v>17517</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37455,11 +37455,11 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>500</v>
+        <v>973</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E516" t="n">
         <v>5</v>
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K516" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L516" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M516" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37527,11 +37527,11 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>389</v>
+        <v>806</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37572,25 +37572,25 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K517" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L517" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M517" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -37649,20 +37649,20 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K518" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L518" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M518" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E519" t="n">
         <v>5</v>
@@ -37721,20 +37721,20 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K519" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L519" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M519" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E520" t="n">
         <v>5</v>
@@ -37788,25 +37788,25 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K520" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L520" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M520" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="K521" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="L521" t="n">
         <v>15000</v>
       </c>
       <c r="M521" t="n">
-        <v>14750</v>
+        <v>15000</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37887,11 +37887,11 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E522" t="n">
         <v>5</v>
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>340</v>
+        <v>190</v>
       </c>
       <c r="K522" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L522" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M522" t="n">
-        <v>11779</v>
+        <v>13000</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37959,11 +37959,11 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>654</v>
+        <v>722</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="K523" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L523" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M523" t="n">
-        <v>9735</v>
+        <v>11000</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>541</v>
+        <v>611</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="K524" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="L524" t="n">
         <v>15000</v>
       </c>
       <c r="M524" t="n">
-        <v>15000</v>
+        <v>14750</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38103,11 +38103,11 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="K525" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="L525" t="n">
         <v>12000</v>
       </c>
       <c r="M525" t="n">
-        <v>12000</v>
+        <v>11779</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38175,11 +38175,11 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E526" t="n">
         <v>5</v>
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K526" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L526" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M526" t="n">
-        <v>9000</v>
+        <v>9735</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38247,11 +38247,11 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -38373,16 +38373,16 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="K528" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L528" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="M528" t="n">
-        <v>13243</v>
+        <v>12000</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>736</v>
+        <v>667</v>
       </c>
       <c r="Q528" t="n">
         <v>18</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E529" t="n">
         <v>5</v>
@@ -38445,16 +38445,16 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K529" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L529" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M529" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K530" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L530" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M530" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="K531" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L531" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="M531" t="n">
-        <v>16000</v>
+        <v>13243</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38607,11 +38607,11 @@
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>889</v>
+        <v>736</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K532" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L532" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M532" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38679,11 +38679,11 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="K533" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L533" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M533" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38751,11 +38751,11 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -38805,16 +38805,16 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>430</v>
+        <v>280</v>
       </c>
       <c r="K534" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L534" t="n">
         <v>16000</v>
       </c>
       <c r="M534" t="n">
-        <v>15419</v>
+        <v>16000</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>857</v>
+        <v>889</v>
       </c>
       <c r="Q534" t="n">
         <v>18</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -38877,16 +38877,16 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K535" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L535" t="n">
         <v>12000</v>
       </c>
       <c r="M535" t="n">
-        <v>11750</v>
+        <v>12000</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -38945,24 +38945,24 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="K536" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L536" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M536" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
@@ -38971,10 +38971,10 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>458</v>
+        <v>556</v>
       </c>
       <c r="Q536" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R536" t="inlineStr">
         <is>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="K537" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L537" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M537" t="n">
-        <v>9000</v>
+        <v>15419</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>500</v>
+        <v>857</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="K538" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="L538" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M538" t="n">
-        <v>16000</v>
+        <v>11750</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>889</v>
+        <v>653</v>
       </c>
       <c r="Q538" t="n">
         <v>18</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E539" t="n">
         <v>5</v>
@@ -39165,20 +39165,20 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="K539" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="L539" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M539" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
@@ -39187,10 +39187,10 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>722</v>
+        <v>458</v>
       </c>
       <c r="Q539" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R539" t="inlineStr">
         <is>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E540" t="n">
         <v>5</v>
@@ -39233,24 +39233,24 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K540" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L540" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M540" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
@@ -39259,10 +39259,10 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="Q540" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R540" t="inlineStr">
         <is>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="K541" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L541" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M541" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="K542" t="n">
-        <v>18500</v>
+        <v>13000</v>
       </c>
       <c r="L542" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M542" t="n">
-        <v>18780</v>
+        <v>13000</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>1043</v>
+        <v>722</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E543" t="n">
         <v>5</v>
@@ -39449,24 +39449,24 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="K543" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="L543" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="M543" t="n">
-        <v>15556</v>
+        <v>5500</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
@@ -39475,10 +39475,10 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>864</v>
+        <v>458</v>
       </c>
       <c r="Q543" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R543" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44243</v>
+        <v>44350</v>
       </c>
       <c r="E544" t="n">
         <v>5</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K544" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L544" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M544" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E545" t="n">
         <v>5</v>
@@ -39593,20 +39593,20 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>150</v>
+        <v>410</v>
       </c>
       <c r="K545" t="n">
-        <v>10000</v>
+        <v>18500</v>
       </c>
       <c r="L545" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M545" t="n">
-        <v>10000</v>
+        <v>18780</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39615,11 +39615,11 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>556</v>
+        <v>1043</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E546" t="n">
         <v>5</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="K546" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L546" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M546" t="n">
-        <v>8000</v>
+        <v>15556</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39687,11 +39687,11 @@
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>444</v>
+        <v>864</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39732,25 +39732,25 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K547" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L547" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M547" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q547" t="n">
         <v>18</v>
@@ -39804,25 +39804,25 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K548" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L548" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M548" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="Q548" t="n">
         <v>18</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E549" t="n">
         <v>5</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="K549" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L549" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="M549" t="n">
-        <v>14240</v>
+        <v>8000</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39903,11 +39903,11 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>791</v>
+        <v>444</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E550" t="n">
         <v>5</v>
@@ -39948,25 +39948,25 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="K550" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L550" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M550" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39975,11 +39975,11 @@
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q550" t="n">
         <v>18</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E551" t="n">
         <v>5</v>
@@ -40020,25 +40020,25 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K551" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L551" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M551" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40047,11 +40047,11 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="Q551" t="n">
         <v>18</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E552" t="n">
         <v>5</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="K552" t="n">
-        <v>18500</v>
+        <v>14000</v>
       </c>
       <c r="L552" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="M552" t="n">
-        <v>18746</v>
+        <v>14240</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>1041</v>
+        <v>791</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E553" t="n">
         <v>5</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K553" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L553" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M553" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>833</v>
+        <v>611</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E554" t="n">
         <v>5</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J554" t="n">
         <v>180</v>
       </c>
       <c r="K554" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L554" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M554" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40263,11 +40263,11 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="Q554" t="n">
         <v>18</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E555" t="n">
         <v>5</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>160</v>
+        <v>570</v>
       </c>
       <c r="K555" t="n">
-        <v>14000</v>
+        <v>18500</v>
       </c>
       <c r="L555" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M555" t="n">
-        <v>14000</v>
+        <v>18746</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40335,11 +40335,11 @@
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>778</v>
+        <v>1041</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E556" t="n">
         <v>5</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K556" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L556" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M556" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40407,11 +40407,11 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E557" t="n">
         <v>5</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="K557" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L557" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M557" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40479,11 +40479,11 @@
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E558" t="n">
         <v>5</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K558" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L558" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M558" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40551,11 +40551,11 @@
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>889</v>
+        <v>778</v>
       </c>
       <c r="Q558" t="n">
         <v>18</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E559" t="n">
         <v>5</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="K559" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L559" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M559" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40623,11 +40623,11 @@
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="Q559" t="n">
         <v>18</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E560" t="n">
         <v>5</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>1880</v>
+        <v>290</v>
       </c>
       <c r="K560" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L560" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M560" t="n">
-        <v>11598</v>
+        <v>18000</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>644</v>
+        <v>1000</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E561" t="n">
         <v>5</v>
@@ -40745,24 +40745,24 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>700</v>
+        <v>280</v>
       </c>
       <c r="K561" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="L561" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M561" t="n">
-        <v>4250</v>
+        <v>16000</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
@@ -40771,10 +40771,10 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>354</v>
+        <v>889</v>
       </c>
       <c r="Q561" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R561" t="inlineStr">
         <is>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>1200</v>
+        <v>190</v>
       </c>
       <c r="K562" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L562" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="M562" t="n">
-        <v>8925</v>
+        <v>16000</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>496</v>
+        <v>889</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>790</v>
+        <v>1880</v>
       </c>
       <c r="K563" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L563" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M563" t="n">
-        <v>6899</v>
+        <v>11598</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>383</v>
+        <v>644</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E564" t="n">
         <v>5</v>
@@ -40961,36 +40961,36 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>220</v>
+        <v>700</v>
       </c>
       <c r="K564" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L564" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M564" t="n">
-        <v>12000</v>
+        <v>4250</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>667</v>
+        <v>354</v>
       </c>
       <c r="Q564" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R564" t="inlineStr">
         <is>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E565" t="n">
         <v>5</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="K565" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L565" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="M565" t="n">
-        <v>10000</v>
+        <v>8925</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>556</v>
+        <v>496</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E566" t="n">
         <v>5</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>200</v>
+        <v>790</v>
       </c>
       <c r="K566" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L566" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M566" t="n">
-        <v>8000</v>
+        <v>6899</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>444</v>
+        <v>383</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41172,25 +41172,25 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="K567" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L567" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M567" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41244,7 +41244,7 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
@@ -41253,20 +41253,20 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="K568" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L568" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M568" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
@@ -41275,10 +41275,10 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q568" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R568" t="inlineStr">
         <is>
@@ -41316,7 +41316,7 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
@@ -41325,16 +41325,16 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K569" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L569" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M569" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E570" t="n">
         <v>5</v>
@@ -41388,7 +41388,7 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
@@ -41397,16 +41397,16 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>390</v>
+        <v>120</v>
       </c>
       <c r="K570" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L570" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="M570" t="n">
-        <v>11269</v>
+        <v>7000</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41415,11 +41415,11 @@
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>626</v>
+        <v>389</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E571" t="n">
         <v>5</v>
@@ -41460,41 +41460,41 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>340</v>
+        <v>85</v>
       </c>
       <c r="K571" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L571" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="M571" t="n">
-        <v>9265</v>
+        <v>4000</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>515</v>
+        <v>333</v>
       </c>
       <c r="Q571" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R571" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44433</v>
+        <v>44242</v>
       </c>
       <c r="E572" t="n">
         <v>5</v>
@@ -41532,25 +41532,25 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="K572" t="n">
-        <v>11500</v>
+        <v>5000</v>
       </c>
       <c r="L572" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M572" t="n">
-        <v>11681</v>
+        <v>5000</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>649</v>
+        <v>278</v>
       </c>
       <c r="Q572" t="n">
         <v>18</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E573" t="n">
         <v>5</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>180</v>
+        <v>390</v>
       </c>
       <c r="K573" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L573" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="M573" t="n">
-        <v>9000</v>
+        <v>11269</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>500</v>
+        <v>626</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E574" t="n">
         <v>5</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K574" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="L574" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="M574" t="n">
-        <v>10780</v>
+        <v>9265</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41703,11 +41703,11 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>599</v>
+        <v>515</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E575" t="n">
         <v>5</v>
@@ -41757,16 +41757,16 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>570</v>
+        <v>360</v>
       </c>
       <c r="K575" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L575" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M575" t="n">
-        <v>9246</v>
+        <v>11681</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>514</v>
+        <v>649</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E576" t="n">
         <v>5</v>
@@ -41825,24 +41825,24 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K576" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L576" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M576" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
@@ -41851,10 +41851,10 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q576" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R576" t="inlineStr">
         <is>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J577" t="n">
         <v>500</v>
       </c>
       <c r="K577" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="L577" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M577" t="n">
-        <v>7250</v>
+        <v>10780</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>403</v>
+        <v>599</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E578" t="n">
         <v>5</v>
@@ -41973,16 +41973,16 @@
         </is>
       </c>
       <c r="J578" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="K578" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L578" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="M578" t="n">
-        <v>10490</v>
+        <v>9246</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>583</v>
+        <v>514</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E579" t="n">
         <v>5</v>
@@ -42045,16 +42045,16 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="K579" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L579" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M579" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="Q579" t="n">
         <v>12</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E580" t="n">
         <v>5</v>
@@ -42117,16 +42117,16 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="K580" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L580" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M580" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E581" t="n">
         <v>5</v>
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>225</v>
+        <v>510</v>
       </c>
       <c r="K581" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L581" t="n">
         <v>11000</v>
       </c>
-      <c r="L581" t="n">
-        <v>12000</v>
-      </c>
       <c r="M581" t="n">
-        <v>11444</v>
+        <v>10490</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>636</v>
+        <v>583</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E582" t="n">
         <v>5</v>
@@ -42257,24 +42257,24 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="K582" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L582" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M582" t="n">
-        <v>8750</v>
+        <v>5000</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
@@ -42283,10 +42283,10 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="Q582" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R582" t="inlineStr">
         <is>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E583" t="n">
         <v>5</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J583" t="n">
         <v>230</v>
       </c>
       <c r="K583" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L583" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M583" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42351,11 +42351,11 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E584" t="n">
         <v>5</v>
@@ -42405,16 +42405,16 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>470</v>
+        <v>225</v>
       </c>
       <c r="K584" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L584" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M584" t="n">
-        <v>9191</v>
+        <v>11444</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>511</v>
+        <v>636</v>
       </c>
       <c r="Q584" t="n">
         <v>18</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E585" t="n">
         <v>5</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="K585" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="L585" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="M585" t="n">
-        <v>18514</v>
+        <v>8750</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>1029</v>
+        <v>486</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E586" t="n">
         <v>5</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="K586" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L586" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M586" t="n">
-        <v>14471</v>
+        <v>11000</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>804</v>
+        <v>611</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44468</v>
+        <v>44334</v>
       </c>
       <c r="E587" t="n">
         <v>5</v>
@@ -42621,16 +42621,16 @@
         </is>
       </c>
       <c r="J587" t="n">
-        <v>260</v>
+        <v>470</v>
       </c>
       <c r="K587" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L587" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="M587" t="n">
-        <v>15538</v>
+        <v>9191</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>863</v>
+        <v>511</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E588" t="n">
         <v>5</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="K588" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="L588" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M588" t="n">
-        <v>12732</v>
+        <v>18514</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>707</v>
+        <v>1029</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E589" t="n">
         <v>5</v>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="K589" t="n">
         <v>14000</v>
       </c>
       <c r="L589" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M589" t="n">
-        <v>14000</v>
+        <v>14471</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>778</v>
+        <v>804</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E590" t="n">
         <v>5</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="K590" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L590" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M590" t="n">
-        <v>11000</v>
+        <v>15538</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>611</v>
+        <v>863</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E591" t="n">
         <v>5</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K591" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="L591" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M591" t="n">
-        <v>9000</v>
+        <v>12732</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>500</v>
+        <v>707</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E592" t="n">
         <v>5</v>
@@ -42981,16 +42981,16 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>510</v>
+        <v>230</v>
       </c>
       <c r="K592" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L592" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M592" t="n">
-        <v>12549</v>
+        <v>14000</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>697</v>
+        <v>778</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E593" t="n">
         <v>5</v>
@@ -43053,16 +43053,16 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="K593" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L593" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M593" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E594" t="n">
         <v>5</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K594" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L594" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M594" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E595" t="n">
         <v>5</v>
@@ -43197,16 +43197,16 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>280</v>
+        <v>510</v>
       </c>
       <c r="K595" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L595" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M595" t="n">
-        <v>10000</v>
+        <v>12549</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43215,11 +43215,11 @@
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>556</v>
+        <v>697</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E596" t="n">
         <v>5</v>
@@ -43269,16 +43269,16 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="K596" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L596" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M596" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E597" t="n">
         <v>5</v>
@@ -43341,16 +43341,16 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="K597" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L597" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M597" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E598" t="n">
         <v>5</v>
@@ -43413,16 +43413,16 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K598" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L598" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M598" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E599" t="n">
         <v>5</v>
@@ -43485,16 +43485,16 @@
         </is>
       </c>
       <c r="J599" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="K599" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L599" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M599" t="n">
-        <v>9735</v>
+        <v>8000</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43503,11 +43503,11 @@
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>541</v>
+        <v>444</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E600" t="n">
         <v>5</v>
@@ -43560,13 +43560,13 @@
         <v>190</v>
       </c>
       <c r="K600" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L600" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M600" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43575,11 +43575,11 @@
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -43629,16 +43629,16 @@
         </is>
       </c>
       <c r="J601" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K601" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L601" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M601" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E602" t="n">
         <v>5</v>
@@ -43701,16 +43701,16 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K602" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L602" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M602" t="n">
-        <v>7000</v>
+        <v>9735</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>389</v>
+        <v>541</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E603" t="n">
         <v>5</v>
@@ -43773,16 +43773,16 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K603" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L603" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M603" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43791,11 +43791,11 @@
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>833</v>
+        <v>611</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -43845,16 +43845,16 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K604" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L604" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="M604" t="n">
-        <v>11235</v>
+        <v>9000</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>624</v>
+        <v>500</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E605" t="n">
         <v>5</v>
@@ -43913,36 +43913,36 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K605" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L605" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M605" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="Q605" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R605" t="inlineStr">
         <is>
@@ -43985,20 +43985,20 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K606" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L606" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M606" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E607" t="n">
         <v>5</v>
@@ -44061,16 +44061,16 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="K607" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L607" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="M607" t="n">
-        <v>10514</v>
+        <v>11235</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44079,11 +44079,11 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E608" t="n">
         <v>5</v>
@@ -44129,36 +44129,36 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K608" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L608" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M608" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="Q608" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R608" t="inlineStr">
         <is>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E609" t="n">
         <v>5</v>
@@ -44201,20 +44201,20 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="K609" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L609" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M609" t="n">
-        <v>12833</v>
+        <v>9000</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44223,11 +44223,11 @@
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>713</v>
+        <v>500</v>
       </c>
       <c r="Q609" t="n">
         <v>18</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E610" t="n">
         <v>5</v>
@@ -44277,16 +44277,16 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="K610" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L610" t="n">
         <v>11000</v>
       </c>
       <c r="M610" t="n">
-        <v>10523</v>
+        <v>10514</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E611" t="n">
         <v>5</v>
@@ -44345,36 +44345,36 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="K611" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L611" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M611" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="Q611" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R611" t="inlineStr">
         <is>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J612" t="n">
         <v>240</v>
       </c>
       <c r="K612" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="L612" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M612" t="n">
-        <v>8833</v>
+        <v>12833</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>491</v>
+        <v>713</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K613" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="L613" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="M613" t="n">
-        <v>15500</v>
+        <v>10523</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>861</v>
+        <v>585</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E614" t="n">
         <v>5</v>
@@ -44565,20 +44565,20 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K614" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L614" t="n">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="M614" t="n">
-        <v>12235</v>
+        <v>5000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
@@ -44587,10 +44587,10 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>680</v>
+        <v>417</v>
       </c>
       <c r="Q614" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R614" t="inlineStr">
         <is>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E615" t="n">
         <v>5</v>
@@ -44637,16 +44637,16 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="K615" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L615" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M615" t="n">
-        <v>10000</v>
+        <v>8833</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>556</v>
+        <v>491</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44709,16 +44709,16 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K616" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="L616" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="M616" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44727,11 +44727,11 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>611</v>
+        <v>861</v>
       </c>
       <c r="Q616" t="n">
         <v>18</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K617" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L617" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="M617" t="n">
-        <v>9000</v>
+        <v>12235</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44799,11 +44799,11 @@
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E618" t="n">
         <v>5</v>
@@ -44849,36 +44849,36 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K618" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L618" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M618" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="Q618" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R618" t="inlineStr">
         <is>
@@ -44921,20 +44921,20 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K619" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L619" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M619" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -44993,7 +44993,7 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J620" t="n">
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E621" t="n">
         <v>5</v>
@@ -45069,20 +45069,20 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K621" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L621" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M621" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
@@ -45091,10 +45091,10 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="Q621" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K622" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L622" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M622" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>833</v>
+        <v>444</v>
       </c>
       <c r="Q622" t="n">
         <v>18</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K623" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L623" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M623" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q623" t="n">
         <v>18</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -45281,20 +45281,20 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K624" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L624" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M624" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E625" t="n">
         <v>5</v>
@@ -45357,16 +45357,16 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="K625" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L625" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M625" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E626" t="n">
         <v>5</v>
@@ -45429,16 +45429,16 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K626" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L626" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M626" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -45497,24 +45497,24 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="K627" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L627" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M627" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
@@ -45523,10 +45523,10 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q627" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
@@ -45569,20 +45569,20 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K628" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L628" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M628" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="Q628" t="n">
         <v>18</v>
@@ -45641,24 +45641,24 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="K629" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L629" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="M629" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
@@ -45667,10 +45667,10 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>375</v>
+        <v>611</v>
       </c>
       <c r="Q629" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R629" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E630" t="n">
         <v>5</v>
@@ -45717,32 +45717,32 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="K630" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="L630" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M630" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q630" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E631" t="n">
         <v>5</v>
@@ -45789,16 +45789,16 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K631" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L631" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M631" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45807,11 +45807,11 @@
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="Q631" t="n">
         <v>18</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -45857,36 +45857,36 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>540</v>
+        <v>330</v>
       </c>
       <c r="K632" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="L632" t="n">
-        <v>12500</v>
+        <v>4500</v>
       </c>
       <c r="M632" t="n">
-        <v>12269</v>
+        <v>4500</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>682</v>
+        <v>375</v>
       </c>
       <c r="Q632" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R632" t="inlineStr">
         <is>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E633" t="n">
         <v>5</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K633" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L633" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M633" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="Q633" t="n">
         <v>18</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E634" t="n">
         <v>5</v>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K634" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L634" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M634" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="Q634" t="n">
         <v>18</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E635" t="n">
         <v>5</v>
@@ -46077,16 +46077,16 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="K635" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L635" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="M635" t="n">
-        <v>9235</v>
+        <v>12269</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>513</v>
+        <v>682</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E636" t="n">
         <v>5</v>
@@ -46145,24 +46145,24 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K636" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L636" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M636" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
@@ -46171,10 +46171,10 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>375</v>
+        <v>556</v>
       </c>
       <c r="Q636" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K637" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L637" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M637" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46289,20 +46289,20 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K638" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L638" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="M638" t="n">
-        <v>10000</v>
+        <v>9235</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46311,11 +46311,11 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>556</v>
+        <v>513</v>
       </c>
       <c r="Q638" t="n">
         <v>18</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E639" t="n">
         <v>5</v>
@@ -46365,32 +46365,32 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K639" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L639" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M639" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>444</v>
+        <v>375</v>
       </c>
       <c r="Q639" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R639" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E640" t="n">
         <v>5</v>
@@ -46437,16 +46437,16 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K640" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L640" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M640" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46455,11 +46455,11 @@
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q640" t="n">
         <v>18</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E641" t="n">
         <v>5</v>
@@ -46509,16 +46509,16 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K641" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L641" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M641" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46527,11 +46527,11 @@
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="Q641" t="n">
         <v>18</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E642" t="n">
         <v>5</v>
@@ -46581,16 +46581,16 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="K642" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L642" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M642" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46599,11 +46599,11 @@
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>833</v>
+        <v>444</v>
       </c>
       <c r="Q642" t="n">
         <v>18</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E643" t="n">
         <v>5</v>
@@ -46653,16 +46653,16 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K643" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L643" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M643" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46671,11 +46671,11 @@
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="Q643" t="n">
         <v>18</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E644" t="n">
         <v>5</v>
@@ -46721,20 +46721,20 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>530</v>
+        <v>160</v>
       </c>
       <c r="K644" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="L644" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M644" t="n">
-        <v>11736</v>
+        <v>18000</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>652</v>
+        <v>1000</v>
       </c>
       <c r="Q644" t="n">
         <v>18</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E645" t="n">
         <v>5</v>
@@ -46793,20 +46793,20 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="K645" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L645" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="M645" t="n">
-        <v>9167</v>
+        <v>15000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>509</v>
+        <v>833</v>
       </c>
       <c r="Q645" t="n">
         <v>18</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E646" t="n">
         <v>5</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="K646" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L646" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M646" t="n">
-        <v>15474</v>
+        <v>12000</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>860</v>
+        <v>667</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>350</v>
+        <v>530</v>
       </c>
       <c r="K647" t="n">
+        <v>11500</v>
+      </c>
+      <c r="L647" t="n">
         <v>12000</v>
       </c>
-      <c r="L647" t="n">
-        <v>13000</v>
-      </c>
       <c r="M647" t="n">
-        <v>12514</v>
+        <v>11736</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>695</v>
+        <v>652</v>
       </c>
       <c r="Q647" t="n">
         <v>18</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E648" t="n">
         <v>5</v>
@@ -47009,20 +47009,20 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>174</v>
+        <v>390</v>
       </c>
       <c r="K648" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L648" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="M648" t="n">
-        <v>10511</v>
+        <v>9167</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>584</v>
+        <v>509</v>
       </c>
       <c r="Q648" t="n">
         <v>18</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E649" t="n">
         <v>5</v>
@@ -47081,20 +47081,20 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="K649" t="n">
         <v>15000</v>
       </c>
       <c r="L649" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M649" t="n">
-        <v>15000</v>
+        <v>15474</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47103,11 +47103,11 @@
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>833</v>
+        <v>860</v>
       </c>
       <c r="Q649" t="n">
         <v>18</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E650" t="n">
         <v>5</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="K650" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L650" t="n">
         <v>13000</v>
       </c>
       <c r="M650" t="n">
-        <v>13000</v>
+        <v>12514</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47175,11 +47175,11 @@
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>722</v>
+        <v>695</v>
       </c>
       <c r="Q650" t="n">
         <v>18</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -47225,20 +47225,20 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K651" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L651" t="n">
         <v>11000</v>
       </c>
       <c r="M651" t="n">
-        <v>11000</v>
+        <v>10511</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47247,11 +47247,11 @@
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="Q651" t="n">
         <v>18</v>
@@ -47297,20 +47297,20 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K652" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L652" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M652" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="Q652" t="n">
         <v>18</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E653" t="n">
         <v>5</v>
@@ -47373,16 +47373,16 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K653" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L653" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M653" t="n">
-        <v>16286</v>
+        <v>13000</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47391,11 +47391,11 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>905</v>
+        <v>722</v>
       </c>
       <c r="Q653" t="n">
         <v>18</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E654" t="n">
         <v>5</v>
@@ -47445,16 +47445,16 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K654" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L654" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M654" t="n">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47463,11 +47463,11 @@
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>733</v>
+        <v>611</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E655" t="n">
         <v>5</v>
@@ -47517,16 +47517,16 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K655" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L655" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M655" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47535,11 +47535,11 @@
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q655" t="n">
         <v>18</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E656" t="n">
         <v>5</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K656" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L656" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="M656" t="n">
-        <v>11000</v>
+        <v>16286</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47607,11 +47607,11 @@
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>611</v>
+        <v>905</v>
       </c>
       <c r="Q656" t="n">
         <v>18</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E657" t="n">
         <v>5</v>
@@ -47657,20 +47657,20 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="K657" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L657" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="M657" t="n">
-        <v>9000</v>
+        <v>13200</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>500</v>
+        <v>733</v>
       </c>
       <c r="Q657" t="n">
         <v>18</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E658" t="n">
         <v>5</v>
@@ -47729,36 +47729,36 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="K658" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L658" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M658" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q658" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R658" t="inlineStr">
         <is>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="K659" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L659" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M659" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q659" t="n">
         <v>18</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E660" t="n">
         <v>5</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K660" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L660" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M660" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q660" t="n">
         <v>18</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E661" t="n">
         <v>5</v>
@@ -47949,20 +47949,20 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="K661" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L661" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M661" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
@@ -47974,7 +47974,7 @@
         <v>500</v>
       </c>
       <c r="Q661" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R661" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E662" t="n">
         <v>5</v>
@@ -48021,7 +48021,7 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K662" t="n">
         <v>7000</v>
@@ -48084,25 +48084,25 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J663" t="n">
         <v>180</v>
       </c>
       <c r="K663" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L663" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M663" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q663" t="n">
         <v>18</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E664" t="n">
         <v>5</v>
@@ -48165,16 +48165,16 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>510</v>
+        <v>170</v>
       </c>
       <c r="K664" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L664" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="M664" t="n">
-        <v>14245</v>
+        <v>9000</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>791</v>
+        <v>500</v>
       </c>
       <c r="Q664" t="n">
         <v>18</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E665" t="n">
         <v>5</v>
@@ -48237,16 +48237,16 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="K665" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L665" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="M665" t="n">
-        <v>11250</v>
+        <v>7000</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>625</v>
+        <v>389</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E666" t="n">
         <v>5</v>
@@ -48300,25 +48300,25 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
         <v>180</v>
       </c>
       <c r="K666" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L666" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M666" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>833</v>
+        <v>389</v>
       </c>
       <c r="Q666" t="n">
         <v>18</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E667" t="n">
         <v>5</v>
@@ -48381,16 +48381,16 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>190</v>
+        <v>510</v>
       </c>
       <c r="K667" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L667" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="M667" t="n">
-        <v>13000</v>
+        <v>14245</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48399,11 +48399,11 @@
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>722</v>
+        <v>791</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E668" t="n">
         <v>5</v>
@@ -48453,16 +48453,16 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K668" t="n">
         <v>11000</v>
       </c>
       <c r="L668" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="M668" t="n">
-        <v>11000</v>
+        <v>11250</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="Q668" t="n">
         <v>18</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E669" t="n">
         <v>5</v>
@@ -48521,20 +48521,20 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K669" t="n">
         <v>15000</v>
       </c>
       <c r="L669" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M669" t="n">
-        <v>15484</v>
+        <v>15000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48543,11 +48543,11 @@
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>860</v>
+        <v>833</v>
       </c>
       <c r="Q669" t="n">
         <v>18</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E670" t="n">
         <v>5</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="K670" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L670" t="n">
         <v>13000</v>
       </c>
       <c r="M670" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E671" t="n">
         <v>5</v>
@@ -48665,20 +48665,20 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J671" t="n">
         <v>180</v>
       </c>
       <c r="K671" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L671" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M671" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48687,11 +48687,11 @@
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>944</v>
+        <v>611</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E672" t="n">
         <v>5</v>
@@ -48741,16 +48741,16 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="K672" t="n">
         <v>15000</v>
       </c>
       <c r="L672" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M672" t="n">
-        <v>15000</v>
+        <v>15484</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48759,11 +48759,11 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>833</v>
+        <v>860</v>
       </c>
       <c r="Q672" t="n">
         <v>18</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E673" t="n">
         <v>5</v>
@@ -48813,16 +48813,16 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="K673" t="n">
         <v>12000</v>
       </c>
       <c r="L673" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M673" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48831,11 +48831,11 @@
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="Q673" t="n">
         <v>18</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E674" t="n">
         <v>5</v>
@@ -48885,16 +48885,16 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K674" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L674" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M674" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48903,11 +48903,11 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="Q674" t="n">
         <v>18</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E675" t="n">
         <v>5</v>
@@ -48957,16 +48957,16 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="K675" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L675" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M675" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48975,11 +48975,11 @@
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="Q675" t="n">
         <v>18</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E676" t="n">
         <v>5</v>
@@ -49025,36 +49025,36 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="K676" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L676" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M676" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>417</v>
+        <v>667</v>
       </c>
       <c r="Q676" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
@@ -49097,20 +49097,20 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K677" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L677" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M677" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q677" t="n">
         <v>18</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E678" t="n">
         <v>5</v>
@@ -49173,29 +49173,29 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="K678" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L678" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M678" t="n">
-        <v>15478</v>
+        <v>8000</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>860</v>
+        <v>444</v>
       </c>
       <c r="Q678" t="n">
         <v>18</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E679" t="n">
         <v>5</v>
@@ -49241,36 +49241,36 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>430</v>
+        <v>290</v>
       </c>
       <c r="K679" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L679" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M679" t="n">
-        <v>12535</v>
+        <v>5000</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>696</v>
+        <v>417</v>
       </c>
       <c r="Q679" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R679" t="inlineStr">
         <is>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E680" t="n">
         <v>5</v>
@@ -49313,33 +49313,33 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K680" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L680" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M680" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E681" t="n">
         <v>5</v>
@@ -49385,33 +49385,33 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>180</v>
+        <v>460</v>
       </c>
       <c r="K681" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L681" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M681" t="n">
-        <v>10000</v>
+        <v>15478</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>556</v>
+        <v>860</v>
       </c>
       <c r="Q681" t="n">
         <v>18</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E682" t="n">
         <v>5</v>
@@ -49457,33 +49457,33 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="K682" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L682" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M682" t="n">
-        <v>8000</v>
+        <v>12535</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>444</v>
+        <v>696</v>
       </c>
       <c r="Q682" t="n">
         <v>18</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E683" t="n">
         <v>5</v>
@@ -49529,24 +49529,24 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="K683" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L683" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M683" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
@@ -49555,10 +49555,10 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q683" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R683" t="inlineStr">
         <is>
@@ -49601,20 +49601,20 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J684" t="n">
         <v>180</v>
       </c>
       <c r="K684" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L684" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M684" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q684" t="n">
         <v>18</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E685" t="n">
         <v>5</v>
@@ -49673,20 +49673,20 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K685" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L685" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M685" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="Q685" t="n">
         <v>18</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E686" t="n">
         <v>5</v>
@@ -49749,32 +49749,32 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K686" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L686" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M686" t="n">
-        <v>8721</v>
+        <v>4000</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>484</v>
+        <v>333</v>
       </c>
       <c r="Q686" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R686" t="inlineStr">
         <is>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E687" t="n">
         <v>5</v>
@@ -49821,7 +49821,7 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K687" t="n">
         <v>7000</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E688" t="n">
         <v>5</v>
@@ -49889,11 +49889,11 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K688" t="n">
         <v>11000</v>
@@ -49911,7 +49911,7 @@
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P688" t="n">
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E689" t="n">
         <v>5</v>
@@ -49961,20 +49961,20 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K689" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L689" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M689" t="n">
-        <v>8000</v>
+        <v>8721</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="Q689" t="n">
         <v>18</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E690" t="n">
         <v>5</v>
@@ -50033,38 +50033,254 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J690" t="n">
         <v>160</v>
       </c>
       <c r="K690" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L690" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M690" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N690" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O690" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P690" t="n">
+        <v>389</v>
+      </c>
+      <c r="Q690" t="n">
+        <v>18</v>
+      </c>
+      <c r="R690" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>3</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D691" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E691" t="n">
+        <v>5</v>
+      </c>
+      <c r="F691" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J691" t="n">
+        <v>180</v>
+      </c>
+      <c r="K691" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L691" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M691" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N691" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O691" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P691" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q691" t="n">
+        <v>18</v>
+      </c>
+      <c r="R691" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>3</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D692" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E692" t="n">
+        <v>5</v>
+      </c>
+      <c r="F692" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J692" t="n">
+        <v>180</v>
+      </c>
+      <c r="K692" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L692" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M692" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N692" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O692" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P692" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q692" t="n">
+        <v>18</v>
+      </c>
+      <c r="R692" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>3</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D693" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E693" t="n">
+        <v>5</v>
+      </c>
+      <c r="F693" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J693" t="n">
+        <v>160</v>
+      </c>
+      <c r="K693" t="n">
         <v>6500</v>
       </c>
-      <c r="L690" t="n">
+      <c r="L693" t="n">
         <v>6500</v>
       </c>
-      <c r="M690" t="n">
+      <c r="M693" t="n">
         <v>6500</v>
       </c>
-      <c r="N690" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O690" t="inlineStr">
+      <c r="N693" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O693" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P690" t="n">
+      <c r="P693" t="n">
         <v>361</v>
       </c>
-      <c r="Q690" t="n">
-        <v>18</v>
-      </c>
-      <c r="R690" t="inlineStr">
+      <c r="Q693" t="n">
+        <v>18</v>
+      </c>
+      <c r="R693" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R696"/>
+  <dimension ref="A1:R698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -44493,16 +44493,16 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>370</v>
+        <v>230</v>
       </c>
       <c r="K613" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L613" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="M613" t="n">
-        <v>10514</v>
+        <v>19000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>584</v>
+        <v>1056</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E614" t="n">
         <v>5</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>180</v>
+        <v>510</v>
       </c>
       <c r="K614" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L614" t="n">
-        <v>8000</v>
+        <v>17500</v>
       </c>
       <c r="M614" t="n">
-        <v>8000</v>
+        <v>17245</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>444</v>
+        <v>958</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E615" t="n">
         <v>5</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>240</v>
+        <v>370</v>
       </c>
       <c r="K615" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="L615" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M615" t="n">
-        <v>12833</v>
+        <v>10514</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>713</v>
+        <v>584</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44705,20 +44705,20 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K616" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L616" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M616" t="n">
-        <v>10523</v>
+        <v>8000</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44727,11 +44727,11 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>585</v>
+        <v>444</v>
       </c>
       <c r="Q616" t="n">
         <v>18</v>
@@ -44777,36 +44777,36 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="K617" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="L617" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M617" t="n">
-        <v>5000</v>
+        <v>12833</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>417</v>
+        <v>713</v>
       </c>
       <c r="Q617" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
@@ -44849,20 +44849,20 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K618" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L618" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M618" t="n">
-        <v>8833</v>
+        <v>10523</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>491</v>
+        <v>585</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E619" t="n">
         <v>5</v>
@@ -44921,24 +44921,24 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K619" t="n">
-        <v>15500</v>
+        <v>5000</v>
       </c>
       <c r="L619" t="n">
-        <v>15500</v>
+        <v>5000</v>
       </c>
       <c r="M619" t="n">
-        <v>15500</v>
+        <v>5000</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
@@ -44947,10 +44947,10 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>861</v>
+        <v>417</v>
       </c>
       <c r="Q619" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R619" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -44993,20 +44993,20 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K620" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L620" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="M620" t="n">
-        <v>12235</v>
+        <v>8833</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45015,11 +45015,11 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>680</v>
+        <v>491</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J621" t="n">
         <v>180</v>
       </c>
       <c r="K621" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="L621" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="M621" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>556</v>
+        <v>861</v>
       </c>
       <c r="Q621" t="n">
         <v>18</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="K622" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L622" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="M622" t="n">
-        <v>11000</v>
+        <v>12235</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>611</v>
+        <v>680</v>
       </c>
       <c r="Q622" t="n">
         <v>18</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J623" t="n">
         <v>180</v>
       </c>
       <c r="K623" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L623" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M623" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q623" t="n">
         <v>18</v>
@@ -45281,24 +45281,24 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="K624" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L624" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M624" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
@@ -45307,10 +45307,10 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>417</v>
+        <v>611</v>
       </c>
       <c r="Q624" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -45353,20 +45353,20 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K625" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L625" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M625" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E626" t="n">
         <v>5</v>
@@ -45425,24 +45425,24 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K626" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L626" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M626" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
@@ -45451,10 +45451,10 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="Q626" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -45497,20 +45497,20 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J627" t="n">
         <v>160</v>
       </c>
       <c r="K627" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L627" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M627" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q627" t="n">
         <v>18</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -45576,13 +45576,13 @@
         <v>180</v>
       </c>
       <c r="K628" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L628" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M628" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q628" t="n">
         <v>18</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E629" t="n">
         <v>5</v>
@@ -45645,16 +45645,16 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K629" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L629" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M629" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="Q629" t="n">
         <v>18</v>
@@ -45713,20 +45713,20 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K630" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L630" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M630" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q630" t="n">
         <v>18</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E631" t="n">
         <v>5</v>
@@ -45785,20 +45785,20 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K631" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L631" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M631" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="Q631" t="n">
         <v>18</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K632" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L632" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M632" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q632" t="n">
         <v>18</v>
@@ -45929,24 +45929,24 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="K633" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L633" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M633" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
@@ -45955,10 +45955,10 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="Q633" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R633" t="inlineStr">
         <is>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K634" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L634" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M634" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q634" t="n">
         <v>18</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="K635" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L635" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M635" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q635" t="n">
         <v>12</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E636" t="n">
         <v>5</v>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K636" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L636" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M636" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46167,11 +46167,11 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q636" t="n">
         <v>18</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E637" t="n">
         <v>5</v>
@@ -46221,32 +46221,32 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="K637" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L637" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="M637" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>778</v>
+        <v>375</v>
       </c>
       <c r="Q637" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R637" t="inlineStr">
         <is>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46293,16 +46293,16 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>540</v>
+        <v>230</v>
       </c>
       <c r="K638" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L638" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="M638" t="n">
-        <v>12269</v>
+        <v>18000</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>682</v>
+        <v>1000</v>
       </c>
       <c r="Q638" t="n">
         <v>18</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E639" t="n">
         <v>5</v>
@@ -46365,16 +46365,16 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K639" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L639" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M639" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E640" t="n">
         <v>5</v>
@@ -46433,20 +46433,20 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="K640" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L640" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="M640" t="n">
-        <v>11000</v>
+        <v>12269</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="Q640" t="n">
         <v>18</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E641" t="n">
         <v>5</v>
@@ -46505,20 +46505,20 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="K641" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L641" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="M641" t="n">
-        <v>9235</v>
+        <v>10000</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>513</v>
+        <v>556</v>
       </c>
       <c r="Q641" t="n">
         <v>18</v>
@@ -46577,24 +46577,24 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K642" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L642" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="M642" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -46603,10 +46603,10 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>375</v>
+        <v>611</v>
       </c>
       <c r="Q642" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46649,20 +46649,20 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K643" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L643" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M643" t="n">
-        <v>8000</v>
+        <v>9235</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>444</v>
+        <v>513</v>
       </c>
       <c r="Q643" t="n">
         <v>18</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E644" t="n">
         <v>5</v>
@@ -46721,36 +46721,36 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J644" t="n">
         <v>250</v>
       </c>
       <c r="K644" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L644" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M644" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>556</v>
+        <v>375</v>
       </c>
       <c r="Q644" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E645" t="n">
         <v>5</v>
@@ -46793,11 +46793,11 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K645" t="n">
         <v>8000</v>
@@ -46815,7 +46815,7 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P645" t="n">
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J646" t="n">
         <v>250</v>
       </c>
       <c r="K646" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L646" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M646" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="K647" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L647" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M647" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46959,11 +46959,11 @@
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q647" t="n">
         <v>18</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E648" t="n">
         <v>5</v>
@@ -47009,20 +47009,20 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K648" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L648" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M648" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47031,11 +47031,11 @@
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>833</v>
+        <v>389</v>
       </c>
       <c r="Q648" t="n">
         <v>18</v>
@@ -47081,20 +47081,20 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J649" t="n">
         <v>160</v>
       </c>
       <c r="K649" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L649" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M649" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q649" t="n">
         <v>18</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E650" t="n">
         <v>5</v>
@@ -47157,16 +47157,16 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>530</v>
+        <v>180</v>
       </c>
       <c r="K650" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="L650" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M650" t="n">
-        <v>11736</v>
+        <v>15000</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>652</v>
+        <v>833</v>
       </c>
       <c r="Q650" t="n">
         <v>18</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -47229,16 +47229,16 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>390</v>
+        <v>160</v>
       </c>
       <c r="K651" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L651" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M651" t="n">
-        <v>9167</v>
+        <v>12000</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>509</v>
+        <v>667</v>
       </c>
       <c r="Q651" t="n">
         <v>18</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E652" t="n">
         <v>5</v>
@@ -47301,16 +47301,16 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="K652" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="L652" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M652" t="n">
-        <v>15474</v>
+        <v>11736</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>860</v>
+        <v>652</v>
       </c>
       <c r="Q652" t="n">
         <v>18</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E653" t="n">
         <v>5</v>
@@ -47373,16 +47373,16 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="K653" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L653" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="M653" t="n">
-        <v>12514</v>
+        <v>9167</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>695</v>
+        <v>509</v>
       </c>
       <c r="Q653" t="n">
         <v>18</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>174</v>
+        <v>380</v>
       </c>
       <c r="K654" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L654" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M654" t="n">
-        <v>10511</v>
+        <v>15474</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>584</v>
+        <v>860</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E655" t="n">
         <v>5</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="K655" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L655" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M655" t="n">
-        <v>15000</v>
+        <v>12514</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47535,11 +47535,11 @@
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>833</v>
+        <v>695</v>
       </c>
       <c r="Q655" t="n">
         <v>18</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E656" t="n">
         <v>5</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K656" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L656" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M656" t="n">
-        <v>13000</v>
+        <v>10511</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47607,11 +47607,11 @@
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>722</v>
+        <v>584</v>
       </c>
       <c r="Q656" t="n">
         <v>18</v>
@@ -47657,20 +47657,20 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K657" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L657" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M657" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q657" t="n">
         <v>18</v>
@@ -47729,20 +47729,20 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K658" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L658" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M658" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E659" t="n">
         <v>5</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K659" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L659" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="M659" t="n">
-        <v>16286</v>
+        <v>11000</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47823,11 +47823,11 @@
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>905</v>
+        <v>611</v>
       </c>
       <c r="Q659" t="n">
         <v>18</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E660" t="n">
         <v>5</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K660" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L660" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M660" t="n">
-        <v>13200</v>
+        <v>9000</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47895,11 +47895,11 @@
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>733</v>
+        <v>500</v>
       </c>
       <c r="Q660" t="n">
         <v>18</v>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="K661" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L661" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="M661" t="n">
-        <v>11000</v>
+        <v>16286</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>611</v>
+        <v>905</v>
       </c>
       <c r="Q661" t="n">
         <v>18</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E662" t="n">
         <v>5</v>
@@ -48017,20 +48017,20 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K662" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L662" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="M662" t="n">
-        <v>11000</v>
+        <v>13200</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>611</v>
+        <v>733</v>
       </c>
       <c r="Q662" t="n">
         <v>18</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E663" t="n">
         <v>5</v>
@@ -48089,20 +48089,20 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="K663" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L663" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M663" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q663" t="n">
         <v>18</v>
@@ -48161,24 +48161,24 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="K664" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L664" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M664" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
@@ -48187,10 +48187,10 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q664" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R664" t="inlineStr">
         <is>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="K665" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L665" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M665" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E666" t="n">
         <v>5</v>
@@ -48305,24 +48305,24 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K666" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L666" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M666" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
@@ -48331,10 +48331,10 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q666" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R666" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E667" t="n">
         <v>5</v>
@@ -48377,20 +48377,20 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="K667" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L667" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M667" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J668" t="n">
         <v>180</v>
       </c>
       <c r="K668" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L668" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M668" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q668" t="n">
         <v>18</v>
@@ -48516,7 +48516,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
@@ -48525,16 +48525,16 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K669" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L669" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M669" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q669" t="n">
         <v>18</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E670" t="n">
         <v>5</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>510</v>
+        <v>180</v>
       </c>
       <c r="K670" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L670" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="M670" t="n">
-        <v>14245</v>
+        <v>7000</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>791</v>
+        <v>389</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E671" t="n">
         <v>5</v>
@@ -48660,25 +48660,25 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="K671" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L671" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="M671" t="n">
-        <v>11250</v>
+        <v>7000</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48687,11 +48687,11 @@
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>625</v>
+        <v>389</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E672" t="n">
         <v>5</v>
@@ -48737,20 +48737,20 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>180</v>
+        <v>510</v>
       </c>
       <c r="K672" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L672" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M672" t="n">
-        <v>15000</v>
+        <v>14245</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48759,11 +48759,11 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>833</v>
+        <v>791</v>
       </c>
       <c r="Q672" t="n">
         <v>18</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E673" t="n">
         <v>5</v>
@@ -48809,20 +48809,20 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="K673" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L673" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="M673" t="n">
-        <v>13000</v>
+        <v>11250</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48831,11 +48831,11 @@
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>722</v>
+        <v>625</v>
       </c>
       <c r="Q673" t="n">
         <v>18</v>
@@ -48881,20 +48881,20 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J674" t="n">
         <v>180</v>
       </c>
       <c r="K674" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L674" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M674" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q674" t="n">
         <v>18</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E675" t="n">
         <v>5</v>
@@ -48957,16 +48957,16 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="K675" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L675" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M675" t="n">
-        <v>15484</v>
+        <v>13000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48975,11 +48975,11 @@
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>860</v>
+        <v>722</v>
       </c>
       <c r="Q675" t="n">
         <v>18</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E676" t="n">
         <v>5</v>
@@ -49029,16 +49029,16 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="K676" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L676" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M676" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>694</v>
+        <v>611</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E677" t="n">
         <v>5</v>
@@ -49097,20 +49097,20 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K677" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L677" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M677" t="n">
-        <v>17000</v>
+        <v>15484</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>944</v>
+        <v>860</v>
       </c>
       <c r="Q677" t="n">
         <v>18</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E678" t="n">
         <v>5</v>
@@ -49169,20 +49169,20 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="K678" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L678" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M678" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49191,11 +49191,11 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>833</v>
+        <v>694</v>
       </c>
       <c r="Q678" t="n">
         <v>18</v>
@@ -49241,20 +49241,20 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K679" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L679" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M679" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E680" t="n">
         <v>5</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K680" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L680" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M680" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E681" t="n">
         <v>5</v>
@@ -49385,20 +49385,20 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="K681" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L681" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M681" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q681" t="n">
         <v>18</v>
@@ -49457,24 +49457,24 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="K682" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L682" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M682" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
@@ -49483,10 +49483,10 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="Q682" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R682" t="inlineStr">
         <is>
@@ -49529,20 +49529,20 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K683" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L683" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M683" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E684" t="n">
         <v>5</v>
@@ -49605,32 +49605,32 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>460</v>
+        <v>290</v>
       </c>
       <c r="K684" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L684" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M684" t="n">
-        <v>15478</v>
+        <v>5000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>860</v>
+        <v>417</v>
       </c>
       <c r="Q684" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R684" t="inlineStr">
         <is>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E685" t="n">
         <v>5</v>
@@ -49677,29 +49677,29 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K685" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L685" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M685" t="n">
-        <v>12535</v>
+        <v>7000</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>696</v>
+        <v>389</v>
       </c>
       <c r="Q685" t="n">
         <v>18</v>
@@ -49745,20 +49745,20 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="K686" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L686" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M686" t="n">
-        <v>10000</v>
+        <v>15478</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>556</v>
+        <v>860</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E687" t="n">
         <v>5</v>
@@ -49817,33 +49817,33 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="K687" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L687" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M687" t="n">
-        <v>10000</v>
+        <v>12535</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>556</v>
+        <v>696</v>
       </c>
       <c r="Q687" t="n">
         <v>18</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E688" t="n">
         <v>5</v>
@@ -49889,33 +49889,33 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="K688" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L688" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M688" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q688" t="n">
         <v>18</v>
@@ -49961,36 +49961,36 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="K689" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L689" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M689" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q689" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R689" t="inlineStr">
         <is>
@@ -50033,20 +50033,20 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K690" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L690" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M690" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q690" t="n">
         <v>18</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E691" t="n">
         <v>5</v>
@@ -50105,36 +50105,36 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="K691" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L691" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M691" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="Q691" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R691" t="inlineStr">
         <is>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E692" t="n">
         <v>5</v>
@@ -50177,20 +50177,20 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="K692" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L692" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M692" t="n">
-        <v>8721</v>
+        <v>7000</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>484</v>
+        <v>389</v>
       </c>
       <c r="Q692" t="n">
         <v>18</v>
@@ -50249,20 +50249,20 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J693" t="n">
         <v>160</v>
       </c>
       <c r="K693" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L693" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M693" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q693" t="n">
         <v>18</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E694" t="n">
         <v>5</v>
@@ -50325,16 +50325,16 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K694" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L694" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M694" t="n">
-        <v>11000</v>
+        <v>8721</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50343,11 +50343,11 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>611</v>
+        <v>484</v>
       </c>
       <c r="Q694" t="n">
         <v>18</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E695" t="n">
         <v>5</v>
@@ -50397,16 +50397,16 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K695" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L695" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M695" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50415,11 +50415,11 @@
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50465,38 +50465,182 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J696" t="n">
+        <v>180</v>
+      </c>
+      <c r="K696" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L696" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M696" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N696" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O696" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P696" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q696" t="n">
+        <v>18</v>
+      </c>
+      <c r="R696" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>3</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D697" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E697" t="n">
+        <v>5</v>
+      </c>
+      <c r="F697" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J697" t="n">
+        <v>180</v>
+      </c>
+      <c r="K697" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L697" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M697" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N697" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O697" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P697" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q697" t="n">
+        <v>18</v>
+      </c>
+      <c r="R697" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>3</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D698" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E698" t="n">
+        <v>5</v>
+      </c>
+      <c r="F698" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J696" t="n">
+      <c r="J698" t="n">
         <v>160</v>
       </c>
-      <c r="K696" t="n">
+      <c r="K698" t="n">
         <v>6500</v>
       </c>
-      <c r="L696" t="n">
+      <c r="L698" t="n">
         <v>6500</v>
       </c>
-      <c r="M696" t="n">
+      <c r="M698" t="n">
         <v>6500</v>
       </c>
-      <c r="N696" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O696" t="inlineStr">
+      <c r="N698" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O698" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P696" t="n">
+      <c r="P698" t="n">
         <v>361</v>
       </c>
-      <c r="Q696" t="n">
-        <v>18</v>
-      </c>
-      <c r="R696" t="inlineStr">
+      <c r="Q698" t="n">
+        <v>18</v>
+      </c>
+      <c r="R698" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R717"/>
+  <dimension ref="A1:R720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37505,20 +37505,20 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>290</v>
+        <v>510</v>
       </c>
       <c r="K516" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L516" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M516" t="n">
-        <v>18000</v>
+        <v>21451</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>1000</v>
+        <v>1192</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37577,20 +37577,20 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="K517" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L517" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M517" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44466</v>
+        <v>44453</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -37649,7 +37649,7 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J518" t="n">
@@ -37659,10 +37659,10 @@
         <v>16000</v>
       </c>
       <c r="L518" t="n">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="M518" t="n">
-        <v>16286</v>
+        <v>16000</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37721,20 +37721,20 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="K519" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L519" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="M519" t="n">
-        <v>13200</v>
+        <v>16286</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>733</v>
+        <v>905</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="K520" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L520" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="M520" t="n">
-        <v>11000</v>
+        <v>13200</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>611</v>
+        <v>733</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44242</v>
+        <v>44466</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -37865,20 +37865,20 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="K521" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L521" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M521" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37887,11 +37887,11 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K522" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L522" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M522" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K523" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L523" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M523" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38076,25 +38076,25 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K524" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L524" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M524" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38157,20 +38157,20 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K525" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L525" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M525" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
@@ -38179,10 +38179,10 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q525" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R525" t="inlineStr">
         <is>
@@ -38225,24 +38225,24 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K526" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L526" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M526" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
@@ -38251,10 +38251,10 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q526" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R526" t="inlineStr">
         <is>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44351</v>
+        <v>44242</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -38292,25 +38292,25 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K527" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L527" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M527" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38319,11 +38319,11 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>833</v>
+        <v>278</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K528" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L528" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M528" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38391,11 +38391,11 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q528" t="n">
         <v>18</v>
@@ -38448,13 +38448,13 @@
         <v>160</v>
       </c>
       <c r="K529" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L529" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M529" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38463,11 +38463,11 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38517,20 +38517,20 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K530" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L530" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M530" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
@@ -38539,10 +38539,10 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>458</v>
+        <v>667</v>
       </c>
       <c r="Q530" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R530" t="inlineStr">
         <is>
@@ -38585,24 +38585,24 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K531" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L531" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M531" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
@@ -38611,10 +38611,10 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="Q531" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R531" t="inlineStr">
         <is>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44279</v>
+        <v>44351</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K532" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L532" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M532" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38679,11 +38679,11 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K533" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L533" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M533" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K534" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L534" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M534" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q534" t="n">
         <v>18</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K535" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L535" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M535" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38895,11 +38895,11 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="K536" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L536" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M536" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -39021,20 +39021,20 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="K537" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L537" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M537" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
@@ -39043,10 +39043,10 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="Q537" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R537" t="inlineStr">
         <is>
@@ -39089,24 +39089,24 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K538" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L538" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M538" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
@@ -39115,10 +39115,10 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="Q538" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R538" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44389</v>
+        <v>44280</v>
       </c>
       <c r="E539" t="n">
         <v>5</v>
@@ -39161,33 +39161,33 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>460</v>
+        <v>250</v>
       </c>
       <c r="K539" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L539" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M539" t="n">
-        <v>15478</v>
+        <v>7000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>860</v>
+        <v>389</v>
       </c>
       <c r="Q539" t="n">
         <v>18</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="K540" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L540" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M540" t="n">
-        <v>12535</v>
+        <v>15478</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>696</v>
+        <v>860</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="K541" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L541" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M541" t="n">
-        <v>10000</v>
+        <v>12535</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>556</v>
+        <v>696</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44442</v>
+        <v>44389</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -39377,24 +39377,24 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>590</v>
+        <v>240</v>
       </c>
       <c r="K542" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L542" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M542" t="n">
-        <v>16517</v>
+        <v>10000</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O542" t="inlineStr">
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>918</v>
+        <v>556</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39453,20 +39453,20 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="K543" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L543" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="M543" t="n">
-        <v>7222</v>
+        <v>16517</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
@@ -39475,10 +39475,10 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>602</v>
+        <v>918</v>
       </c>
       <c r="Q543" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R543" t="inlineStr">
         <is>
@@ -39521,24 +39521,24 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>280</v>
+        <v>630</v>
       </c>
       <c r="K544" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="L544" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="M544" t="n">
-        <v>12500</v>
+        <v>7222</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
@@ -39547,10 +39547,10 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>694</v>
+        <v>602</v>
       </c>
       <c r="Q544" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R544" t="inlineStr">
         <is>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44476</v>
+        <v>44442</v>
       </c>
       <c r="E545" t="n">
         <v>5</v>
@@ -39593,20 +39593,20 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="K545" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="L545" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="M545" t="n">
-        <v>18514</v>
+        <v>12500</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>1029</v>
+        <v>694</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="K546" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L546" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M546" t="n">
-        <v>14471</v>
+        <v>18514</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>804</v>
+        <v>1029</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44372</v>
+        <v>44476</v>
       </c>
       <c r="E547" t="n">
         <v>5</v>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K547" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L547" t="n">
         <v>15000</v>
       </c>
-      <c r="L547" t="n">
-        <v>16000</v>
-      </c>
       <c r="M547" t="n">
-        <v>15419</v>
+        <v>14471</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>857</v>
+        <v>804</v>
       </c>
       <c r="Q547" t="n">
         <v>18</v>
@@ -39809,20 +39809,20 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="K548" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="L548" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M548" t="n">
-        <v>11750</v>
+        <v>15419</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>653</v>
+        <v>857</v>
       </c>
       <c r="Q548" t="n">
         <v>18</v>
@@ -39888,17 +39888,17 @@
         <v>380</v>
       </c>
       <c r="K549" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="L549" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M549" t="n">
-        <v>5500</v>
+        <v>11750</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
@@ -39907,10 +39907,10 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>458</v>
+        <v>653</v>
       </c>
       <c r="Q549" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R549" t="inlineStr">
         <is>
@@ -39953,24 +39953,24 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K550" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L550" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M550" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
@@ -39979,10 +39979,10 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="Q550" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R550" t="inlineStr">
         <is>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44201</v>
+        <v>44372</v>
       </c>
       <c r="E551" t="n">
         <v>5</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J551" t="n">
         <v>180</v>
       </c>
       <c r="K551" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L551" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M551" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40047,11 +40047,11 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q551" t="n">
         <v>18</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K552" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L552" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M552" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K553" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L553" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M553" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44482</v>
+        <v>44201</v>
       </c>
       <c r="E554" t="n">
         <v>5</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K554" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L554" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M554" t="n">
-        <v>15484</v>
+        <v>11000</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40263,11 +40263,11 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>860</v>
+        <v>611</v>
       </c>
       <c r="Q554" t="n">
         <v>18</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="K555" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L555" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M555" t="n">
-        <v>12300</v>
+        <v>15484</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>683</v>
+        <v>860</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44293</v>
+        <v>44482</v>
       </c>
       <c r="E556" t="n">
         <v>5</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K556" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L556" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M556" t="n">
-        <v>10000</v>
+        <v>12300</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40407,11 +40407,11 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>556</v>
+        <v>683</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K557" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L557" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M557" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K558" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L558" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M558" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="Q558" t="n">
         <v>18</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44204</v>
+        <v>44293</v>
       </c>
       <c r="E559" t="n">
         <v>5</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J559" t="n">
         <v>180</v>
       </c>
       <c r="K559" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L559" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M559" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>833</v>
+        <v>361</v>
       </c>
       <c r="Q559" t="n">
         <v>18</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K560" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L560" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M560" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K561" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L561" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M561" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q561" t="n">
         <v>18</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E562" t="n">
         <v>5</v>
@@ -40817,11 +40817,11 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K562" t="n">
         <v>11000</v>
@@ -40893,16 +40893,16 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K563" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L563" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M563" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40911,11 +40911,11 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J564" t="n">
         <v>150</v>
       </c>
       <c r="K564" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L564" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M564" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40983,11 +40983,11 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41037,16 +41037,16 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K565" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L565" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M565" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41109,20 +41109,20 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K566" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L566" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M566" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
@@ -41131,10 +41131,10 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="Q566" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R566" t="inlineStr">
         <is>
@@ -41177,36 +41177,36 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="K567" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L567" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M567" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="Q567" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R567" t="inlineStr">
         <is>
@@ -41253,16 +41253,16 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K568" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L568" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M568" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E569" t="n">
         <v>5</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K569" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L569" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="M569" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>778</v>
+        <v>361</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K570" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L570" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M570" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K571" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L571" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M571" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E572" t="n">
         <v>5</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K572" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L572" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M572" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="Q572" t="n">
         <v>18</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K573" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L573" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M573" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K574" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L574" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M574" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="K575" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L575" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M575" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E576" t="n">
         <v>5</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="K576" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L576" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M576" t="n">
-        <v>11444</v>
+        <v>8000</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>636</v>
+        <v>444</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="K577" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L577" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M577" t="n">
-        <v>8750</v>
+        <v>11444</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>486</v>
+        <v>636</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44477</v>
+        <v>44166</v>
       </c>
       <c r="E578" t="n">
         <v>5</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K578" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="L578" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="M578" t="n">
-        <v>18500</v>
+        <v>8750</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41991,11 +41991,11 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>1028</v>
+        <v>486</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="K579" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L579" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M579" t="n">
-        <v>14514</v>
+        <v>18500</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>806</v>
+        <v>1028</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44292</v>
+        <v>44477</v>
       </c>
       <c r="E580" t="n">
         <v>5</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="K580" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L580" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M580" t="n">
-        <v>10000</v>
+        <v>14514</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>556</v>
+        <v>806</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K581" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L581" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M581" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K582" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L582" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M582" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q582" t="n">
         <v>18</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44333</v>
+        <v>44292</v>
       </c>
       <c r="E583" t="n">
         <v>5</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K583" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L583" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M583" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42351,11 +42351,11 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="K584" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L584" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="M584" t="n">
-        <v>9235</v>
+        <v>11000</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>513</v>
+        <v>611</v>
       </c>
       <c r="Q584" t="n">
         <v>18</v>
@@ -42477,20 +42477,20 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K585" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L585" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="M585" t="n">
-        <v>4500</v>
+        <v>9235</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
@@ -42499,10 +42499,10 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>375</v>
+        <v>513</v>
       </c>
       <c r="Q585" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R585" t="inlineStr">
         <is>
@@ -42545,24 +42545,24 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K586" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L586" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M586" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
@@ -42571,10 +42571,10 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>444</v>
+        <v>375</v>
       </c>
       <c r="Q586" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R586" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E587" t="n">
         <v>5</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K587" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L587" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M587" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>833</v>
+        <v>444</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K588" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L588" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M588" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K589" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L589" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M589" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42837,20 +42837,20 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K590" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L590" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M590" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
@@ -42859,10 +42859,10 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q590" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R590" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E591" t="n">
         <v>5</v>
@@ -42905,36 +42905,36 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="K591" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L591" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M591" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="Q591" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R591" t="inlineStr">
         <is>
@@ -42977,20 +42977,20 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="K592" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L592" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M592" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43053,16 +43053,16 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="K593" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L593" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M593" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43071,11 +43071,11 @@
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="K594" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L594" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M594" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E595" t="n">
         <v>5</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="K595" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L595" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M595" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43215,11 +43215,11 @@
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K596" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L596" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M596" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K597" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L597" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M597" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E598" t="n">
         <v>5</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K598" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L598" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M598" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>833</v>
+        <v>389</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K599" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L599" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M599" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="K600" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L600" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M600" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43620,29 +43620,29 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="K601" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L601" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M601" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
@@ -43651,10 +43651,10 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="Q601" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R601" t="inlineStr">
         <is>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E602" t="n">
         <v>5</v>
@@ -43692,7 +43692,7 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
@@ -43701,32 +43701,32 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="K602" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="L602" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="M602" t="n">
-        <v>16519</v>
+        <v>5000</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>918</v>
+        <v>417</v>
       </c>
       <c r="Q602" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R602" t="inlineStr">
         <is>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J603" t="n">
         <v>270</v>
       </c>
       <c r="K603" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L603" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M603" t="n">
-        <v>13556</v>
+        <v>16519</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>753</v>
+        <v>918</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43845,20 +43845,20 @@
         </is>
       </c>
       <c r="J604" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K604" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L604" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M604" t="n">
-        <v>6000</v>
+        <v>13556</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
@@ -43867,10 +43867,10 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>500</v>
+        <v>753</v>
       </c>
       <c r="Q604" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R604" t="inlineStr">
         <is>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E605" t="n">
         <v>5</v>
@@ -43913,36 +43913,36 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K605" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L605" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M605" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="Q605" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R605" t="inlineStr">
         <is>
@@ -43985,20 +43985,20 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K606" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L606" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M606" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K607" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L607" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M607" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E608" t="n">
         <v>5</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="K608" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="L608" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M608" t="n">
-        <v>12804</v>
+        <v>10000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>711</v>
+        <v>556</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44201,20 +44201,20 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="K609" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L609" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M609" t="n">
-        <v>11000</v>
+        <v>12804</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>611</v>
+        <v>711</v>
       </c>
       <c r="Q609" t="n">
         <v>18</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E610" t="n">
         <v>5</v>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K610" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L610" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M610" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>833</v>
+        <v>611</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="K611" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L611" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M611" t="n">
-        <v>13243</v>
+        <v>15000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>736</v>
+        <v>833</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="K612" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L612" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="M612" t="n">
-        <v>11000</v>
+        <v>13243</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>611</v>
+        <v>736</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K613" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L613" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M613" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44481</v>
+        <v>44186</v>
       </c>
       <c r="E614" t="n">
         <v>5</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="K614" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L614" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M614" t="n">
-        <v>17495</v>
+        <v>9000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>972</v>
+        <v>500</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E615" t="n">
         <v>5</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>210</v>
+        <v>370</v>
       </c>
       <c r="K615" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L615" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M615" t="n">
-        <v>13571</v>
+        <v>18486</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>754</v>
+        <v>1027</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44705,20 +44705,20 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="K616" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L616" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M616" t="n">
-        <v>12549</v>
+        <v>14529</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44727,11 +44727,11 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>697</v>
+        <v>807</v>
       </c>
       <c r="Q616" t="n">
         <v>18</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -44777,20 +44777,20 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="K617" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L617" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M617" t="n">
-        <v>9000</v>
+        <v>17495</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>500</v>
+        <v>972</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E618" t="n">
         <v>5</v>
@@ -44849,20 +44849,20 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="K618" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L618" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M618" t="n">
-        <v>12000</v>
+        <v>13571</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>667</v>
+        <v>754</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E619" t="n">
         <v>5</v>
@@ -44925,16 +44925,16 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>150</v>
+        <v>510</v>
       </c>
       <c r="K619" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L619" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M619" t="n">
-        <v>10000</v>
+        <v>12549</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44943,11 +44943,11 @@
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>556</v>
+        <v>697</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -44997,16 +44997,16 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K620" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L620" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M620" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45015,11 +45015,11 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45060,25 +45060,25 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="K621" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L621" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M621" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q621" t="n">
         <v>18</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -45141,16 +45141,16 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K622" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L622" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M622" t="n">
-        <v>19529</v>
+        <v>10000</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>1085</v>
+        <v>556</v>
       </c>
       <c r="Q622" t="n">
         <v>18</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="K623" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="L623" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M623" t="n">
-        <v>16759</v>
+        <v>8000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>931</v>
+        <v>444</v>
       </c>
       <c r="Q623" t="n">
         <v>18</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
@@ -45285,32 +45285,32 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="K624" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L624" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M624" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>542</v>
+        <v>389</v>
       </c>
       <c r="Q624" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -45353,20 +45353,20 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K625" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L625" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M625" t="n">
-        <v>13400</v>
+        <v>19529</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45375,11 +45375,11 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>744</v>
+        <v>1085</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45425,24 +45425,24 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="K626" t="n">
-        <v>6300</v>
+        <v>16500</v>
       </c>
       <c r="L626" t="n">
-        <v>6300</v>
+        <v>17000</v>
       </c>
       <c r="M626" t="n">
-        <v>6300</v>
+        <v>16759</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
@@ -45451,10 +45451,10 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>525</v>
+        <v>931</v>
       </c>
       <c r="Q626" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -45501,20 +45501,20 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>530</v>
+        <v>190</v>
       </c>
       <c r="K627" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="L627" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M627" t="n">
-        <v>11736</v>
+        <v>6500</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
@@ -45523,10 +45523,10 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>652</v>
+        <v>542</v>
       </c>
       <c r="Q627" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -45573,16 +45573,16 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="K628" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L628" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="M628" t="n">
-        <v>9167</v>
+        <v>13400</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>509</v>
+        <v>744</v>
       </c>
       <c r="Q628" t="n">
         <v>18</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E629" t="n">
         <v>5</v>
@@ -45641,24 +45641,24 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="K629" t="n">
-        <v>14500</v>
+        <v>6300</v>
       </c>
       <c r="L629" t="n">
-        <v>15000</v>
+        <v>6300</v>
       </c>
       <c r="M629" t="n">
-        <v>14867</v>
+        <v>6300</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
@@ -45667,10 +45667,10 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>826</v>
+        <v>525</v>
       </c>
       <c r="Q629" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R629" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E630" t="n">
         <v>5</v>
@@ -45717,16 +45717,16 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>350</v>
+        <v>530</v>
       </c>
       <c r="K630" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="L630" t="n">
         <v>12000</v>
       </c>
       <c r="M630" t="n">
-        <v>12000</v>
+        <v>11736</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="Q630" t="n">
         <v>18</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E631" t="n">
         <v>5</v>
@@ -45789,16 +45789,16 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="K631" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L631" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="M631" t="n">
-        <v>10000</v>
+        <v>9167</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>556</v>
+        <v>509</v>
       </c>
       <c r="Q631" t="n">
         <v>18</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -45861,16 +45861,16 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K632" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="L632" t="n">
         <v>15000</v>
       </c>
       <c r="M632" t="n">
-        <v>15000</v>
+        <v>14867</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="Q632" t="n">
         <v>18</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E633" t="n">
         <v>5</v>
@@ -45933,7 +45933,7 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K633" t="n">
         <v>12000</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E634" t="n">
         <v>5</v>
@@ -46005,16 +46005,16 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="K634" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L634" t="n">
         <v>10000</v>
       </c>
       <c r="M634" t="n">
-        <v>9760</v>
+        <v>10000</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="Q634" t="n">
         <v>18</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E635" t="n">
         <v>5</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K635" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L635" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M635" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>944</v>
+        <v>833</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E636" t="n">
         <v>5</v>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="K636" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L636" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M636" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="Q636" t="n">
         <v>18</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E637" t="n">
         <v>5</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>370</v>
+        <v>480</v>
       </c>
       <c r="K637" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L637" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="M637" t="n">
-        <v>12257</v>
+        <v>9760</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>681</v>
+        <v>542</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46289,20 +46289,20 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="K638" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L638" t="n">
-        <v>11500</v>
+        <v>17000</v>
       </c>
       <c r="M638" t="n">
-        <v>11243</v>
+        <v>17000</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46311,11 +46311,11 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>625</v>
+        <v>944</v>
       </c>
       <c r="Q638" t="n">
         <v>18</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E639" t="n">
         <v>5</v>
@@ -46361,20 +46361,20 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K639" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L639" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M639" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E640" t="n">
         <v>5</v>
@@ -46437,16 +46437,16 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="K640" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L640" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="M640" t="n">
-        <v>11000</v>
+        <v>12257</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>611</v>
+        <v>681</v>
       </c>
       <c r="Q640" t="n">
         <v>18</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E641" t="n">
         <v>5</v>
@@ -46509,16 +46509,16 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="K641" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L641" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="M641" t="n">
-        <v>9000</v>
+        <v>11243</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="Q641" t="n">
         <v>18</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E642" t="n">
         <v>5</v>
@@ -46577,24 +46577,24 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K642" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L642" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M642" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -46603,10 +46603,10 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q642" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46649,20 +46649,20 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K643" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L643" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M643" t="n">
-        <v>7242</v>
+        <v>11000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>402</v>
+        <v>611</v>
       </c>
       <c r="Q643" t="n">
         <v>18</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E644" t="n">
         <v>5</v>
@@ -46721,20 +46721,20 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K644" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L644" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M644" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46743,11 +46743,11 @@
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q644" t="n">
         <v>18</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E645" t="n">
         <v>5</v>
@@ -46797,32 +46797,32 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="K645" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L645" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="M645" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>833</v>
+        <v>333</v>
       </c>
       <c r="Q645" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R645" t="inlineStr">
         <is>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E646" t="n">
         <v>5</v>
@@ -46869,16 +46869,16 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="K646" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L646" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M646" t="n">
-        <v>12000</v>
+        <v>7242</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46887,11 +46887,11 @@
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>667</v>
+        <v>402</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -46941,16 +46941,16 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K647" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L647" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M647" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46959,11 +46959,11 @@
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="Q647" t="n">
         <v>18</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E648" t="n">
         <v>5</v>
@@ -47013,16 +47013,16 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="K648" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L648" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M648" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47031,11 +47031,11 @@
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="Q648" t="n">
         <v>18</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E649" t="n">
         <v>5</v>
@@ -47081,36 +47081,36 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="K649" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L649" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M649" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>417</v>
+        <v>667</v>
       </c>
       <c r="Q649" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R649" t="inlineStr">
         <is>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K650" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L650" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M650" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q650" t="n">
         <v>18</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -47229,16 +47229,16 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="K651" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L651" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M651" t="n">
-        <v>17517</v>
+        <v>8000</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47247,11 +47247,11 @@
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>973</v>
+        <v>444</v>
       </c>
       <c r="Q651" t="n">
         <v>18</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E652" t="n">
         <v>5</v>
@@ -47297,36 +47297,36 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="K652" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L652" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M652" t="n">
-        <v>14500</v>
+        <v>5000</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>806</v>
+        <v>417</v>
       </c>
       <c r="Q652" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R652" t="inlineStr">
         <is>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E653" t="n">
         <v>5</v>
@@ -47369,20 +47369,20 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K653" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L653" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M653" t="n">
-        <v>15529</v>
+        <v>7000</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47391,11 +47391,11 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>863</v>
+        <v>389</v>
       </c>
       <c r="Q653" t="n">
         <v>18</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E654" t="n">
         <v>5</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="K654" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L654" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M654" t="n">
-        <v>12000</v>
+        <v>17517</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>667</v>
+        <v>973</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E655" t="n">
         <v>5</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J655" t="n">
         <v>320</v>
       </c>
       <c r="K655" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L655" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M655" t="n">
-        <v>17438</v>
+        <v>14500</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>969</v>
+        <v>806</v>
       </c>
       <c r="Q655" t="n">
         <v>18</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E656" t="n">
         <v>5</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K656" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L656" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M656" t="n">
-        <v>13273</v>
+        <v>15529</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>737</v>
+        <v>863</v>
       </c>
       <c r="Q656" t="n">
         <v>18</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E657" t="n">
         <v>5</v>
@@ -47657,20 +47657,20 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="K657" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L657" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M657" t="n">
-        <v>9250</v>
+        <v>12000</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>514</v>
+        <v>667</v>
       </c>
       <c r="Q657" t="n">
         <v>18</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E658" t="n">
         <v>5</v>
@@ -47729,20 +47729,20 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="K658" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L658" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M658" t="n">
-        <v>8000</v>
+        <v>17438</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47751,11 +47751,11 @@
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>444</v>
+        <v>969</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E659" t="n">
         <v>5</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="K659" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L659" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="M659" t="n">
-        <v>6500</v>
+        <v>13273</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47823,11 +47823,11 @@
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>361</v>
+        <v>737</v>
       </c>
       <c r="Q659" t="n">
         <v>18</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E660" t="n">
         <v>5</v>
@@ -47877,16 +47877,16 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="K660" t="n">
-        <v>18500</v>
+        <v>9000</v>
       </c>
       <c r="L660" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="M660" t="n">
-        <v>18757</v>
+        <v>9250</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>1042</v>
+        <v>514</v>
       </c>
       <c r="Q660" t="n">
         <v>18</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E661" t="n">
         <v>5</v>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="K661" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L661" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M661" t="n">
-        <v>15486</v>
+        <v>8000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>860</v>
+        <v>444</v>
       </c>
       <c r="Q661" t="n">
         <v>18</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E662" t="n">
         <v>5</v>
@@ -48017,24 +48017,24 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="K662" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L662" t="n">
         <v>6500</v>
       </c>
       <c r="M662" t="n">
-        <v>6250</v>
+        <v>6500</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
@@ -48043,10 +48043,10 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>521</v>
+        <v>361</v>
       </c>
       <c r="Q662" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R662" t="inlineStr">
         <is>
@@ -48089,20 +48089,20 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="K663" t="n">
-        <v>14000</v>
+        <v>18500</v>
       </c>
       <c r="L663" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M663" t="n">
-        <v>14000</v>
+        <v>18757</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>778</v>
+        <v>1042</v>
       </c>
       <c r="Q663" t="n">
         <v>18</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E664" t="n">
         <v>5</v>
@@ -48161,20 +48161,20 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="K664" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L664" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M664" t="n">
-        <v>14000</v>
+        <v>15486</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>778</v>
+        <v>860</v>
       </c>
       <c r="Q664" t="n">
         <v>18</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E665" t="n">
         <v>5</v>
@@ -48237,32 +48237,32 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="K665" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L665" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M665" t="n">
-        <v>11000</v>
+        <v>6250</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="Q665" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R665" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E666" t="n">
         <v>5</v>
@@ -48309,16 +48309,16 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K666" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L666" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M666" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="Q666" t="n">
         <v>18</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E667" t="n">
         <v>5</v>
@@ -48377,20 +48377,20 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>340</v>
+        <v>190</v>
       </c>
       <c r="K667" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L667" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M667" t="n">
-        <v>20471</v>
+        <v>14000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>1137</v>
+        <v>778</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E668" t="n">
         <v>5</v>
@@ -48453,20 +48453,20 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>680</v>
+        <v>180</v>
       </c>
       <c r="K668" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L668" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M668" t="n">
-        <v>8757</v>
+        <v>11000</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
@@ -48475,10 +48475,10 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>730</v>
+        <v>611</v>
       </c>
       <c r="Q668" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E669" t="n">
         <v>5</v>
@@ -48525,16 +48525,16 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="K669" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L669" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M669" t="n">
-        <v>16500</v>
+        <v>9000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>917</v>
+        <v>500</v>
       </c>
       <c r="Q669" t="n">
         <v>18</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E670" t="n">
         <v>5</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="K670" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L670" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="M670" t="n">
-        <v>11000</v>
+        <v>20471</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>611</v>
+        <v>1137</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E671" t="n">
         <v>5</v>
@@ -48669,32 +48669,32 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>180</v>
+        <v>680</v>
       </c>
       <c r="K671" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="L671" t="n">
         <v>9000</v>
       </c>
       <c r="M671" t="n">
-        <v>9000</v>
+        <v>8757</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>500</v>
+        <v>730</v>
       </c>
       <c r="Q671" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E672" t="n">
         <v>5</v>
@@ -48737,36 +48737,36 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="K672" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L672" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="M672" t="n">
-        <v>5000</v>
+        <v>16500</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>417</v>
+        <v>917</v>
       </c>
       <c r="Q672" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
@@ -48809,20 +48809,20 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K673" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L673" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M673" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q673" t="n">
         <v>18</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E674" t="n">
         <v>5</v>
@@ -48881,20 +48881,20 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K674" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L674" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M674" t="n">
-        <v>12833</v>
+        <v>9000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>713</v>
+        <v>500</v>
       </c>
       <c r="Q674" t="n">
         <v>18</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E675" t="n">
         <v>5</v>
@@ -48957,20 +48957,20 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K675" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L675" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M675" t="n">
-        <v>10523</v>
+        <v>5000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
@@ -48979,10 +48979,10 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>585</v>
+        <v>417</v>
       </c>
       <c r="Q675" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E676" t="n">
         <v>5</v>
@@ -49025,36 +49025,36 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="K676" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L676" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M676" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="Q676" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
@@ -49097,20 +49097,20 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J677" t="n">
         <v>240</v>
       </c>
       <c r="K677" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="L677" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M677" t="n">
-        <v>8833</v>
+        <v>12833</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>491</v>
+        <v>713</v>
       </c>
       <c r="Q677" t="n">
         <v>18</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E678" t="n">
         <v>5</v>
@@ -49169,20 +49169,20 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K678" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L678" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M678" t="n">
-        <v>12000</v>
+        <v>10523</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49191,11 +49191,11 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>667</v>
+        <v>585</v>
       </c>
       <c r="Q678" t="n">
         <v>18</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E679" t="n">
         <v>5</v>
@@ -49245,20 +49245,20 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="K679" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L679" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M679" t="n">
-        <v>9760</v>
+        <v>5000</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
@@ -49267,10 +49267,10 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>542</v>
+        <v>417</v>
       </c>
       <c r="Q679" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R679" t="inlineStr">
         <is>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E680" t="n">
         <v>5</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="K680" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L680" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M680" t="n">
-        <v>11000</v>
+        <v>8833</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>611</v>
+        <v>491</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E681" t="n">
         <v>5</v>
@@ -49385,20 +49385,20 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="K681" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L681" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M681" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q681" t="n">
         <v>18</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E682" t="n">
         <v>5</v>
@@ -49461,32 +49461,32 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="K682" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L682" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M682" t="n">
-        <v>6000</v>
+        <v>9760</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>500</v>
+        <v>542</v>
       </c>
       <c r="Q682" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R682" t="inlineStr">
         <is>
@@ -49529,20 +49529,20 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="K683" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L683" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M683" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E684" t="n">
         <v>5</v>
@@ -49601,20 +49601,20 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="K684" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L684" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M684" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q684" t="n">
         <v>18</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E685" t="n">
         <v>5</v>
@@ -49677,20 +49677,20 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="K685" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L685" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M685" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
@@ -49699,10 +49699,10 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q685" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E686" t="n">
         <v>5</v>
@@ -49749,16 +49749,16 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K686" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L686" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M686" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E687" t="n">
         <v>5</v>
@@ -49821,7 +49821,7 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K687" t="n">
         <v>15000</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E688" t="n">
         <v>5</v>
@@ -49893,7 +49893,7 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="K688" t="n">
         <v>13000</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E689" t="n">
         <v>5</v>
@@ -49965,7 +49965,7 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K689" t="n">
         <v>11000</v>
@@ -50033,20 +50033,20 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K690" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L690" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M690" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="Q690" t="n">
         <v>18</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E691" t="n">
         <v>5</v>
@@ -50109,16 +50109,16 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="K691" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L691" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="M691" t="n">
-        <v>11220</v>
+        <v>13000</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>623</v>
+        <v>722</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E692" t="n">
         <v>5</v>
@@ -50177,36 +50177,36 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K692" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L692" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="M692" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>375</v>
+        <v>611</v>
       </c>
       <c r="Q692" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E693" t="n">
         <v>5</v>
@@ -50249,11 +50249,11 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K693" t="n">
         <v>9000</v>
@@ -50271,7 +50271,7 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P693" t="n">
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E694" t="n">
         <v>5</v>
@@ -50325,16 +50325,16 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="K694" t="n">
         <v>11000</v>
       </c>
       <c r="L694" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="M694" t="n">
-        <v>11000</v>
+        <v>11220</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="Q694" t="n">
         <v>18</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E695" t="n">
         <v>5</v>
@@ -50393,24 +50393,24 @@
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="K695" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L695" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M695" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
@@ -50419,10 +50419,10 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="Q695" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R695" t="inlineStr">
         <is>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E696" t="n">
         <v>5</v>
@@ -50465,20 +50465,20 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="K696" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L696" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M696" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q696" t="n">
         <v>18</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E697" t="n">
         <v>5</v>
@@ -50541,16 +50541,16 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K697" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L697" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M697" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50559,11 +50559,11 @@
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q697" t="n">
         <v>18</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E698" t="n">
         <v>5</v>
@@ -50613,16 +50613,16 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K698" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L698" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M698" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50631,11 +50631,11 @@
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q698" t="n">
         <v>18</v>
@@ -50676,25 +50676,25 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="K699" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L699" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M699" t="n">
-        <v>7360</v>
+        <v>11000</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50707,7 +50707,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>409</v>
+        <v>611</v>
       </c>
       <c r="Q699" t="n">
         <v>18</v>
@@ -50748,7 +50748,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
@@ -50757,20 +50757,20 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K700" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L700" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M700" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
@@ -50779,10 +50779,10 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q700" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R700" t="inlineStr">
         <is>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E701" t="n">
         <v>5</v>
@@ -50825,20 +50825,20 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K701" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L701" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M701" t="n">
-        <v>10780</v>
+        <v>7000</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>599</v>
+        <v>389</v>
       </c>
       <c r="Q701" t="n">
         <v>18</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E702" t="n">
         <v>5</v>
@@ -50892,7 +50892,7 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -50901,16 +50901,16 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>570</v>
+        <v>250</v>
       </c>
       <c r="K702" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L702" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="M702" t="n">
-        <v>9246</v>
+        <v>7360</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>514</v>
+        <v>409</v>
       </c>
       <c r="Q702" t="n">
         <v>18</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E703" t="n">
         <v>5</v>
@@ -50964,7 +50964,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -50973,7 +50973,7 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K703" t="n">
         <v>4500</v>
@@ -50991,7 +50991,7 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P703" t="n">
@@ -51041,20 +51041,20 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J704" t="n">
         <v>500</v>
       </c>
       <c r="K704" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="L704" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M704" t="n">
-        <v>7250</v>
+        <v>10780</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>403</v>
+        <v>599</v>
       </c>
       <c r="Q704" t="n">
         <v>18</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E705" t="n">
         <v>5</v>
@@ -51113,20 +51113,20 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>370</v>
+        <v>570</v>
       </c>
       <c r="K705" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L705" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="M705" t="n">
-        <v>11243</v>
+        <v>9246</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>625</v>
+        <v>514</v>
       </c>
       <c r="Q705" t="n">
         <v>18</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E706" t="n">
         <v>5</v>
@@ -51189,32 +51189,32 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="K706" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L706" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M706" t="n">
-        <v>9243</v>
+        <v>4500</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>514</v>
+        <v>375</v>
       </c>
       <c r="Q706" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E707" t="n">
         <v>5</v>
@@ -51261,7 +51261,7 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K707" t="n">
         <v>7000</v>
@@ -51270,7 +51270,7 @@
         <v>7500</v>
       </c>
       <c r="M707" t="n">
-        <v>7235</v>
+        <v>7250</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q707" t="n">
         <v>18</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E708" t="n">
         <v>5</v>
@@ -51329,20 +51329,20 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="K708" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L708" t="n">
         <v>11500</v>
       </c>
-      <c r="L708" t="n">
-        <v>12000</v>
-      </c>
       <c r="M708" t="n">
-        <v>11681</v>
+        <v>11243</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51351,11 +51351,11 @@
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E709" t="n">
         <v>5</v>
@@ -51401,20 +51401,20 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="K709" t="n">
         <v>9000</v>
       </c>
       <c r="L709" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M709" t="n">
-        <v>9000</v>
+        <v>9243</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51423,11 +51423,11 @@
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="Q709" t="n">
         <v>18</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E710" t="n">
         <v>5</v>
@@ -51473,20 +51473,20 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="K710" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L710" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="M710" t="n">
-        <v>14000</v>
+        <v>7235</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>778</v>
+        <v>402</v>
       </c>
       <c r="Q710" t="n">
         <v>18</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E711" t="n">
         <v>5</v>
@@ -51549,16 +51549,16 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>650</v>
+        <v>360</v>
       </c>
       <c r="K711" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L711" t="n">
         <v>12000</v>
       </c>
       <c r="M711" t="n">
-        <v>11015</v>
+        <v>11681</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51567,11 +51567,11 @@
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>612</v>
+        <v>649</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E712" t="n">
         <v>5</v>
@@ -51617,24 +51617,24 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="K712" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L712" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M712" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O712" t="inlineStr">
@@ -51643,10 +51643,10 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="Q712" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R712" t="inlineStr">
         <is>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E713" t="n">
         <v>5</v>
@@ -51693,16 +51693,16 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="K713" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L713" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M713" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E714" t="n">
         <v>5</v>
@@ -51765,16 +51765,16 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>270</v>
+        <v>650</v>
       </c>
       <c r="K714" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L714" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M714" t="n">
-        <v>8722</v>
+        <v>11015</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E715" t="n">
         <v>5</v>
@@ -51833,36 +51833,36 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="K715" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L715" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M715" t="n">
-        <v>7761</v>
+        <v>5000</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="Q715" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E716" t="n">
         <v>5</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K716" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L716" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="M716" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>1056</v>
+        <v>556</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,58 +51957,274 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E717" t="n">
+        <v>5</v>
+      </c>
+      <c r="F717" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J717" t="n">
+        <v>270</v>
+      </c>
+      <c r="K717" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L717" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M717" t="n">
+        <v>8722</v>
+      </c>
+      <c r="N717" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O717" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P717" t="n">
+        <v>485</v>
+      </c>
+      <c r="Q717" t="n">
+        <v>18</v>
+      </c>
+      <c r="R717" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>3</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D718" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E718" t="n">
+        <v>5</v>
+      </c>
+      <c r="F718" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J718" t="n">
+        <v>230</v>
+      </c>
+      <c r="K718" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L718" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M718" t="n">
+        <v>7761</v>
+      </c>
+      <c r="N718" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O718" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P718" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q718" t="n">
+        <v>18</v>
+      </c>
+      <c r="R718" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>3</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D719" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E717" t="n">
-        <v>5</v>
-      </c>
-      <c r="F717" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I717" t="inlineStr">
+      <c r="E719" t="n">
+        <v>5</v>
+      </c>
+      <c r="F719" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J717" t="n">
+      <c r="J719" t="n">
+        <v>230</v>
+      </c>
+      <c r="K719" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L719" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M719" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N719" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O719" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P719" t="n">
+        <v>1056</v>
+      </c>
+      <c r="Q719" t="n">
+        <v>18</v>
+      </c>
+      <c r="R719" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>3</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D720" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E720" t="n">
+        <v>5</v>
+      </c>
+      <c r="F720" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J720" t="n">
         <v>510</v>
       </c>
-      <c r="K717" t="n">
+      <c r="K720" t="n">
         <v>17000</v>
       </c>
-      <c r="L717" t="n">
+      <c r="L720" t="n">
         <v>17500</v>
       </c>
-      <c r="M717" t="n">
+      <c r="M720" t="n">
         <v>17245</v>
       </c>
-      <c r="N717" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O717" t="inlineStr">
+      <c r="N720" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O720" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P717" t="n">
+      <c r="P720" t="n">
         <v>958</v>
       </c>
-      <c r="Q717" t="n">
-        <v>18</v>
-      </c>
-      <c r="R717" t="inlineStr">
+      <c r="Q720" t="n">
+        <v>18</v>
+      </c>
+      <c r="R720" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R724"/>
+  <dimension ref="A1:R726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E585" t="n">
         <v>5</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K585" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L585" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M585" t="n">
-        <v>11000</v>
+        <v>17516</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>611</v>
+        <v>973</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E586" t="n">
         <v>5</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K586" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L586" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="M586" t="n">
-        <v>9235</v>
+        <v>14000</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>513</v>
+        <v>778</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42617,24 +42617,24 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K587" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L587" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="M587" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O587" t="inlineStr">
@@ -42643,10 +42643,10 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>375</v>
+        <v>611</v>
       </c>
       <c r="Q587" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R587" t="inlineStr">
         <is>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K588" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L588" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M588" t="n">
-        <v>8000</v>
+        <v>9235</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>444</v>
+        <v>513</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E589" t="n">
         <v>5</v>
@@ -42761,24 +42761,24 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K589" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L589" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M589" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
@@ -42787,10 +42787,10 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>833</v>
+        <v>375</v>
       </c>
       <c r="Q589" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R589" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E590" t="n">
         <v>5</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J590" t="n">
         <v>160</v>
       </c>
       <c r="K590" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L590" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M590" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K591" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L591" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M591" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42977,24 +42977,24 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K592" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L592" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M592" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
@@ -43003,10 +43003,10 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="Q592" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R592" t="inlineStr">
         <is>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E593" t="n">
         <v>5</v>
@@ -43049,11 +43049,11 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="K593" t="n">
         <v>10000</v>
@@ -43071,7 +43071,7 @@
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P593" t="n">
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E594" t="n">
         <v>5</v>
@@ -43121,36 +43121,36 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K594" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L594" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M594" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="Q594" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R594" t="inlineStr">
         <is>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="K595" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L595" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M595" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43215,11 +43215,11 @@
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>361</v>
+        <v>556</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="K596" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L596" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M596" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E597" t="n">
         <v>5</v>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K597" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L597" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M597" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>611</v>
+        <v>361</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E598" t="n">
         <v>5</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="K598" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L598" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M598" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K599" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L599" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M599" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E600" t="n">
         <v>5</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K600" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L600" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M600" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="K601" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L601" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M601" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43697,20 +43697,20 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="K602" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L602" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M602" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43764,7 +43764,7 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
@@ -43773,20 +43773,20 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="K603" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L603" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M603" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
@@ -43795,10 +43795,10 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>417</v>
+        <v>722</v>
       </c>
       <c r="Q603" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R603" t="inlineStr">
         <is>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K604" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L604" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M604" t="n">
-        <v>16519</v>
+        <v>10000</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>918</v>
+        <v>556</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E605" t="n">
         <v>5</v>
@@ -43908,41 +43908,41 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="K605" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L605" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M605" t="n">
-        <v>13556</v>
+        <v>5000</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>753</v>
+        <v>417</v>
       </c>
       <c r="Q605" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R605" t="inlineStr">
         <is>
@@ -43985,24 +43985,24 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K606" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="L606" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="M606" t="n">
-        <v>6000</v>
+        <v>16519</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
@@ -44011,10 +44011,10 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>500</v>
+        <v>918</v>
       </c>
       <c r="Q606" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R606" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E607" t="n">
         <v>5</v>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="K607" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L607" t="n">
         <v>14000</v>
       </c>
       <c r="M607" t="n">
-        <v>14000</v>
+        <v>13556</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44079,11 +44079,11 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>778</v>
+        <v>753</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E608" t="n">
         <v>5</v>
@@ -44133,32 +44133,32 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="K608" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L608" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M608" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q608" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R608" t="inlineStr">
         <is>
@@ -44201,20 +44201,20 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J609" t="n">
         <v>180</v>
       </c>
       <c r="K609" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L609" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M609" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q609" t="n">
         <v>18</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E610" t="n">
         <v>5</v>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>460</v>
+        <v>190</v>
       </c>
       <c r="K610" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L610" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M610" t="n">
-        <v>12804</v>
+        <v>12000</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>711</v>
+        <v>667</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E611" t="n">
         <v>5</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K611" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L611" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M611" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44367,11 +44367,11 @@
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E612" t="n">
         <v>5</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>180</v>
+        <v>460</v>
       </c>
       <c r="K612" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L612" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M612" t="n">
-        <v>15000</v>
+        <v>12804</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44439,11 +44439,11 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>833</v>
+        <v>711</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="K613" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L613" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M613" t="n">
-        <v>13243</v>
+        <v>11000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>736</v>
+        <v>611</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J614" t="n">
         <v>180</v>
       </c>
       <c r="K614" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L614" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M614" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="K615" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L615" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="M615" t="n">
-        <v>9000</v>
+        <v>13243</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>500</v>
+        <v>736</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -44705,20 +44705,20 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="K616" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L616" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="M616" t="n">
-        <v>18486</v>
+        <v>11000</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>1027</v>
+        <v>611</v>
       </c>
       <c r="Q616" t="n">
         <v>18</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -44777,20 +44777,20 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K617" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L617" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M617" t="n">
-        <v>14529</v>
+        <v>9000</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>807</v>
+        <v>500</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E618" t="n">
         <v>5</v>
@@ -44853,16 +44853,16 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>198</v>
+        <v>370</v>
       </c>
       <c r="K618" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L618" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M618" t="n">
-        <v>17495</v>
+        <v>18486</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>972</v>
+        <v>1027</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E619" t="n">
         <v>5</v>
@@ -44925,16 +44925,16 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K619" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L619" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M619" t="n">
-        <v>13571</v>
+        <v>14529</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44943,11 +44943,11 @@
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>754</v>
+        <v>807</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -44997,16 +44997,16 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>510</v>
+        <v>198</v>
       </c>
       <c r="K620" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L620" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M620" t="n">
-        <v>12549</v>
+        <v>17495</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>697</v>
+        <v>972</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E621" t="n">
         <v>5</v>
@@ -45069,16 +45069,16 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="K621" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L621" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M621" t="n">
-        <v>9000</v>
+        <v>13571</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>500</v>
+        <v>754</v>
       </c>
       <c r="Q621" t="n">
         <v>18</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>140</v>
+        <v>510</v>
       </c>
       <c r="K622" t="n">
         <v>12000</v>
       </c>
       <c r="L622" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M622" t="n">
-        <v>12000</v>
+        <v>12549</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>667</v>
+        <v>697</v>
       </c>
       <c r="Q622" t="n">
         <v>18</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K623" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L623" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M623" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q623" t="n">
         <v>18</v>
@@ -45281,20 +45281,20 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K624" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L624" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M624" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45348,7 +45348,7 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
@@ -45357,16 +45357,16 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K625" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L625" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M625" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E626" t="n">
         <v>5</v>
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K626" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L626" t="n">
-        <v>19500</v>
+        <v>8000</v>
       </c>
       <c r="M626" t="n">
-        <v>19271</v>
+        <v>8000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>1071</v>
+        <v>444</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -45492,25 +45492,25 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="K627" t="n">
-        <v>15800</v>
+        <v>7000</v>
       </c>
       <c r="L627" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M627" t="n">
-        <v>15912</v>
+        <v>7000</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>884</v>
+        <v>389</v>
       </c>
       <c r="Q627" t="n">
         <v>18</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -45573,16 +45573,16 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K628" t="n">
         <v>19000</v>
       </c>
       <c r="L628" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="M628" t="n">
-        <v>19529</v>
+        <v>19271</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="Q628" t="n">
         <v>18</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E629" t="n">
         <v>5</v>
@@ -45641,20 +45641,20 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="K629" t="n">
-        <v>16500</v>
+        <v>15800</v>
       </c>
       <c r="L629" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M629" t="n">
-        <v>16759</v>
+        <v>15912</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45663,11 +45663,11 @@
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>931</v>
+        <v>884</v>
       </c>
       <c r="Q629" t="n">
         <v>18</v>
@@ -45717,32 +45717,32 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="K630" t="n">
-        <v>6500</v>
+        <v>19000</v>
       </c>
       <c r="L630" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="M630" t="n">
-        <v>6500</v>
+        <v>19529</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>542</v>
+        <v>1085</v>
       </c>
       <c r="Q630" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R630" t="inlineStr">
         <is>
@@ -45785,20 +45785,20 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="K631" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="L631" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M631" t="n">
-        <v>13400</v>
+        <v>16759</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>744</v>
+        <v>931</v>
       </c>
       <c r="Q631" t="n">
         <v>18</v>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K632" t="n">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="L632" t="n">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="M632" t="n">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="Q632" t="n">
         <v>12</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E633" t="n">
         <v>5</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="K633" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L633" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M633" t="n">
-        <v>11736</v>
+        <v>13400</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>652</v>
+        <v>744</v>
       </c>
       <c r="Q633" t="n">
         <v>18</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E634" t="n">
         <v>5</v>
@@ -46005,20 +46005,20 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="K634" t="n">
-        <v>9000</v>
+        <v>6300</v>
       </c>
       <c r="L634" t="n">
-        <v>9500</v>
+        <v>6300</v>
       </c>
       <c r="M634" t="n">
-        <v>9167</v>
+        <v>6300</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
@@ -46027,10 +46027,10 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="Q634" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R634" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E635" t="n">
         <v>5</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="K635" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="L635" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M635" t="n">
-        <v>14867</v>
+        <v>11736</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>826</v>
+        <v>652</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E636" t="n">
         <v>5</v>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="K636" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L636" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M636" t="n">
-        <v>12000</v>
+        <v>9167</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>667</v>
+        <v>509</v>
       </c>
       <c r="Q636" t="n">
         <v>18</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K637" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="L637" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M637" t="n">
-        <v>10000</v>
+        <v>14867</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>556</v>
+        <v>826</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -46289,20 +46289,20 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K638" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L638" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M638" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q638" t="n">
         <v>18</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E639" t="n">
         <v>5</v>
@@ -46361,20 +46361,20 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K639" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L639" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M639" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46433,20 +46433,20 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="K640" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L640" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M640" t="n">
-        <v>9760</v>
+        <v>15000</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>542</v>
+        <v>833</v>
       </c>
       <c r="Q640" t="n">
         <v>18</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E641" t="n">
         <v>5</v>
@@ -46509,16 +46509,16 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="K641" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L641" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M641" t="n">
-        <v>21537</v>
+        <v>12000</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>1196</v>
+        <v>667</v>
       </c>
       <c r="Q641" t="n">
         <v>18</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E642" t="n">
         <v>5</v>
@@ -46581,16 +46581,16 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="K642" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="L642" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M642" t="n">
-        <v>17000</v>
+        <v>9760</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>944</v>
+        <v>542</v>
       </c>
       <c r="Q642" t="n">
         <v>18</v>
@@ -46649,20 +46649,20 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>190</v>
+        <v>410</v>
       </c>
       <c r="K643" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L643" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M643" t="n">
-        <v>14000</v>
+        <v>21537</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>778</v>
+        <v>1196</v>
       </c>
       <c r="Q643" t="n">
         <v>18</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E644" t="n">
         <v>5</v>
@@ -46721,20 +46721,20 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="K644" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L644" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="M644" t="n">
-        <v>12257</v>
+        <v>17000</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46743,11 +46743,11 @@
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>681</v>
+        <v>944</v>
       </c>
       <c r="Q644" t="n">
         <v>18</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E645" t="n">
         <v>5</v>
@@ -46793,20 +46793,20 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="K645" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L645" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="M645" t="n">
-        <v>11243</v>
+        <v>14000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>625</v>
+        <v>778</v>
       </c>
       <c r="Q645" t="n">
         <v>18</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="K646" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L646" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="M646" t="n">
-        <v>9000</v>
+        <v>12257</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>500</v>
+        <v>681</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="K647" t="n">
         <v>11000</v>
       </c>
       <c r="L647" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="M647" t="n">
-        <v>11000</v>
+        <v>11243</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="Q647" t="n">
         <v>18</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E648" t="n">
         <v>5</v>
@@ -47009,11 +47009,11 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K648" t="n">
         <v>9000</v>
@@ -47081,24 +47081,24 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K649" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L649" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M649" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
@@ -47107,10 +47107,10 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>333</v>
+        <v>611</v>
       </c>
       <c r="Q649" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R649" t="inlineStr">
         <is>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="K650" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L650" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M650" t="n">
-        <v>7242</v>
+        <v>9000</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>402</v>
+        <v>500</v>
       </c>
       <c r="Q650" t="n">
         <v>18</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -47225,36 +47225,36 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K651" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="L651" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="M651" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>1000</v>
+        <v>333</v>
       </c>
       <c r="Q651" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E652" t="n">
         <v>5</v>
@@ -47297,20 +47297,20 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K652" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L652" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="M652" t="n">
-        <v>15000</v>
+        <v>7242</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47319,11 +47319,11 @@
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>833</v>
+        <v>402</v>
       </c>
       <c r="Q652" t="n">
         <v>18</v>
@@ -47369,20 +47369,20 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J653" t="n">
         <v>160</v>
       </c>
       <c r="K653" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L653" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M653" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q653" t="n">
         <v>18</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E654" t="n">
         <v>5</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K654" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L654" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M654" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47463,11 +47463,11 @@
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E655" t="n">
         <v>5</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K655" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L655" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M655" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47535,11 +47535,11 @@
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q655" t="n">
         <v>18</v>
@@ -47585,24 +47585,24 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="K656" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L656" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M656" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
@@ -47611,10 +47611,10 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="Q656" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R656" t="inlineStr">
         <is>
@@ -47657,20 +47657,20 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K657" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L657" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M657" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q657" t="n">
         <v>18</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E658" t="n">
         <v>5</v>
@@ -47736,29 +47736,29 @@
         <v>290</v>
       </c>
       <c r="K658" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L658" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M658" t="n">
-        <v>17517</v>
+        <v>5000</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>973</v>
+        <v>417</v>
       </c>
       <c r="Q658" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R658" t="inlineStr">
         <is>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E659" t="n">
         <v>5</v>
@@ -47805,16 +47805,16 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K659" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L659" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M659" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47823,11 +47823,11 @@
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>806</v>
+        <v>389</v>
       </c>
       <c r="Q659" t="n">
         <v>18</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E660" t="n">
         <v>5</v>
@@ -47877,16 +47877,16 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="K660" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L660" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M660" t="n">
-        <v>15529</v>
+        <v>17517</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>863</v>
+        <v>973</v>
       </c>
       <c r="Q660" t="n">
         <v>18</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E661" t="n">
         <v>5</v>
@@ -47949,16 +47949,16 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="K661" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L661" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M661" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>667</v>
+        <v>806</v>
       </c>
       <c r="Q661" t="n">
         <v>18</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E662" t="n">
         <v>5</v>
@@ -48021,16 +48021,16 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="K662" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L662" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M662" t="n">
-        <v>17438</v>
+        <v>15529</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>969</v>
+        <v>863</v>
       </c>
       <c r="Q662" t="n">
         <v>18</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E663" t="n">
         <v>5</v>
@@ -48093,16 +48093,16 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="K663" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L663" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="M663" t="n">
-        <v>13273</v>
+        <v>12000</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>737</v>
+        <v>667</v>
       </c>
       <c r="Q663" t="n">
         <v>18</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E664" t="n">
         <v>5</v>
@@ -48165,16 +48165,16 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="K664" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L664" t="n">
-        <v>9500</v>
+        <v>18000</v>
       </c>
       <c r="M664" t="n">
-        <v>9250</v>
+        <v>17438</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>514</v>
+        <v>969</v>
       </c>
       <c r="Q664" t="n">
         <v>18</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E665" t="n">
         <v>5</v>
@@ -48237,16 +48237,16 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="K665" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L665" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="M665" t="n">
-        <v>8000</v>
+        <v>13273</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>444</v>
+        <v>737</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="K666" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L666" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="M666" t="n">
-        <v>6500</v>
+        <v>9250</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>361</v>
+        <v>514</v>
       </c>
       <c r="Q666" t="n">
         <v>18</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E667" t="n">
         <v>5</v>
@@ -48377,20 +48377,20 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="K667" t="n">
-        <v>18500</v>
+        <v>8000</v>
       </c>
       <c r="L667" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M667" t="n">
-        <v>18757</v>
+        <v>8000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>1042</v>
+        <v>444</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E668" t="n">
         <v>5</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="K668" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L668" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="M668" t="n">
-        <v>15486</v>
+        <v>6500</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>860</v>
+        <v>361</v>
       </c>
       <c r="Q668" t="n">
         <v>18</v>
@@ -48525,20 +48525,20 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="K669" t="n">
-        <v>6000</v>
+        <v>18500</v>
       </c>
       <c r="L669" t="n">
-        <v>6500</v>
+        <v>19000</v>
       </c>
       <c r="M669" t="n">
-        <v>6250</v>
+        <v>18757</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
@@ -48547,10 +48547,10 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>521</v>
+        <v>1042</v>
       </c>
       <c r="Q669" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="K670" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L670" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M670" t="n">
-        <v>14000</v>
+        <v>15486</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>778</v>
+        <v>860</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E671" t="n">
         <v>5</v>
@@ -48665,36 +48665,36 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="K671" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L671" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="M671" t="n">
-        <v>14000</v>
+        <v>6250</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>778</v>
+        <v>521</v>
       </c>
       <c r="Q671" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E672" t="n">
         <v>5</v>
@@ -48737,20 +48737,20 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J672" t="n">
         <v>180</v>
       </c>
       <c r="K672" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L672" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M672" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="Q672" t="n">
         <v>18</v>
@@ -48809,20 +48809,20 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K673" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L673" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M673" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="Q673" t="n">
         <v>18</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E674" t="n">
         <v>5</v>
@@ -48885,16 +48885,16 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="K674" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L674" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="M674" t="n">
-        <v>20471</v>
+        <v>11000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>1137</v>
+        <v>611</v>
       </c>
       <c r="Q674" t="n">
         <v>18</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E675" t="n">
         <v>5</v>
@@ -48953,24 +48953,24 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="K675" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L675" t="n">
         <v>9000</v>
       </c>
       <c r="M675" t="n">
-        <v>8757</v>
+        <v>9000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
@@ -48979,10 +48979,10 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>730</v>
+        <v>500</v>
       </c>
       <c r="Q675" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K676" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L676" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="M676" t="n">
-        <v>16500</v>
+        <v>20471</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>917</v>
+        <v>1137</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E677" t="n">
         <v>5</v>
@@ -49097,36 +49097,36 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>170</v>
+        <v>680</v>
       </c>
       <c r="K677" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L677" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M677" t="n">
-        <v>11000</v>
+        <v>8757</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>611</v>
+        <v>730</v>
       </c>
       <c r="Q677" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R677" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E678" t="n">
         <v>5</v>
@@ -49169,20 +49169,20 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K678" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L678" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M678" t="n">
-        <v>9000</v>
+        <v>16500</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49191,11 +49191,11 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>500</v>
+        <v>917</v>
       </c>
       <c r="Q678" t="n">
         <v>18</v>
@@ -49241,24 +49241,24 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="K679" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L679" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M679" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
@@ -49267,10 +49267,10 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>417</v>
+        <v>611</v>
       </c>
       <c r="Q679" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R679" t="inlineStr">
         <is>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K680" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L680" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M680" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E681" t="n">
         <v>5</v>
@@ -49385,24 +49385,24 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K681" t="n">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="L681" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M681" t="n">
-        <v>12833</v>
+        <v>5000</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
@@ -49411,10 +49411,10 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>713</v>
+        <v>417</v>
       </c>
       <c r="Q681" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R681" t="inlineStr">
         <is>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E682" t="n">
         <v>5</v>
@@ -49457,20 +49457,20 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K682" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L682" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M682" t="n">
-        <v>10523</v>
+        <v>8000</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>585</v>
+        <v>444</v>
       </c>
       <c r="Q682" t="n">
         <v>18</v>
@@ -49529,36 +49529,36 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="K683" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="L683" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M683" t="n">
-        <v>5000</v>
+        <v>12833</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>417</v>
+        <v>713</v>
       </c>
       <c r="Q683" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R683" t="inlineStr">
         <is>
@@ -49601,20 +49601,20 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K684" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L684" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M684" t="n">
-        <v>8833</v>
+        <v>10523</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>491</v>
+        <v>585</v>
       </c>
       <c r="Q684" t="n">
         <v>18</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E685" t="n">
         <v>5</v>
@@ -49673,24 +49673,24 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="K685" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L685" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M685" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
@@ -49699,10 +49699,10 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>667</v>
+        <v>417</v>
       </c>
       <c r="Q685" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E686" t="n">
         <v>5</v>
@@ -49745,20 +49745,20 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="K686" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L686" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M686" t="n">
-        <v>9760</v>
+        <v>8833</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49767,11 +49767,11 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>542</v>
+        <v>491</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E687" t="n">
         <v>5</v>
@@ -49821,16 +49821,16 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="K687" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L687" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M687" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49839,11 +49839,11 @@
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q687" t="n">
         <v>18</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E688" t="n">
         <v>5</v>
@@ -49893,16 +49893,16 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="K688" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L688" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M688" t="n">
-        <v>9000</v>
+        <v>9760</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49911,11 +49911,11 @@
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>500</v>
+        <v>542</v>
       </c>
       <c r="Q688" t="n">
         <v>18</v>
@@ -49961,24 +49961,24 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="K689" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L689" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M689" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
@@ -49987,10 +49987,10 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q689" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R689" t="inlineStr">
         <is>
@@ -50033,20 +50033,20 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="K690" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L690" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M690" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q690" t="n">
         <v>18</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E691" t="n">
         <v>5</v>
@@ -50105,24 +50105,24 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="K691" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L691" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M691" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
@@ -50131,10 +50131,10 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q691" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R691" t="inlineStr">
         <is>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E692" t="n">
         <v>5</v>
@@ -50177,20 +50177,20 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K692" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L692" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M692" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="Q692" t="n">
         <v>18</v>
@@ -50249,20 +50249,20 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K693" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L693" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M693" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q693" t="n">
         <v>18</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E694" t="n">
         <v>5</v>
@@ -50321,20 +50321,20 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K694" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L694" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M694" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="Q694" t="n">
         <v>18</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E695" t="n">
         <v>5</v>
@@ -50393,20 +50393,20 @@
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="K695" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L695" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M695" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50465,20 +50465,20 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J696" t="n">
         <v>250</v>
       </c>
       <c r="K696" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L696" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M696" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q696" t="n">
         <v>18</v>
@@ -50537,20 +50537,20 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K697" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L697" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M697" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q697" t="n">
         <v>18</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E698" t="n">
         <v>5</v>
@@ -50609,20 +50609,20 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="K698" t="n">
         <v>11000</v>
       </c>
       <c r="L698" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="M698" t="n">
-        <v>11220</v>
+        <v>11000</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50631,11 +50631,11 @@
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="Q698" t="n">
         <v>18</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E699" t="n">
         <v>5</v>
@@ -50681,36 +50681,36 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K699" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L699" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M699" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q699" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50753,20 +50753,20 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="K700" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L700" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="M700" t="n">
-        <v>9000</v>
+        <v>11220</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>500</v>
+        <v>623</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E701" t="n">
         <v>5</v>
@@ -50829,20 +50829,20 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K701" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="L701" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="M701" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
@@ -50851,10 +50851,10 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>611</v>
+        <v>375</v>
       </c>
       <c r="Q701" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R701" t="inlineStr">
         <is>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E702" t="n">
         <v>5</v>
@@ -50901,7 +50901,7 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K702" t="n">
         <v>9000</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E703" t="n">
         <v>5</v>
@@ -50969,11 +50969,11 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="K703" t="n">
         <v>11000</v>
@@ -50991,7 +50991,7 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P703" t="n">
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E704" t="n">
         <v>5</v>
@@ -51041,11 +51041,11 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K704" t="n">
         <v>9000</v>
@@ -51063,7 +51063,7 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P704" t="n">
@@ -51113,20 +51113,20 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K705" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L705" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M705" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q705" t="n">
         <v>18</v>
@@ -51180,7 +51180,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51189,16 +51189,16 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K706" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L706" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M706" t="n">
-        <v>7360</v>
+        <v>9000</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>409</v>
+        <v>500</v>
       </c>
       <c r="Q706" t="n">
         <v>18</v>
@@ -51252,29 +51252,29 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K707" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L707" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M707" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
@@ -51283,10 +51283,10 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="Q707" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E708" t="n">
         <v>5</v>
@@ -51324,25 +51324,25 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K708" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L708" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M708" t="n">
-        <v>10780</v>
+        <v>7360</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>599</v>
+        <v>409</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E709" t="n">
         <v>5</v>
@@ -51396,7 +51396,7 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
@@ -51405,20 +51405,20 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>570</v>
+        <v>180</v>
       </c>
       <c r="K709" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L709" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M709" t="n">
-        <v>9246</v>
+        <v>4500</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
@@ -51427,10 +51427,10 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>514</v>
+        <v>375</v>
       </c>
       <c r="Q709" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51473,36 +51473,36 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K710" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="L710" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="M710" t="n">
-        <v>4500</v>
+        <v>10780</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>375</v>
+        <v>599</v>
       </c>
       <c r="Q710" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51545,20 +51545,20 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="K711" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L711" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M711" t="n">
-        <v>7250</v>
+        <v>9246</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>403</v>
+        <v>514</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E712" t="n">
         <v>5</v>
@@ -51617,36 +51617,36 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="K712" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="L712" t="n">
-        <v>11500</v>
+        <v>4500</v>
       </c>
       <c r="M712" t="n">
-        <v>11243</v>
+        <v>4500</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>625</v>
+        <v>375</v>
       </c>
       <c r="Q712" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R712" t="inlineStr">
         <is>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E713" t="n">
         <v>5</v>
@@ -51689,20 +51689,20 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="K713" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L713" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="M713" t="n">
-        <v>9243</v>
+        <v>7250</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>514</v>
+        <v>403</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51761,20 +51761,20 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="K714" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L714" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="M714" t="n">
-        <v>7235</v>
+        <v>11243</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>402</v>
+        <v>625</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E715" t="n">
         <v>5</v>
@@ -51837,16 +51837,16 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="K715" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L715" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M715" t="n">
-        <v>11681</v>
+        <v>9243</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51855,11 +51855,11 @@
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>649</v>
+        <v>514</v>
       </c>
       <c r="Q715" t="n">
         <v>18</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E716" t="n">
         <v>5</v>
@@ -51909,16 +51909,16 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K716" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L716" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M716" t="n">
-        <v>9000</v>
+        <v>7235</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51927,11 +51927,11 @@
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>500</v>
+        <v>402</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E717" t="n">
         <v>5</v>
@@ -51977,20 +51977,20 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="K717" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L717" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M717" t="n">
-        <v>14000</v>
+        <v>11681</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -51999,11 +51999,11 @@
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>778</v>
+        <v>649</v>
       </c>
       <c r="Q717" t="n">
         <v>18</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E718" t="n">
         <v>5</v>
@@ -52049,20 +52049,20 @@
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>650</v>
+        <v>180</v>
       </c>
       <c r="K718" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L718" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M718" t="n">
-        <v>11015</v>
+        <v>9000</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>612</v>
+        <v>500</v>
       </c>
       <c r="Q718" t="n">
         <v>18</v>
@@ -52121,36 +52121,36 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="K719" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L719" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M719" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>417</v>
+        <v>778</v>
       </c>
       <c r="Q719" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R719" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E720" t="n">
         <v>5</v>
@@ -52193,20 +52193,20 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>240</v>
+        <v>650</v>
       </c>
       <c r="K720" t="n">
         <v>10000</v>
       </c>
       <c r="L720" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M720" t="n">
-        <v>10000</v>
+        <v>11015</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52219,7 +52219,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>556</v>
+        <v>612</v>
       </c>
       <c r="Q720" t="n">
         <v>18</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E721" t="n">
         <v>5</v>
@@ -52269,32 +52269,32 @@
         </is>
       </c>
       <c r="J721" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="K721" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L721" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M721" t="n">
-        <v>8722</v>
+        <v>5000</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>485</v>
+        <v>417</v>
       </c>
       <c r="Q721" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R721" t="inlineStr">
         <is>
@@ -52337,20 +52337,20 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K722" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L722" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M722" t="n">
-        <v>7761</v>
+        <v>10000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>431</v>
+        <v>556</v>
       </c>
       <c r="Q722" t="n">
         <v>18</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E723" t="n">
         <v>5</v>
@@ -52413,16 +52413,16 @@
         </is>
       </c>
       <c r="J723" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="K723" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="L723" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="M723" t="n">
-        <v>19000</v>
+        <v>8722</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52435,7 +52435,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>1056</v>
+        <v>485</v>
       </c>
       <c r="Q723" t="n">
         <v>18</v>
@@ -52461,58 +52461,202 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E724" t="n">
+        <v>5</v>
+      </c>
+      <c r="F724" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J724" t="n">
+        <v>230</v>
+      </c>
+      <c r="K724" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L724" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M724" t="n">
+        <v>7761</v>
+      </c>
+      <c r="N724" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O724" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P724" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q724" t="n">
+        <v>18</v>
+      </c>
+      <c r="R724" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>3</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D725" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E724" t="n">
-        <v>5</v>
-      </c>
-      <c r="F724" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G724" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I724" t="inlineStr">
+      <c r="E725" t="n">
+        <v>5</v>
+      </c>
+      <c r="F725" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I725" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J724" t="n">
+      <c r="J725" t="n">
+        <v>230</v>
+      </c>
+      <c r="K725" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L725" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M725" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N725" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O725" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P725" t="n">
+        <v>1056</v>
+      </c>
+      <c r="Q725" t="n">
+        <v>18</v>
+      </c>
+      <c r="R725" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>3</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D726" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E726" t="n">
+        <v>5</v>
+      </c>
+      <c r="F726" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J726" t="n">
         <v>510</v>
       </c>
-      <c r="K724" t="n">
+      <c r="K726" t="n">
         <v>17000</v>
       </c>
-      <c r="L724" t="n">
+      <c r="L726" t="n">
         <v>17500</v>
       </c>
-      <c r="M724" t="n">
+      <c r="M726" t="n">
         <v>17245</v>
       </c>
-      <c r="N724" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O724" t="inlineStr">
+      <c r="N726" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O726" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P724" t="n">
+      <c r="P726" t="n">
         <v>958</v>
       </c>
-      <c r="Q724" t="n">
-        <v>18</v>
-      </c>
-      <c r="R724" t="inlineStr">
+      <c r="Q726" t="n">
+        <v>18</v>
+      </c>
+      <c r="R726" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R726"/>
+  <dimension ref="A1:R728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E700" t="n">
         <v>5</v>
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="K700" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L700" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="M700" t="n">
-        <v>11220</v>
+        <v>17500</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50775,11 +50775,11 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>623</v>
+        <v>972</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E701" t="n">
         <v>5</v>
@@ -50825,36 +50825,36 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="K701" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="L701" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="M701" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>375</v>
+        <v>778</v>
       </c>
       <c r="Q701" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R701" t="inlineStr">
         <is>
@@ -50897,20 +50897,20 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="K702" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L702" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="M702" t="n">
-        <v>9000</v>
+        <v>11220</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>500</v>
+        <v>623</v>
       </c>
       <c r="Q702" t="n">
         <v>18</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E703" t="n">
         <v>5</v>
@@ -50973,20 +50973,20 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K703" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="L703" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="M703" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
@@ -50995,10 +50995,10 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>611</v>
+        <v>375</v>
       </c>
       <c r="Q703" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E704" t="n">
         <v>5</v>
@@ -51045,7 +51045,7 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K704" t="n">
         <v>9000</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E705" t="n">
         <v>5</v>
@@ -51113,11 +51113,11 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="K705" t="n">
         <v>11000</v>
@@ -51135,7 +51135,7 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P705" t="n">
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E706" t="n">
         <v>5</v>
@@ -51185,11 +51185,11 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K706" t="n">
         <v>9000</v>
@@ -51207,7 +51207,7 @@
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P706" t="n">
@@ -51257,20 +51257,20 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K707" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L707" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M707" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q707" t="n">
         <v>18</v>
@@ -51324,7 +51324,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -51333,16 +51333,16 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K708" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L708" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M708" t="n">
-        <v>7360</v>
+        <v>9000</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>409</v>
+        <v>500</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51396,29 +51396,29 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K709" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L709" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M709" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
@@ -51427,10 +51427,10 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="Q709" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E710" t="n">
         <v>5</v>
@@ -51468,25 +51468,25 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K710" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L710" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M710" t="n">
-        <v>10780</v>
+        <v>7360</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>599</v>
+        <v>409</v>
       </c>
       <c r="Q710" t="n">
         <v>18</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E711" t="n">
         <v>5</v>
@@ -51540,7 +51540,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
@@ -51549,20 +51549,20 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>570</v>
+        <v>180</v>
       </c>
       <c r="K711" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L711" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="M711" t="n">
-        <v>9246</v>
+        <v>4500</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
@@ -51571,10 +51571,10 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>514</v>
+        <v>375</v>
       </c>
       <c r="Q711" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R711" t="inlineStr">
         <is>
@@ -51617,36 +51617,36 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K712" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="L712" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="M712" t="n">
-        <v>4500</v>
+        <v>10780</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>375</v>
+        <v>599</v>
       </c>
       <c r="Q712" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R712" t="inlineStr">
         <is>
@@ -51689,20 +51689,20 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="K713" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L713" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M713" t="n">
-        <v>7250</v>
+        <v>9246</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>403</v>
+        <v>514</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E714" t="n">
         <v>5</v>
@@ -51761,36 +51761,36 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="K714" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="L714" t="n">
-        <v>11500</v>
+        <v>4500</v>
       </c>
       <c r="M714" t="n">
-        <v>11243</v>
+        <v>4500</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>625</v>
+        <v>375</v>
       </c>
       <c r="Q714" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R714" t="inlineStr">
         <is>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E715" t="n">
         <v>5</v>
@@ -51833,20 +51833,20 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="K715" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L715" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="M715" t="n">
-        <v>9243</v>
+        <v>7250</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>514</v>
+        <v>403</v>
       </c>
       <c r="Q715" t="n">
         <v>18</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="K716" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L716" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="M716" t="n">
-        <v>7235</v>
+        <v>11243</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>402</v>
+        <v>625</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E717" t="n">
         <v>5</v>
@@ -51981,16 +51981,16 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="K717" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L717" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="M717" t="n">
-        <v>11681</v>
+        <v>9243</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -51999,11 +51999,11 @@
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>649</v>
+        <v>514</v>
       </c>
       <c r="Q717" t="n">
         <v>18</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E718" t="n">
         <v>5</v>
@@ -52053,16 +52053,16 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K718" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L718" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M718" t="n">
-        <v>9000</v>
+        <v>7235</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>500</v>
+        <v>402</v>
       </c>
       <c r="Q718" t="n">
         <v>18</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E719" t="n">
         <v>5</v>
@@ -52121,20 +52121,20 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="K719" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L719" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M719" t="n">
-        <v>14000</v>
+        <v>11681</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52143,11 +52143,11 @@
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>778</v>
+        <v>649</v>
       </c>
       <c r="Q719" t="n">
         <v>18</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E720" t="n">
         <v>5</v>
@@ -52193,20 +52193,20 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>650</v>
+        <v>180</v>
       </c>
       <c r="K720" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L720" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M720" t="n">
-        <v>11015</v>
+        <v>9000</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>612</v>
+        <v>500</v>
       </c>
       <c r="Q720" t="n">
         <v>18</v>
@@ -52265,36 +52265,36 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="K721" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L721" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M721" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>417</v>
+        <v>778</v>
       </c>
       <c r="Q721" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R721" t="inlineStr">
         <is>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E722" t="n">
         <v>5</v>
@@ -52337,20 +52337,20 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>240</v>
+        <v>650</v>
       </c>
       <c r="K722" t="n">
         <v>10000</v>
       </c>
       <c r="L722" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M722" t="n">
-        <v>10000</v>
+        <v>11015</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>556</v>
+        <v>612</v>
       </c>
       <c r="Q722" t="n">
         <v>18</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E723" t="n">
         <v>5</v>
@@ -52413,32 +52413,32 @@
         </is>
       </c>
       <c r="J723" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="K723" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L723" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M723" t="n">
-        <v>8722</v>
+        <v>5000</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>485</v>
+        <v>417</v>
       </c>
       <c r="Q723" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R723" t="inlineStr">
         <is>
@@ -52481,20 +52481,20 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K724" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L724" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M724" t="n">
-        <v>7761</v>
+        <v>10000</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>431</v>
+        <v>556</v>
       </c>
       <c r="Q724" t="n">
         <v>18</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E725" t="n">
         <v>5</v>
@@ -52557,16 +52557,16 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="K725" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="L725" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="M725" t="n">
-        <v>19000</v>
+        <v>8722</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>1056</v>
+        <v>485</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52605,58 +52605,202 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E726" t="n">
+        <v>5</v>
+      </c>
+      <c r="F726" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J726" t="n">
+        <v>230</v>
+      </c>
+      <c r="K726" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L726" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M726" t="n">
+        <v>7761</v>
+      </c>
+      <c r="N726" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O726" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P726" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q726" t="n">
+        <v>18</v>
+      </c>
+      <c r="R726" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>3</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D727" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E726" t="n">
-        <v>5</v>
-      </c>
-      <c r="F726" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I726" t="inlineStr">
+      <c r="E727" t="n">
+        <v>5</v>
+      </c>
+      <c r="F727" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I727" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J726" t="n">
+      <c r="J727" t="n">
+        <v>230</v>
+      </c>
+      <c r="K727" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L727" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M727" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N727" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O727" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P727" t="n">
+        <v>1056</v>
+      </c>
+      <c r="Q727" t="n">
+        <v>18</v>
+      </c>
+      <c r="R727" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>3</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D728" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E728" t="n">
+        <v>5</v>
+      </c>
+      <c r="F728" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I728" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J728" t="n">
         <v>510</v>
       </c>
-      <c r="K726" t="n">
+      <c r="K728" t="n">
         <v>17000</v>
       </c>
-      <c r="L726" t="n">
+      <c r="L728" t="n">
         <v>17500</v>
       </c>
-      <c r="M726" t="n">
+      <c r="M728" t="n">
         <v>17245</v>
       </c>
-      <c r="N726" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O726" t="inlineStr">
+      <c r="N728" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O728" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P726" t="n">
+      <c r="P728" t="n">
         <v>958</v>
       </c>
-      <c r="Q726" t="n">
-        <v>18</v>
-      </c>
-      <c r="R726" t="inlineStr">
+      <c r="Q728" t="n">
+        <v>18</v>
+      </c>
+      <c r="R728" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R728"/>
+  <dimension ref="A1:R730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="K504" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L504" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="M504" t="n">
-        <v>11250</v>
+        <v>17239</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36663,11 +36663,11 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>625</v>
+        <v>958</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -36713,20 +36713,20 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>370</v>
+        <v>220</v>
       </c>
       <c r="K505" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L505" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="M505" t="n">
-        <v>9257</v>
+        <v>14000</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36735,11 +36735,11 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>514</v>
+        <v>778</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36785,20 +36785,20 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="K506" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L506" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="M506" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>444</v>
+        <v>625</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44229</v>
+        <v>44329</v>
       </c>
       <c r="E507" t="n">
         <v>5</v>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="K507" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L507" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="M507" t="n">
-        <v>11000</v>
+        <v>9257</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36879,11 +36879,11 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>611</v>
+        <v>514</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44229</v>
+        <v>44329</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -36929,20 +36929,20 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K508" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L508" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M508" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36951,11 +36951,11 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -37001,24 +37001,24 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="K509" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L509" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M509" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
@@ -37027,10 +37027,10 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q509" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R509" t="inlineStr">
         <is>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K510" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L510" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M510" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44376</v>
+        <v>44229</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -37149,32 +37149,32 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="K511" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L511" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M511" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q511" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R511" t="inlineStr">
         <is>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44376</v>
+        <v>44229</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -37217,36 +37217,36 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>730</v>
+        <v>160</v>
       </c>
       <c r="K512" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L512" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M512" t="n">
-        <v>4760</v>
+        <v>7000</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q512" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R512" t="inlineStr">
         <is>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K513" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L513" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M513" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -37361,36 +37361,36 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>250</v>
+        <v>730</v>
       </c>
       <c r="K514" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="L514" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="M514" t="n">
-        <v>9500</v>
+        <v>4760</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>528</v>
+        <v>397</v>
       </c>
       <c r="Q514" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R514" t="inlineStr">
         <is>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>1110</v>
+        <v>280</v>
       </c>
       <c r="K515" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L515" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M515" t="n">
-        <v>6739</v>
+        <v>9000</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37455,11 +37455,11 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37505,24 +37505,24 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K516" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L516" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="M516" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
@@ -37531,10 +37531,10 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="Q516" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R516" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>510</v>
+        <v>1110</v>
       </c>
       <c r="K517" t="n">
-        <v>21000</v>
+        <v>6000</v>
       </c>
       <c r="L517" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="M517" t="n">
-        <v>21451</v>
+        <v>6739</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37599,11 +37599,11 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>1192</v>
+        <v>374</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -37649,36 +37649,36 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="K518" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="L518" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="M518" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>1000</v>
+        <v>333</v>
       </c>
       <c r="Q518" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R518" t="inlineStr">
         <is>
@@ -37721,20 +37721,20 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>280</v>
+        <v>510</v>
       </c>
       <c r="K519" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L519" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M519" t="n">
-        <v>16000</v>
+        <v>21451</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>889</v>
+        <v>1192</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44466</v>
+        <v>44453</v>
       </c>
       <c r="E520" t="n">
         <v>5</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="K520" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L520" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="M520" t="n">
-        <v>16286</v>
+        <v>18000</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>905</v>
+        <v>1000</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44466</v>
+        <v>44453</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -37865,20 +37865,20 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="K521" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L521" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M521" t="n">
-        <v>13200</v>
+        <v>16000</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>733</v>
+        <v>889</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="K522" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L522" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="M522" t="n">
-        <v>11000</v>
+        <v>16286</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>611</v>
+        <v>905</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44242</v>
+        <v>44466</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="K523" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L523" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M523" t="n">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44242</v>
+        <v>44466</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="K524" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L524" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M524" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38103,11 +38103,11 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K525" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L525" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M525" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38220,7 +38220,7 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K526" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L526" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M526" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38292,29 +38292,29 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="K527" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L527" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M527" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
@@ -38323,10 +38323,10 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q527" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R527" t="inlineStr">
         <is>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K528" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L528" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M528" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="Q528" t="n">
         <v>18</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44351</v>
+        <v>44242</v>
       </c>
       <c r="E529" t="n">
         <v>5</v>
@@ -38436,41 +38436,41 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="K529" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L529" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="M529" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>833</v>
+        <v>333</v>
       </c>
       <c r="Q529" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R529" t="inlineStr">
         <is>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44351</v>
+        <v>44242</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -38508,25 +38508,25 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K530" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L530" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M530" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>556</v>
+        <v>278</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K531" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L531" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M531" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38661,32 +38661,32 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K532" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L532" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M532" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>458</v>
+        <v>556</v>
       </c>
       <c r="Q532" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J533" t="n">
         <v>160</v>
       </c>
       <c r="K533" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L533" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M533" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44279</v>
+        <v>44351</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -38801,36 +38801,36 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="K534" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L534" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M534" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>556</v>
+        <v>458</v>
       </c>
       <c r="Q534" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R534" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44279</v>
+        <v>44351</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -38873,7 +38873,7 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J535" t="n">
@@ -38895,7 +38895,7 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P535" t="n">
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J536" t="n">
         <v>180</v>
       </c>
       <c r="K536" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L536" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M536" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E537" t="n">
         <v>5</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K537" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L537" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M537" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39039,11 +39039,11 @@
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K538" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L538" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M538" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39111,11 +39111,11 @@
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q538" t="n">
         <v>18</v>
@@ -39161,24 +39161,24 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="K539" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L539" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M539" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
@@ -39187,10 +39187,10 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>417</v>
+        <v>611</v>
       </c>
       <c r="Q539" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R539" t="inlineStr">
         <is>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="K540" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L540" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M540" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44389</v>
+        <v>44280</v>
       </c>
       <c r="E541" t="n">
         <v>5</v>
@@ -39309,32 +39309,32 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="K541" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L541" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M541" t="n">
-        <v>15478</v>
+        <v>5000</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>860</v>
+        <v>417</v>
       </c>
       <c r="Q541" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R541" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44389</v>
+        <v>44280</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -39381,29 +39381,29 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K542" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L542" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M542" t="n">
-        <v>12535</v>
+        <v>7000</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>696</v>
+        <v>389</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39449,20 +39449,20 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="K543" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L543" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M543" t="n">
-        <v>10000</v>
+        <v>15478</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>556</v>
+        <v>860</v>
       </c>
       <c r="Q543" t="n">
         <v>18</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44442</v>
+        <v>44389</v>
       </c>
       <c r="E544" t="n">
         <v>5</v>
@@ -39521,24 +39521,24 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>590</v>
+        <v>430</v>
       </c>
       <c r="K544" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L544" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M544" t="n">
-        <v>16517</v>
+        <v>12535</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>918</v>
+        <v>696</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44442</v>
+        <v>44389</v>
       </c>
       <c r="E545" t="n">
         <v>5</v>
@@ -39593,24 +39593,24 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>630</v>
+        <v>240</v>
       </c>
       <c r="K545" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L545" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M545" t="n">
-        <v>7222</v>
+        <v>10000</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
@@ -39619,10 +39619,10 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>602</v>
+        <v>556</v>
       </c>
       <c r="Q545" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R545" t="inlineStr">
         <is>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>280</v>
+        <v>590</v>
       </c>
       <c r="K546" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="L546" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="M546" t="n">
-        <v>12500</v>
+        <v>16517</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>694</v>
+        <v>918</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44476</v>
+        <v>44442</v>
       </c>
       <c r="E547" t="n">
         <v>5</v>
@@ -39741,20 +39741,20 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>370</v>
+        <v>630</v>
       </c>
       <c r="K547" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L547" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="M547" t="n">
-        <v>18514</v>
+        <v>7222</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
@@ -39763,10 +39763,10 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>1029</v>
+        <v>602</v>
       </c>
       <c r="Q547" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R547" t="inlineStr">
         <is>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44476</v>
+        <v>44442</v>
       </c>
       <c r="E548" t="n">
         <v>5</v>
@@ -39813,16 +39813,16 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="K548" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L548" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M548" t="n">
-        <v>14471</v>
+        <v>12500</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>804</v>
+        <v>694</v>
       </c>
       <c r="Q548" t="n">
         <v>18</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44372</v>
+        <v>44476</v>
       </c>
       <c r="E549" t="n">
         <v>5</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="K549" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L549" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M549" t="n">
-        <v>15419</v>
+        <v>18514</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>857</v>
+        <v>1029</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44372</v>
+        <v>44476</v>
       </c>
       <c r="E550" t="n">
         <v>5</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K550" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L550" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M550" t="n">
-        <v>11750</v>
+        <v>14471</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>653</v>
+        <v>804</v>
       </c>
       <c r="Q550" t="n">
         <v>18</v>
@@ -40025,24 +40025,24 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="K551" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L551" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="M551" t="n">
-        <v>5500</v>
+        <v>15419</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
@@ -40051,10 +40051,10 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>458</v>
+        <v>857</v>
       </c>
       <c r="Q551" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R551" t="inlineStr">
         <is>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K552" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L552" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M552" t="n">
-        <v>9000</v>
+        <v>11750</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>500</v>
+        <v>653</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44201</v>
+        <v>44372</v>
       </c>
       <c r="E553" t="n">
         <v>5</v>
@@ -40169,36 +40169,36 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K553" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="L553" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="M553" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>833</v>
+        <v>458</v>
       </c>
       <c r="Q553" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R553" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44201</v>
+        <v>44372</v>
       </c>
       <c r="E554" t="n">
         <v>5</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K554" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L554" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M554" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40263,11 +40263,11 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q554" t="n">
         <v>18</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J555" t="n">
         <v>180</v>
       </c>
       <c r="K555" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L555" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M555" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44482</v>
+        <v>44201</v>
       </c>
       <c r="E556" t="n">
         <v>5</v>
@@ -40389,16 +40389,16 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="K556" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L556" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M556" t="n">
-        <v>15484</v>
+        <v>13000</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40407,11 +40407,11 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>860</v>
+        <v>722</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44482</v>
+        <v>44201</v>
       </c>
       <c r="E557" t="n">
         <v>5</v>
@@ -40461,16 +40461,16 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K557" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L557" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M557" t="n">
-        <v>12300</v>
+        <v>11000</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40479,11 +40479,11 @@
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>683</v>
+        <v>611</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44293</v>
+        <v>44482</v>
       </c>
       <c r="E558" t="n">
         <v>5</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K558" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L558" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M558" t="n">
-        <v>10000</v>
+        <v>15484</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40551,11 +40551,11 @@
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>556</v>
+        <v>860</v>
       </c>
       <c r="Q558" t="n">
         <v>18</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44293</v>
+        <v>44482</v>
       </c>
       <c r="E559" t="n">
         <v>5</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="K559" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L559" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M559" t="n">
-        <v>8000</v>
+        <v>12300</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40623,11 +40623,11 @@
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>444</v>
+        <v>683</v>
       </c>
       <c r="Q559" t="n">
         <v>18</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J560" t="n">
         <v>180</v>
       </c>
       <c r="K560" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L560" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M560" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>361</v>
+        <v>556</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44204</v>
+        <v>44293</v>
       </c>
       <c r="E561" t="n">
         <v>5</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K561" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L561" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M561" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>833</v>
+        <v>444</v>
       </c>
       <c r="Q561" t="n">
         <v>18</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44204</v>
+        <v>44293</v>
       </c>
       <c r="E562" t="n">
         <v>5</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K562" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L562" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="M562" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>722</v>
+        <v>361</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J563" t="n">
         <v>180</v>
       </c>
       <c r="K563" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L563" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M563" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E564" t="n">
         <v>5</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K564" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L564" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M564" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E565" t="n">
         <v>5</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K565" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L565" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M565" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K566" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L566" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M566" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K567" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L567" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M567" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41253,32 +41253,32 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K568" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L568" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M568" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q568" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R568" t="inlineStr">
         <is>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K569" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L569" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M569" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41393,24 +41393,24 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K570" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L570" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M570" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
@@ -41419,10 +41419,10 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="Q570" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R570" t="inlineStr">
         <is>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E571" t="n">
         <v>5</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K571" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L571" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M571" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>778</v>
+        <v>389</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E572" t="n">
         <v>5</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K572" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L572" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M572" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>667</v>
+        <v>361</v>
       </c>
       <c r="Q572" t="n">
         <v>18</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K573" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L573" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M573" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E574" t="n">
         <v>5</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J574" t="n">
         <v>180</v>
       </c>
       <c r="K574" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L574" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M574" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E575" t="n">
         <v>5</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K575" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L575" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M575" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K576" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L576" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M576" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="K577" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L577" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M577" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E578" t="n">
         <v>5</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="K578" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L578" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M578" t="n">
-        <v>11444</v>
+        <v>10000</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>636</v>
+        <v>556</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E579" t="n">
         <v>5</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="K579" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L579" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M579" t="n">
-        <v>8750</v>
+        <v>8000</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44477</v>
+        <v>44166</v>
       </c>
       <c r="E580" t="n">
         <v>5</v>
@@ -42117,16 +42117,16 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>360</v>
+        <v>225</v>
       </c>
       <c r="K580" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L580" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M580" t="n">
-        <v>18500</v>
+        <v>11444</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>1028</v>
+        <v>636</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44477</v>
+        <v>44166</v>
       </c>
       <c r="E581" t="n">
         <v>5</v>
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="K581" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="L581" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M581" t="n">
-        <v>14514</v>
+        <v>8750</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>806</v>
+        <v>486</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44292</v>
+        <v>44477</v>
       </c>
       <c r="E582" t="n">
         <v>5</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="K582" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L582" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M582" t="n">
-        <v>10000</v>
+        <v>18500</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42279,11 +42279,11 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>556</v>
+        <v>1028</v>
       </c>
       <c r="Q582" t="n">
         <v>18</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44292</v>
+        <v>44477</v>
       </c>
       <c r="E583" t="n">
         <v>5</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="K583" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L583" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M583" t="n">
-        <v>8000</v>
+        <v>14514</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42351,11 +42351,11 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>444</v>
+        <v>806</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K584" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L584" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M584" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q584" t="n">
         <v>18</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44508</v>
+        <v>44292</v>
       </c>
       <c r="E585" t="n">
         <v>5</v>
@@ -42477,16 +42477,16 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="K585" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L585" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M585" t="n">
-        <v>17516</v>
+        <v>8000</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>973</v>
+        <v>444</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44508</v>
+        <v>44292</v>
       </c>
       <c r="E586" t="n">
         <v>5</v>
@@ -42549,16 +42549,16 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K586" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L586" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M586" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>778</v>
+        <v>389</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E587" t="n">
         <v>5</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K587" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L587" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M587" t="n">
-        <v>11000</v>
+        <v>17516</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>611</v>
+        <v>973</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E588" t="n">
         <v>5</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K588" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L588" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="M588" t="n">
-        <v>9235</v>
+        <v>14000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42711,11 +42711,11 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>513</v>
+        <v>778</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42761,24 +42761,24 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K589" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L589" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="M589" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
@@ -42787,10 +42787,10 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>375</v>
+        <v>611</v>
       </c>
       <c r="Q589" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R589" t="inlineStr">
         <is>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K590" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L590" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M590" t="n">
-        <v>8000</v>
+        <v>9235</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>444</v>
+        <v>513</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E591" t="n">
         <v>5</v>
@@ -42905,24 +42905,24 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K591" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L591" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M591" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
@@ -42931,10 +42931,10 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>833</v>
+        <v>375</v>
       </c>
       <c r="Q591" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R591" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E592" t="n">
         <v>5</v>
@@ -42977,20 +42977,20 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J592" t="n">
         <v>160</v>
       </c>
       <c r="K592" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L592" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M592" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K593" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L593" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M593" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43121,24 +43121,24 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K594" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L594" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M594" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
@@ -43147,10 +43147,10 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="Q594" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R594" t="inlineStr">
         <is>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E595" t="n">
         <v>5</v>
@@ -43193,11 +43193,11 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="K595" t="n">
         <v>10000</v>
@@ -43215,7 +43215,7 @@
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P595" t="n">
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E596" t="n">
         <v>5</v>
@@ -43265,36 +43265,36 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K596" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L596" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M596" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="Q596" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R596" t="inlineStr">
         <is>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="K597" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L597" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M597" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>361</v>
+        <v>556</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="K598" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L598" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M598" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E599" t="n">
         <v>5</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K599" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L599" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M599" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43503,11 +43503,11 @@
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>611</v>
+        <v>361</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E600" t="n">
         <v>5</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="K600" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L600" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M600" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43575,11 +43575,11 @@
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K601" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L601" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M601" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E602" t="n">
         <v>5</v>
@@ -43697,20 +43697,20 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K602" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L602" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M602" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E603" t="n">
         <v>5</v>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="K603" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L603" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M603" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="K604" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L604" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M604" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43908,7 +43908,7